--- a/data-migration/xlsx_1900-/1902_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1902_Winter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30A066F-DF17-4DD1-BDA6-E2B1ABDDA074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7F2B24-85AB-4BFB-9DD5-220FA038F083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3149,9 +3149,6 @@
     <t>stoppany_ga</t>
   </si>
   <si>
-    <t>gysi_fe</t>
-  </si>
-  <si>
     <t>zangger_h</t>
   </si>
   <si>
@@ -3417,6 +3414,9 @@
   </si>
   <si>
     <t>HP</t>
+  </si>
+  <si>
+    <t>gysi_a</t>
   </si>
 </sst>
 </file>
@@ -3760,8 +3760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B286" workbookViewId="0">
-      <selection activeCell="I175" sqref="I175"/>
+    <sheetView tabSelected="1" topLeftCell="B147" workbookViewId="0">
+      <selection activeCell="K163" sqref="K163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3783,7 +3783,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F1" t="s">
         <v>386</v>
@@ -3792,10 +3792,10 @@
         <v>766</v>
       </c>
       <c r="H1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3809,7 +3809,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F2" t="s">
         <v>387</v>
@@ -3821,7 +3821,7 @@
         <v>991</v>
       </c>
       <c r="I2" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3835,7 +3835,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F3" t="s">
         <v>388</v>
@@ -3847,7 +3847,7 @@
         <v>992</v>
       </c>
       <c r="I3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3861,7 +3861,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F4" t="s">
         <v>389</v>
@@ -3873,7 +3873,7 @@
         <v>991</v>
       </c>
       <c r="I4" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3887,7 +3887,7 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F5" t="s">
         <v>390</v>
@@ -3899,7 +3899,7 @@
         <v>993</v>
       </c>
       <c r="I5" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3913,7 +3913,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F6" t="s">
         <v>391</v>
@@ -3925,7 +3925,7 @@
         <v>994</v>
       </c>
       <c r="I6" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3939,7 +3939,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F7" t="s">
         <v>392</v>
@@ -3951,10 +3951,10 @@
         <v>995</v>
       </c>
       <c r="I7" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J7" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3968,7 +3968,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F8" t="s">
         <v>393</v>
@@ -3980,7 +3980,7 @@
         <v>996</v>
       </c>
       <c r="I8" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3994,7 +3994,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F9" t="s">
         <v>394</v>
@@ -4006,7 +4006,7 @@
         <v>993</v>
       </c>
       <c r="I9" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -4020,7 +4020,7 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F10" t="s">
         <v>395</v>
@@ -4032,7 +4032,7 @@
         <v>994</v>
       </c>
       <c r="I10" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -4046,7 +4046,7 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F11" t="s">
         <v>396</v>
@@ -4058,10 +4058,10 @@
         <v>995</v>
       </c>
       <c r="I11" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J11" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -4075,7 +4075,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F12" t="s">
         <v>397</v>
@@ -4087,7 +4087,7 @@
         <v>997</v>
       </c>
       <c r="I12" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -4101,7 +4101,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F13" t="s">
         <v>398</v>
@@ -4113,7 +4113,7 @@
         <v>994</v>
       </c>
       <c r="I13" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -4127,7 +4127,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F14" t="s">
         <v>399</v>
@@ -4139,7 +4139,7 @@
         <v>996</v>
       </c>
       <c r="I14" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -4153,7 +4153,7 @@
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F15" t="s">
         <v>400</v>
@@ -4165,7 +4165,7 @@
         <v>998</v>
       </c>
       <c r="I15" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -4179,7 +4179,7 @@
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F16" t="s">
         <v>401</v>
@@ -4191,7 +4191,7 @@
         <v>998</v>
       </c>
       <c r="I16" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -4205,7 +4205,7 @@
         <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F17" t="s">
         <v>402</v>
@@ -4217,7 +4217,7 @@
         <v>998</v>
       </c>
       <c r="I17" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -4231,7 +4231,7 @@
         <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F18" t="s">
         <v>403</v>
@@ -4240,10 +4240,10 @@
         <v>774</v>
       </c>
       <c r="H18" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I18" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -4257,7 +4257,7 @@
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F19" t="s">
         <v>404</v>
@@ -4269,7 +4269,7 @@
         <v>997</v>
       </c>
       <c r="I19" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -4283,7 +4283,7 @@
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F20" t="s">
         <v>405</v>
@@ -4292,10 +4292,10 @@
         <v>783</v>
       </c>
       <c r="H20" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I20" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -4309,7 +4309,7 @@
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F21" t="s">
         <v>406</v>
@@ -4321,7 +4321,7 @@
         <v>997</v>
       </c>
       <c r="I21" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -4335,7 +4335,7 @@
         <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F22" t="s">
         <v>407</v>
@@ -4344,10 +4344,10 @@
         <v>777</v>
       </c>
       <c r="H22" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I22" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -4361,7 +4361,7 @@
         <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F23" t="s">
         <v>408</v>
@@ -4373,7 +4373,7 @@
         <v>997</v>
       </c>
       <c r="I23" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -4387,7 +4387,7 @@
         <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F24" t="s">
         <v>409</v>
@@ -4396,10 +4396,10 @@
         <v>779</v>
       </c>
       <c r="H24" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I24" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -4413,7 +4413,7 @@
         <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F25" t="s">
         <v>410</v>
@@ -4425,7 +4425,7 @@
         <v>997</v>
       </c>
       <c r="I25" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -4439,7 +4439,7 @@
         <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F26" t="s">
         <v>411</v>
@@ -4448,10 +4448,10 @@
         <v>786</v>
       </c>
       <c r="H26" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I26" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -4465,7 +4465,7 @@
         <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F27" t="s">
         <v>412</v>
@@ -4474,10 +4474,10 @@
         <v>777</v>
       </c>
       <c r="H27" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I27" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -4491,7 +4491,7 @@
         <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F28" t="s">
         <v>413</v>
@@ -4500,10 +4500,10 @@
         <v>774</v>
       </c>
       <c r="H28" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I28" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -4517,7 +4517,7 @@
         <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F29" t="s">
         <v>414</v>
@@ -4529,10 +4529,10 @@
         <v>995</v>
       </c>
       <c r="I29" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J29" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -4546,7 +4546,7 @@
         <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F30" t="s">
         <v>415</v>
@@ -4558,7 +4558,7 @@
         <v>991</v>
       </c>
       <c r="I30" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -4572,7 +4572,7 @@
         <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F31" t="s">
         <v>416</v>
@@ -4584,7 +4584,7 @@
         <v>994</v>
       </c>
       <c r="I31" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -4598,7 +4598,7 @@
         <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F32" t="s">
         <v>417</v>
@@ -4610,7 +4610,7 @@
         <v>994</v>
       </c>
       <c r="I32" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -4624,7 +4624,7 @@
         <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F33" t="s">
         <v>418</v>
@@ -4636,7 +4636,7 @@
         <v>998</v>
       </c>
       <c r="I33" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -4650,7 +4650,7 @@
         <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F34" t="s">
         <v>419</v>
@@ -4662,7 +4662,7 @@
         <v>997</v>
       </c>
       <c r="I34" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -4676,7 +4676,7 @@
         <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F35" t="s">
         <v>420</v>
@@ -4688,7 +4688,7 @@
         <v>997</v>
       </c>
       <c r="I35" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -4702,7 +4702,7 @@
         <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F36" t="s">
         <v>421</v>
@@ -4714,10 +4714,10 @@
         <v>995</v>
       </c>
       <c r="I36" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J36" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -4731,7 +4731,7 @@
         <v>38</v>
       </c>
       <c r="E37" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F37" t="s">
         <v>422</v>
@@ -4743,7 +4743,7 @@
         <v>1000</v>
       </c>
       <c r="I37" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -4757,7 +4757,7 @@
         <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F38" t="s">
         <v>423</v>
@@ -4769,7 +4769,7 @@
         <v>1001</v>
       </c>
       <c r="I38" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -4783,7 +4783,7 @@
         <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F39" t="s">
         <v>424</v>
@@ -4795,7 +4795,7 @@
         <v>1001</v>
       </c>
       <c r="I39" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -4809,7 +4809,7 @@
         <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F40" t="s">
         <v>425</v>
@@ -4821,7 +4821,7 @@
         <v>1000</v>
       </c>
       <c r="I40" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -4835,7 +4835,7 @@
         <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F41" t="s">
         <v>426</v>
@@ -4847,7 +4847,7 @@
         <v>1001</v>
       </c>
       <c r="I41" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -4861,7 +4861,7 @@
         <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F42" t="s">
         <v>427</v>
@@ -4873,10 +4873,10 @@
         <v>1002</v>
       </c>
       <c r="I42" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J42" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -4890,7 +4890,7 @@
         <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F43" t="s">
         <v>428</v>
@@ -4902,10 +4902,10 @@
         <v>1002</v>
       </c>
       <c r="I43" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J43" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -4919,7 +4919,7 @@
         <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F44" t="s">
         <v>429</v>
@@ -4931,10 +4931,10 @@
         <v>1002</v>
       </c>
       <c r="I44" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J44" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -4948,7 +4948,7 @@
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F45" t="s">
         <v>430</v>
@@ -4960,7 +4960,7 @@
         <v>1003</v>
       </c>
       <c r="I45" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -4974,7 +4974,7 @@
         <v>47</v>
       </c>
       <c r="E46" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F46" t="s">
         <v>431</v>
@@ -4986,7 +4986,7 @@
         <v>1004</v>
       </c>
       <c r="I46" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -5000,7 +5000,7 @@
         <v>48</v>
       </c>
       <c r="E47" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F47" t="s">
         <v>432</v>
@@ -5012,7 +5012,7 @@
         <v>999</v>
       </c>
       <c r="I47" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -5026,7 +5026,7 @@
         <v>49</v>
       </c>
       <c r="E48" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F48" t="s">
         <v>433</v>
@@ -5038,7 +5038,7 @@
         <v>999</v>
       </c>
       <c r="I48" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -5052,7 +5052,7 @@
         <v>50</v>
       </c>
       <c r="E49" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F49" t="s">
         <v>434</v>
@@ -5064,7 +5064,7 @@
         <v>999</v>
       </c>
       <c r="I49" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -5078,7 +5078,7 @@
         <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F50" t="s">
         <v>435</v>
@@ -5090,7 +5090,7 @@
         <v>1005</v>
       </c>
       <c r="I50" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -5104,7 +5104,7 @@
         <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F51" t="s">
         <v>436</v>
@@ -5116,7 +5116,7 @@
         <v>1005</v>
       </c>
       <c r="I51" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -5130,7 +5130,7 @@
         <v>53</v>
       </c>
       <c r="E52" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F52" t="s">
         <v>437</v>
@@ -5142,7 +5142,7 @@
         <v>1005</v>
       </c>
       <c r="I52" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -5156,7 +5156,7 @@
         <v>54</v>
       </c>
       <c r="E53" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F53" t="s">
         <v>438</v>
@@ -5168,7 +5168,7 @@
         <v>1006</v>
       </c>
       <c r="I53" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -5182,7 +5182,7 @@
         <v>55</v>
       </c>
       <c r="E54" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F54" t="s">
         <v>439</v>
@@ -5194,7 +5194,7 @@
         <v>1006</v>
       </c>
       <c r="I54" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -5208,7 +5208,7 @@
         <v>56</v>
       </c>
       <c r="E55" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F55" t="s">
         <v>440</v>
@@ -5220,7 +5220,7 @@
         <v>1007</v>
       </c>
       <c r="I55" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -5234,7 +5234,7 @@
         <v>57</v>
       </c>
       <c r="E56" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F56" t="s">
         <v>441</v>
@@ -5246,7 +5246,7 @@
         <v>1007</v>
       </c>
       <c r="I56" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -5260,7 +5260,7 @@
         <v>58</v>
       </c>
       <c r="E57" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F57" t="s">
         <v>442</v>
@@ -5272,7 +5272,7 @@
         <v>1007</v>
       </c>
       <c r="I57" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -5286,7 +5286,7 @@
         <v>59</v>
       </c>
       <c r="E58" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F58" t="s">
         <v>443</v>
@@ -5298,10 +5298,10 @@
         <v>1008</v>
       </c>
       <c r="I58" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J58" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -5315,7 +5315,7 @@
         <v>60</v>
       </c>
       <c r="E59" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F59" t="s">
         <v>444</v>
@@ -5327,10 +5327,10 @@
         <v>1008</v>
       </c>
       <c r="I59" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J59" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -5344,7 +5344,7 @@
         <v>61</v>
       </c>
       <c r="E60" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F60" t="s">
         <v>445</v>
@@ -5356,7 +5356,7 @@
         <v>1006</v>
       </c>
       <c r="I60" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -5370,7 +5370,7 @@
         <v>62</v>
       </c>
       <c r="E61" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F61" t="s">
         <v>446</v>
@@ -5382,7 +5382,7 @@
         <v>1009</v>
       </c>
       <c r="I61" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -5396,7 +5396,7 @@
         <v>63</v>
       </c>
       <c r="E62" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F62" t="s">
         <v>447</v>
@@ -5408,7 +5408,7 @@
         <v>1009</v>
       </c>
       <c r="I62" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -5422,7 +5422,7 @@
         <v>64</v>
       </c>
       <c r="E63" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F63" t="s">
         <v>448</v>
@@ -5434,7 +5434,7 @@
         <v>1000</v>
       </c>
       <c r="I63" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -5448,7 +5448,7 @@
         <v>65</v>
       </c>
       <c r="E64" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F64" t="s">
         <v>449</v>
@@ -5460,7 +5460,7 @@
         <v>1001</v>
       </c>
       <c r="I64" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -5474,7 +5474,7 @@
         <v>66</v>
       </c>
       <c r="E65" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F65" t="s">
         <v>450</v>
@@ -5486,7 +5486,7 @@
         <v>1000</v>
       </c>
       <c r="I65" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -5500,7 +5500,7 @@
         <v>67</v>
       </c>
       <c r="E66" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F66" t="s">
         <v>451</v>
@@ -5512,10 +5512,10 @@
         <v>1002</v>
       </c>
       <c r="I66" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J66" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -5529,7 +5529,7 @@
         <v>68</v>
       </c>
       <c r="E67" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F67" t="s">
         <v>452</v>
@@ -5541,10 +5541,10 @@
         <v>1002</v>
       </c>
       <c r="I67" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J67" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -5558,7 +5558,7 @@
         <v>69</v>
       </c>
       <c r="E68" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F68" t="s">
         <v>453</v>
@@ -5570,7 +5570,7 @@
         <v>999</v>
       </c>
       <c r="I68" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -5584,7 +5584,7 @@
         <v>70</v>
       </c>
       <c r="E69" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F69" t="s">
         <v>454</v>
@@ -5596,7 +5596,7 @@
         <v>1005</v>
       </c>
       <c r="I69" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -5610,7 +5610,7 @@
         <v>71</v>
       </c>
       <c r="E70" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F70" t="s">
         <v>455</v>
@@ -5622,7 +5622,7 @@
         <v>1010</v>
       </c>
       <c r="I70" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -5636,7 +5636,7 @@
         <v>72</v>
       </c>
       <c r="E71" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F71" t="s">
         <v>456</v>
@@ -5648,10 +5648,10 @@
         <v>1008</v>
       </c>
       <c r="I71" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J71" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -5665,7 +5665,7 @@
         <v>73</v>
       </c>
       <c r="E72" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F72" t="s">
         <v>457</v>
@@ -5677,7 +5677,7 @@
         <v>1009</v>
       </c>
       <c r="I72" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -5691,7 +5691,7 @@
         <v>74</v>
       </c>
       <c r="E73" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F73" t="s">
         <v>458</v>
@@ -5703,7 +5703,7 @@
         <v>1011</v>
       </c>
       <c r="I73" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -5717,7 +5717,7 @@
         <v>75</v>
       </c>
       <c r="E74" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F74" t="s">
         <v>459</v>
@@ -5726,16 +5726,16 @@
         <v>825</v>
       </c>
       <c r="H74" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="I74" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="K74" t="s">
         <v>1012</v>
       </c>
       <c r="L74" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -5749,7 +5749,7 @@
         <v>76</v>
       </c>
       <c r="E75" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F75" t="s">
         <v>460</v>
@@ -5758,16 +5758,16 @@
         <v>826</v>
       </c>
       <c r="H75" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="I75" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="K75" t="s">
         <v>1012</v>
       </c>
       <c r="L75" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -5781,7 +5781,7 @@
         <v>77</v>
       </c>
       <c r="E76" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F76" t="s">
         <v>461</v>
@@ -5790,16 +5790,16 @@
         <v>827</v>
       </c>
       <c r="H76" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="I76" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="K76" t="s">
         <v>1012</v>
       </c>
       <c r="L76" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -5813,7 +5813,7 @@
         <v>78</v>
       </c>
       <c r="E77" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F77" t="s">
         <v>462</v>
@@ -5825,7 +5825,7 @@
         <v>1012</v>
       </c>
       <c r="I77" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -5839,7 +5839,7 @@
         <v>79</v>
       </c>
       <c r="E78" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F78" t="s">
         <v>463</v>
@@ -5851,7 +5851,7 @@
         <v>1012</v>
       </c>
       <c r="I78" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -5865,7 +5865,7 @@
         <v>80</v>
       </c>
       <c r="E79" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F79" t="s">
         <v>464</v>
@@ -5877,7 +5877,7 @@
         <v>1012</v>
       </c>
       <c r="I79" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -5891,7 +5891,7 @@
         <v>81</v>
       </c>
       <c r="E80" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F80" t="s">
         <v>465</v>
@@ -5903,7 +5903,7 @@
         <v>1013</v>
       </c>
       <c r="I80" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -5917,7 +5917,7 @@
         <v>82</v>
       </c>
       <c r="E81" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F81" t="s">
         <v>466</v>
@@ -5926,10 +5926,10 @@
         <v>831</v>
       </c>
       <c r="H81" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="I81" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -5943,7 +5943,7 @@
         <v>83</v>
       </c>
       <c r="E82" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F82" t="s">
         <v>467</v>
@@ -5952,10 +5952,10 @@
         <v>827</v>
       </c>
       <c r="H82" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="I82" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -5969,7 +5969,7 @@
         <v>84</v>
       </c>
       <c r="E83" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F83" t="s">
         <v>468</v>
@@ -5981,7 +5981,7 @@
         <v>1014</v>
       </c>
       <c r="I83" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -5995,7 +5995,7 @@
         <v>85</v>
       </c>
       <c r="E84" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F84" t="s">
         <v>469</v>
@@ -6007,7 +6007,7 @@
         <v>1014</v>
       </c>
       <c r="I84" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -6021,7 +6021,7 @@
         <v>86</v>
       </c>
       <c r="E85" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F85" t="s">
         <v>470</v>
@@ -6033,7 +6033,7 @@
         <v>1014</v>
       </c>
       <c r="I85" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -6047,7 +6047,7 @@
         <v>87</v>
       </c>
       <c r="E86" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F86" t="s">
         <v>471</v>
@@ -6059,7 +6059,7 @@
         <v>1015</v>
       </c>
       <c r="I86" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -6073,7 +6073,7 @@
         <v>88</v>
       </c>
       <c r="E87" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F87" t="s">
         <v>472</v>
@@ -6085,7 +6085,7 @@
         <v>1015</v>
       </c>
       <c r="I87" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -6099,7 +6099,7 @@
         <v>89</v>
       </c>
       <c r="E88" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F88" t="s">
         <v>473</v>
@@ -6108,10 +6108,10 @@
         <v>833</v>
       </c>
       <c r="H88" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="I88" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -6125,7 +6125,7 @@
         <v>90</v>
       </c>
       <c r="E89" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F89" t="s">
         <v>474</v>
@@ -6134,10 +6134,10 @@
         <v>834</v>
       </c>
       <c r="H89" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="I89" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -6151,7 +6151,7 @@
         <v>91</v>
       </c>
       <c r="E90" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F90" t="s">
         <v>475</v>
@@ -6160,10 +6160,10 @@
         <v>779</v>
       </c>
       <c r="H90" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="I90" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -6177,7 +6177,7 @@
         <v>92</v>
       </c>
       <c r="E91" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F91" t="s">
         <v>476</v>
@@ -6186,10 +6186,10 @@
         <v>835</v>
       </c>
       <c r="H91" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I91" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -6203,7 +6203,7 @@
         <v>93</v>
       </c>
       <c r="E92" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F92" t="s">
         <v>477</v>
@@ -6212,10 +6212,10 @@
         <v>836</v>
       </c>
       <c r="H92" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I92" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -6229,7 +6229,7 @@
         <v>94</v>
       </c>
       <c r="E93" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F93" t="s">
         <v>478</v>
@@ -6238,10 +6238,10 @@
         <v>779</v>
       </c>
       <c r="H93" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I93" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -6255,7 +6255,7 @@
         <v>95</v>
       </c>
       <c r="E94" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F94" t="s">
         <v>479</v>
@@ -6264,10 +6264,10 @@
         <v>837</v>
       </c>
       <c r="H94" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I94" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -6281,7 +6281,7 @@
         <v>96</v>
       </c>
       <c r="E95" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F95" t="s">
         <v>480</v>
@@ -6293,7 +6293,7 @@
         <v>1016</v>
       </c>
       <c r="I95" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -6307,7 +6307,7 @@
         <v>97</v>
       </c>
       <c r="E96" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F96" t="s">
         <v>481</v>
@@ -6316,10 +6316,10 @@
         <v>839</v>
       </c>
       <c r="H96" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="I96" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -6333,7 +6333,7 @@
         <v>98</v>
       </c>
       <c r="E97" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F97" t="s">
         <v>482</v>
@@ -6342,10 +6342,10 @@
         <v>840</v>
       </c>
       <c r="H97" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="I97" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -6359,7 +6359,7 @@
         <v>99</v>
       </c>
       <c r="E98" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F98" t="s">
         <v>483</v>
@@ -6368,10 +6368,10 @@
         <v>841</v>
       </c>
       <c r="H98" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="I98" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -6385,7 +6385,7 @@
         <v>100</v>
       </c>
       <c r="E99" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F99" t="s">
         <v>484</v>
@@ -6394,10 +6394,10 @@
         <v>842</v>
       </c>
       <c r="H99" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="I99" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -6411,7 +6411,7 @@
         <v>101</v>
       </c>
       <c r="E100" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F100" t="s">
         <v>461</v>
@@ -6420,10 +6420,10 @@
         <v>827</v>
       </c>
       <c r="H100" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="I100" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -6437,7 +6437,7 @@
         <v>102</v>
       </c>
       <c r="E101" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F101" t="s">
         <v>485</v>
@@ -6446,10 +6446,10 @@
         <v>843</v>
       </c>
       <c r="H101" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="I101" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -6463,7 +6463,7 @@
         <v>103</v>
       </c>
       <c r="E102" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F102" t="s">
         <v>486</v>
@@ -6472,10 +6472,10 @@
         <v>844</v>
       </c>
       <c r="H102" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I102" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -6489,7 +6489,7 @@
         <v>104</v>
       </c>
       <c r="E103" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F103" t="s">
         <v>487</v>
@@ -6498,10 +6498,10 @@
         <v>845</v>
       </c>
       <c r="H103" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I103" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -6515,7 +6515,7 @@
         <v>105</v>
       </c>
       <c r="E104" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F104" t="s">
         <v>488</v>
@@ -6527,7 +6527,7 @@
         <v>1018</v>
       </c>
       <c r="I104" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -6541,7 +6541,7 @@
         <v>106</v>
       </c>
       <c r="E105" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F105" t="s">
         <v>489</v>
@@ -6553,7 +6553,7 @@
         <v>1018</v>
       </c>
       <c r="I105" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -6567,7 +6567,7 @@
         <v>107</v>
       </c>
       <c r="E106" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F106" t="s">
         <v>490</v>
@@ -6579,7 +6579,7 @@
         <v>1018</v>
       </c>
       <c r="I106" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -6593,7 +6593,7 @@
         <v>108</v>
       </c>
       <c r="E107" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F107" t="s">
         <v>491</v>
@@ -6605,7 +6605,7 @@
         <v>1018</v>
       </c>
       <c r="I107" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -6619,7 +6619,7 @@
         <v>109</v>
       </c>
       <c r="E108" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F108" t="s">
         <v>492</v>
@@ -6631,7 +6631,7 @@
         <v>1019</v>
       </c>
       <c r="I108" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -6645,7 +6645,7 @@
         <v>110</v>
       </c>
       <c r="E109" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F109" t="s">
         <v>493</v>
@@ -6657,7 +6657,7 @@
         <v>1019</v>
       </c>
       <c r="I109" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -6671,7 +6671,7 @@
         <v>111</v>
       </c>
       <c r="E110" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F110" t="s">
         <v>494</v>
@@ -6683,7 +6683,7 @@
         <v>1020</v>
       </c>
       <c r="I110" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -6697,7 +6697,7 @@
         <v>112</v>
       </c>
       <c r="E111" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F111" t="s">
         <v>495</v>
@@ -6709,7 +6709,7 @@
         <v>1020</v>
       </c>
       <c r="I111" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -6723,7 +6723,7 @@
         <v>113</v>
       </c>
       <c r="E112" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F112" t="s">
         <v>496</v>
@@ -6735,7 +6735,7 @@
         <v>1020</v>
       </c>
       <c r="I112" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -6749,7 +6749,7 @@
         <v>114</v>
       </c>
       <c r="E113" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F113" t="s">
         <v>497</v>
@@ -6761,7 +6761,7 @@
         <v>1021</v>
       </c>
       <c r="I113" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -6775,7 +6775,7 @@
         <v>115</v>
       </c>
       <c r="E114" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F114" t="s">
         <v>498</v>
@@ -6787,7 +6787,7 @@
         <v>1021</v>
       </c>
       <c r="I114" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -6801,7 +6801,7 @@
         <v>116</v>
       </c>
       <c r="E115" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F115" t="s">
         <v>499</v>
@@ -6813,7 +6813,7 @@
         <v>1022</v>
       </c>
       <c r="I115" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -6827,7 +6827,7 @@
         <v>117</v>
       </c>
       <c r="E116" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F116" t="s">
         <v>500</v>
@@ -6839,7 +6839,7 @@
         <v>1022</v>
       </c>
       <c r="I116" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -6853,7 +6853,7 @@
         <v>118</v>
       </c>
       <c r="E117" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F117" t="s">
         <v>501</v>
@@ -6862,10 +6862,10 @@
         <v>853</v>
       </c>
       <c r="H117" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="I117" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -6879,7 +6879,7 @@
         <v>119</v>
       </c>
       <c r="E118" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F118" t="s">
         <v>502</v>
@@ -6888,10 +6888,10 @@
         <v>777</v>
       </c>
       <c r="H118" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I118" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -6905,7 +6905,7 @@
         <v>120</v>
       </c>
       <c r="E119" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F119" t="s">
         <v>503</v>
@@ -6914,10 +6914,10 @@
         <v>854</v>
       </c>
       <c r="H119" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="I119" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -6931,7 +6931,7 @@
         <v>121</v>
       </c>
       <c r="E120" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F120" t="s">
         <v>504</v>
@@ -6940,10 +6940,10 @@
         <v>777</v>
       </c>
       <c r="H120" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="I120" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -6957,7 +6957,7 @@
         <v>122</v>
       </c>
       <c r="E121" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F121" t="s">
         <v>505</v>
@@ -6966,10 +6966,10 @@
         <v>774</v>
       </c>
       <c r="H121" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="I121" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -6983,7 +6983,7 @@
         <v>123</v>
       </c>
       <c r="E122" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F122" t="s">
         <v>506</v>
@@ -6995,7 +6995,7 @@
         <v>1023</v>
       </c>
       <c r="I122" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -7009,7 +7009,7 @@
         <v>124</v>
       </c>
       <c r="E123" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F123" t="s">
         <v>507</v>
@@ -7021,7 +7021,7 @@
         <v>1023</v>
       </c>
       <c r="I123" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -7035,7 +7035,7 @@
         <v>125</v>
       </c>
       <c r="E124" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F124" t="s">
         <v>508</v>
@@ -7044,10 +7044,10 @@
         <v>855</v>
       </c>
       <c r="H124" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="I124" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -7061,7 +7061,7 @@
         <v>126</v>
       </c>
       <c r="E125" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F125" t="s">
         <v>509</v>
@@ -7073,7 +7073,7 @@
         <v>1024</v>
       </c>
       <c r="I125" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -7087,7 +7087,7 @@
         <v>127</v>
       </c>
       <c r="E126" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F126" t="s">
         <v>510</v>
@@ -7099,7 +7099,7 @@
         <v>1024</v>
       </c>
       <c r="I126" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -7113,7 +7113,7 @@
         <v>128</v>
       </c>
       <c r="E127" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F127" t="s">
         <v>511</v>
@@ -7125,7 +7125,7 @@
         <v>1025</v>
       </c>
       <c r="I127" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -7139,7 +7139,7 @@
         <v>129</v>
       </c>
       <c r="E128" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F128" t="s">
         <v>512</v>
@@ -7151,7 +7151,7 @@
         <v>1025</v>
       </c>
       <c r="I128" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -7165,7 +7165,7 @@
         <v>130</v>
       </c>
       <c r="E129" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F129" t="s">
         <v>513</v>
@@ -7177,7 +7177,7 @@
         <v>1026</v>
       </c>
       <c r="I129" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -7191,7 +7191,7 @@
         <v>131</v>
       </c>
       <c r="E130" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F130" t="s">
         <v>514</v>
@@ -7203,7 +7203,7 @@
         <v>1026</v>
       </c>
       <c r="I130" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -7217,7 +7217,7 @@
         <v>132</v>
       </c>
       <c r="E131" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F131" t="s">
         <v>515</v>
@@ -7229,7 +7229,7 @@
         <v>1026</v>
       </c>
       <c r="I131" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -7243,7 +7243,7 @@
         <v>133</v>
       </c>
       <c r="E132" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F132" t="s">
         <v>516</v>
@@ -7255,7 +7255,7 @@
         <v>1027</v>
       </c>
       <c r="I132" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -7269,7 +7269,7 @@
         <v>134</v>
       </c>
       <c r="E133" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F133" t="s">
         <v>517</v>
@@ -7281,7 +7281,7 @@
         <v>1027</v>
       </c>
       <c r="I133" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -7295,7 +7295,7 @@
         <v>135</v>
       </c>
       <c r="E134" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F134" t="s">
         <v>518</v>
@@ -7307,7 +7307,7 @@
         <v>1028</v>
       </c>
       <c r="I134" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -7321,7 +7321,7 @@
         <v>136</v>
       </c>
       <c r="E135" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F135" t="s">
         <v>519</v>
@@ -7333,7 +7333,7 @@
         <v>990</v>
       </c>
       <c r="I135" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -7347,7 +7347,7 @@
         <v>137</v>
       </c>
       <c r="E136" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F136" t="s">
         <v>520</v>
@@ -7359,7 +7359,7 @@
         <v>1029</v>
       </c>
       <c r="I136" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -7373,7 +7373,7 @@
         <v>138</v>
       </c>
       <c r="E137" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F137" t="s">
         <v>521</v>
@@ -7385,7 +7385,7 @@
         <v>1029</v>
       </c>
       <c r="I137" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -7399,7 +7399,7 @@
         <v>139</v>
       </c>
       <c r="E138" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F138" t="s">
         <v>522</v>
@@ -7411,7 +7411,7 @@
         <v>1029</v>
       </c>
       <c r="I138" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -7425,7 +7425,7 @@
         <v>140</v>
       </c>
       <c r="E139" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F139" t="s">
         <v>523</v>
@@ -7434,10 +7434,10 @@
         <v>866</v>
       </c>
       <c r="H139" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="I139" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -7451,7 +7451,7 @@
         <v>141</v>
       </c>
       <c r="E140" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F140" t="s">
         <v>524</v>
@@ -7460,10 +7460,10 @@
         <v>852</v>
       </c>
       <c r="H140" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="I140" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -7477,7 +7477,7 @@
         <v>142</v>
       </c>
       <c r="E141" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F141" t="s">
         <v>525</v>
@@ -7486,10 +7486,10 @@
         <v>774</v>
       </c>
       <c r="H141" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="I141" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -7503,7 +7503,7 @@
         <v>143</v>
       </c>
       <c r="E142" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F142" t="s">
         <v>526</v>
@@ -7515,7 +7515,7 @@
         <v>1030</v>
       </c>
       <c r="I142" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -7529,7 +7529,7 @@
         <v>144</v>
       </c>
       <c r="E143" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F143" t="s">
         <v>527</v>
@@ -7541,7 +7541,7 @@
         <v>1030</v>
       </c>
       <c r="I143" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -7555,7 +7555,7 @@
         <v>145</v>
       </c>
       <c r="E144" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F144" t="s">
         <v>528</v>
@@ -7564,10 +7564,10 @@
         <v>869</v>
       </c>
       <c r="H144" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="I144" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
@@ -7581,7 +7581,7 @@
         <v>146</v>
       </c>
       <c r="E145" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F145" t="s">
         <v>529</v>
@@ -7590,10 +7590,10 @@
         <v>870</v>
       </c>
       <c r="H145" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="I145" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
@@ -7607,7 +7607,7 @@
         <v>147</v>
       </c>
       <c r="E146" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F146" t="s">
         <v>530</v>
@@ -7616,10 +7616,10 @@
         <v>774</v>
       </c>
       <c r="H146" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="I146" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
@@ -7633,7 +7633,7 @@
         <v>148</v>
       </c>
       <c r="E147" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F147" t="s">
         <v>531</v>
@@ -7642,10 +7642,10 @@
         <v>777</v>
       </c>
       <c r="H147" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="I147" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
@@ -7659,7 +7659,7 @@
         <v>149</v>
       </c>
       <c r="E148" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F148" t="s">
         <v>532</v>
@@ -7671,10 +7671,10 @@
         <v>1031</v>
       </c>
       <c r="I148" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J148" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
@@ -7688,7 +7688,7 @@
         <v>150</v>
       </c>
       <c r="E149" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F149" t="s">
         <v>533</v>
@@ -7700,10 +7700,10 @@
         <v>1031</v>
       </c>
       <c r="I149" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J149" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
@@ -7717,7 +7717,7 @@
         <v>151</v>
       </c>
       <c r="E150" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F150" t="s">
         <v>534</v>
@@ -7726,10 +7726,10 @@
         <v>774</v>
       </c>
       <c r="H150" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="I150" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
@@ -7743,7 +7743,7 @@
         <v>152</v>
       </c>
       <c r="E151" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F151" t="s">
         <v>535</v>
@@ -7752,10 +7752,10 @@
         <v>777</v>
       </c>
       <c r="H151" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="I151" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
@@ -7769,7 +7769,7 @@
         <v>153</v>
       </c>
       <c r="E152" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F152" t="s">
         <v>536</v>
@@ -7778,10 +7778,10 @@
         <v>830</v>
       </c>
       <c r="H152" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="I152" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
@@ -7795,7 +7795,7 @@
         <v>154</v>
       </c>
       <c r="E153" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F153" t="s">
         <v>537</v>
@@ -7804,10 +7804,10 @@
         <v>873</v>
       </c>
       <c r="H153" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="I153" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
@@ -7821,7 +7821,7 @@
         <v>155</v>
       </c>
       <c r="E154" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F154" t="s">
         <v>538</v>
@@ -7830,10 +7830,10 @@
         <v>874</v>
       </c>
       <c r="H154" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I154" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
@@ -7847,7 +7847,7 @@
         <v>156</v>
       </c>
       <c r="E155" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F155" t="s">
         <v>539</v>
@@ -7859,7 +7859,7 @@
         <v>1033</v>
       </c>
       <c r="I155" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
@@ -7873,7 +7873,7 @@
         <v>157</v>
       </c>
       <c r="E156" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F156" t="s">
         <v>540</v>
@@ -7885,7 +7885,7 @@
         <v>1022</v>
       </c>
       <c r="I156" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
@@ -7899,7 +7899,7 @@
         <v>158</v>
       </c>
       <c r="E157" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F157" t="s">
         <v>536</v>
@@ -7908,10 +7908,10 @@
         <v>875</v>
       </c>
       <c r="H157" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="I157" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
@@ -7925,7 +7925,7 @@
         <v>159</v>
       </c>
       <c r="E158" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F158" t="s">
         <v>541</v>
@@ -7937,7 +7937,7 @@
         <v>1034</v>
       </c>
       <c r="I158" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
@@ -7951,7 +7951,7 @@
         <v>160</v>
       </c>
       <c r="E159" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F159" t="s">
         <v>542</v>
@@ -7963,7 +7963,7 @@
         <v>1035</v>
       </c>
       <c r="I159" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
@@ -7977,7 +7977,7 @@
         <v>161</v>
       </c>
       <c r="E160" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F160" t="s">
         <v>537</v>
@@ -7986,28 +7986,28 @@
         <v>876</v>
       </c>
       <c r="H160" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="I160" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="K160" t="s">
         <v>1037</v>
       </c>
       <c r="L160" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="M160" t="s">
         <v>1036</v>
       </c>
       <c r="N160" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="O160" t="s">
         <v>1035</v>
       </c>
       <c r="P160" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
@@ -8021,7 +8021,7 @@
         <v>162</v>
       </c>
       <c r="E161" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F161" t="s">
         <v>543</v>
@@ -8033,7 +8033,7 @@
         <v>1034</v>
       </c>
       <c r="I161" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
@@ -8047,7 +8047,7 @@
         <v>163</v>
       </c>
       <c r="E162" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F162" t="s">
         <v>544</v>
@@ -8059,13 +8059,13 @@
         <v>1036</v>
       </c>
       <c r="I162" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="K162" t="s">
         <v>1035</v>
       </c>
       <c r="L162" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
@@ -8079,7 +8079,7 @@
         <v>164</v>
       </c>
       <c r="E163" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F163" t="s">
         <v>545</v>
@@ -8091,7 +8091,7 @@
         <v>1035</v>
       </c>
       <c r="I163" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
@@ -8105,7 +8105,7 @@
         <v>165</v>
       </c>
       <c r="E164" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F164" t="s">
         <v>546</v>
@@ -8117,7 +8117,7 @@
         <v>1034</v>
       </c>
       <c r="I164" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
@@ -8131,7 +8131,7 @@
         <v>166</v>
       </c>
       <c r="E165" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F165" t="s">
         <v>547</v>
@@ -8143,7 +8143,7 @@
         <v>1037</v>
       </c>
       <c r="I165" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
@@ -8157,7 +8157,7 @@
         <v>167</v>
       </c>
       <c r="E166" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F166" t="s">
         <v>548</v>
@@ -8169,7 +8169,7 @@
         <v>1036</v>
       </c>
       <c r="I166" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
@@ -8183,7 +8183,7 @@
         <v>168</v>
       </c>
       <c r="E167" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F167" t="s">
         <v>549</v>
@@ -8192,10 +8192,10 @@
         <v>882</v>
       </c>
       <c r="H167" t="s">
-        <v>1038</v>
+        <v>1127</v>
       </c>
       <c r="I167" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
@@ -8209,7 +8209,7 @@
         <v>169</v>
       </c>
       <c r="E168" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F168" t="s">
         <v>550</v>
@@ -8221,7 +8221,7 @@
         <v>1037</v>
       </c>
       <c r="I168" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
@@ -8235,7 +8235,7 @@
         <v>170</v>
       </c>
       <c r="E169" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F169" t="s">
         <v>551</v>
@@ -8247,7 +8247,7 @@
         <v>1037</v>
       </c>
       <c r="I169" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
@@ -8261,7 +8261,7 @@
         <v>171</v>
       </c>
       <c r="E170" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F170" t="s">
         <v>552</v>
@@ -8270,10 +8270,10 @@
         <v>885</v>
       </c>
       <c r="H170" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="I170" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
@@ -8287,7 +8287,7 @@
         <v>172</v>
       </c>
       <c r="E171" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F171" t="s">
         <v>553</v>
@@ -8296,10 +8296,10 @@
         <v>886</v>
       </c>
       <c r="H171" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="I171" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
@@ -8313,7 +8313,7 @@
         <v>173</v>
       </c>
       <c r="E172" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F172" t="s">
         <v>554</v>
@@ -8322,10 +8322,10 @@
         <v>887</v>
       </c>
       <c r="H172" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="I172" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
@@ -8339,7 +8339,7 @@
         <v>174</v>
       </c>
       <c r="E173" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F173" t="s">
         <v>555</v>
@@ -8348,10 +8348,10 @@
         <v>888</v>
       </c>
       <c r="H173" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I173" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
@@ -8365,7 +8365,7 @@
         <v>175</v>
       </c>
       <c r="E174" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F174" t="s">
         <v>556</v>
@@ -8374,10 +8374,10 @@
         <v>889</v>
       </c>
       <c r="H174" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I174" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
@@ -8391,7 +8391,7 @@
         <v>176</v>
       </c>
       <c r="E175" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F175" t="s">
         <v>557</v>
@@ -8400,10 +8400,10 @@
         <v>890</v>
       </c>
       <c r="H175" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I175" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
@@ -8417,7 +8417,7 @@
         <v>177</v>
       </c>
       <c r="E176" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F176" t="s">
         <v>558</v>
@@ -8426,10 +8426,10 @@
         <v>891</v>
       </c>
       <c r="H176" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I176" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -8443,7 +8443,7 @@
         <v>178</v>
       </c>
       <c r="E177" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F177" t="s">
         <v>559</v>
@@ -8452,10 +8452,10 @@
         <v>892</v>
       </c>
       <c r="H177" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I177" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -8469,7 +8469,7 @@
         <v>179</v>
       </c>
       <c r="E178" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F178" t="s">
         <v>560</v>
@@ -8478,13 +8478,13 @@
         <v>805</v>
       </c>
       <c r="H178" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="I178" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J178" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
@@ -8498,7 +8498,7 @@
         <v>180</v>
       </c>
       <c r="E179" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F179" t="s">
         <v>561</v>
@@ -8507,13 +8507,13 @@
         <v>893</v>
       </c>
       <c r="H179" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="I179" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J179" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
@@ -8527,7 +8527,7 @@
         <v>181</v>
       </c>
       <c r="E180" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F180" t="s">
         <v>562</v>
@@ -8536,13 +8536,13 @@
         <v>894</v>
       </c>
       <c r="H180" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="I180" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J180" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
@@ -8556,7 +8556,7 @@
         <v>182</v>
       </c>
       <c r="E181" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F181" t="s">
         <v>563</v>
@@ -8565,13 +8565,13 @@
         <v>777</v>
       </c>
       <c r="H181" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="I181" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J181" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -8585,7 +8585,7 @@
         <v>183</v>
       </c>
       <c r="E182" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F182" t="s">
         <v>564</v>
@@ -8594,13 +8594,13 @@
         <v>895</v>
       </c>
       <c r="H182" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="I182" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J182" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
@@ -8614,7 +8614,7 @@
         <v>184</v>
       </c>
       <c r="E183" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F183" t="s">
         <v>565</v>
@@ -8623,10 +8623,10 @@
         <v>896</v>
       </c>
       <c r="H183" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="I183" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
@@ -8640,7 +8640,7 @@
         <v>185</v>
       </c>
       <c r="E184" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F184" t="s">
         <v>566</v>
@@ -8649,10 +8649,10 @@
         <v>897</v>
       </c>
       <c r="H184" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="I184" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -8666,7 +8666,7 @@
         <v>186</v>
       </c>
       <c r="E185" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F185" t="s">
         <v>511</v>
@@ -8675,10 +8675,10 @@
         <v>898</v>
       </c>
       <c r="H185" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="I185" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
@@ -8692,7 +8692,7 @@
         <v>187</v>
       </c>
       <c r="E186" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F186" t="s">
         <v>567</v>
@@ -8701,10 +8701,10 @@
         <v>899</v>
       </c>
       <c r="H186" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="I186" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
@@ -8718,7 +8718,7 @@
         <v>188</v>
       </c>
       <c r="E187" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F187" t="s">
         <v>568</v>
@@ -8727,10 +8727,10 @@
         <v>900</v>
       </c>
       <c r="H187" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="I187" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
@@ -8744,7 +8744,7 @@
         <v>189</v>
       </c>
       <c r="E188" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F188" t="s">
         <v>569</v>
@@ -8753,10 +8753,10 @@
         <v>901</v>
       </c>
       <c r="H188" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I188" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
@@ -8770,7 +8770,7 @@
         <v>190</v>
       </c>
       <c r="E189" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F189" t="s">
         <v>570</v>
@@ -8779,10 +8779,10 @@
         <v>902</v>
       </c>
       <c r="H189" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I189" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
@@ -8796,7 +8796,7 @@
         <v>191</v>
       </c>
       <c r="E190" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F190" t="s">
         <v>571</v>
@@ -8805,10 +8805,10 @@
         <v>903</v>
       </c>
       <c r="H190" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I190" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
@@ -8822,7 +8822,7 @@
         <v>192</v>
       </c>
       <c r="E191" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F191" t="s">
         <v>572</v>
@@ -8831,10 +8831,10 @@
         <v>777</v>
       </c>
       <c r="H191" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I191" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
@@ -8848,7 +8848,7 @@
         <v>193</v>
       </c>
       <c r="E192" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F192" t="s">
         <v>573</v>
@@ -8857,10 +8857,10 @@
         <v>774</v>
       </c>
       <c r="H192" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I192" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -8874,7 +8874,7 @@
         <v>194</v>
       </c>
       <c r="E193" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F193" t="s">
         <v>574</v>
@@ -8883,10 +8883,10 @@
         <v>904</v>
       </c>
       <c r="H193" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="I193" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -8900,7 +8900,7 @@
         <v>195</v>
       </c>
       <c r="E194" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F194" t="s">
         <v>575</v>
@@ -8909,10 +8909,10 @@
         <v>905</v>
       </c>
       <c r="H194" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="I194" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -8926,7 +8926,7 @@
         <v>196</v>
       </c>
       <c r="E195" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F195" t="s">
         <v>576</v>
@@ -8935,10 +8935,10 @@
         <v>906</v>
       </c>
       <c r="H195" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I195" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -8952,7 +8952,7 @@
         <v>197</v>
       </c>
       <c r="E196" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F196" t="s">
         <v>577</v>
@@ -8961,10 +8961,10 @@
         <v>907</v>
       </c>
       <c r="H196" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I196" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -8978,7 +8978,7 @@
         <v>198</v>
       </c>
       <c r="E197" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F197" t="s">
         <v>578</v>
@@ -8987,10 +8987,10 @@
         <v>908</v>
       </c>
       <c r="H197" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I197" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -9004,7 +9004,7 @@
         <v>199</v>
       </c>
       <c r="E198" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F198" t="s">
         <v>579</v>
@@ -9013,10 +9013,10 @@
         <v>909</v>
       </c>
       <c r="H198" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I198" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -9030,7 +9030,7 @@
         <v>200</v>
       </c>
       <c r="E199" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F199" t="s">
         <v>580</v>
@@ -9039,10 +9039,10 @@
         <v>774</v>
       </c>
       <c r="H199" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="I199" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -9056,7 +9056,7 @@
         <v>201</v>
       </c>
       <c r="E200" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F200" t="s">
         <v>581</v>
@@ -9065,10 +9065,10 @@
         <v>818</v>
       </c>
       <c r="H200" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I200" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -9082,7 +9082,7 @@
         <v>202</v>
       </c>
       <c r="E201" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F201" t="s">
         <v>582</v>
@@ -9091,10 +9091,10 @@
         <v>910</v>
       </c>
       <c r="H201" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I201" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -9108,7 +9108,7 @@
         <v>203</v>
       </c>
       <c r="E202" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F202" t="s">
         <v>583</v>
@@ -9117,10 +9117,10 @@
         <v>911</v>
       </c>
       <c r="H202" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="I202" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -9134,7 +9134,7 @@
         <v>204</v>
       </c>
       <c r="E203" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F203" t="s">
         <v>584</v>
@@ -9143,10 +9143,10 @@
         <v>777</v>
       </c>
       <c r="H203" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I203" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -9160,7 +9160,7 @@
         <v>205</v>
       </c>
       <c r="E204" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F204" t="s">
         <v>585</v>
@@ -9169,10 +9169,10 @@
         <v>912</v>
       </c>
       <c r="H204" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="I204" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -9186,7 +9186,7 @@
         <v>206</v>
       </c>
       <c r="E205" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F205" t="s">
         <v>586</v>
@@ -9195,10 +9195,10 @@
         <v>865</v>
       </c>
       <c r="H205" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I205" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
@@ -9212,7 +9212,7 @@
         <v>207</v>
       </c>
       <c r="E206" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F206" t="s">
         <v>587</v>
@@ -9221,10 +9221,10 @@
         <v>913</v>
       </c>
       <c r="H206" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I206" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
@@ -9238,7 +9238,7 @@
         <v>208</v>
       </c>
       <c r="E207" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F207" t="s">
         <v>588</v>
@@ -9247,10 +9247,10 @@
         <v>914</v>
       </c>
       <c r="H207" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I207" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -9264,7 +9264,7 @@
         <v>209</v>
       </c>
       <c r="E208" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F208" t="s">
         <v>589</v>
@@ -9273,10 +9273,10 @@
         <v>915</v>
       </c>
       <c r="H208" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="I208" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
@@ -9290,7 +9290,7 @@
         <v>210</v>
       </c>
       <c r="E209" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F209" t="s">
         <v>590</v>
@@ -9299,10 +9299,10 @@
         <v>916</v>
       </c>
       <c r="H209" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="I209" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
@@ -9316,7 +9316,7 @@
         <v>211</v>
       </c>
       <c r="E210" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F210" t="s">
         <v>591</v>
@@ -9325,10 +9325,10 @@
         <v>912</v>
       </c>
       <c r="H210" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="I210" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -9342,7 +9342,7 @@
         <v>212</v>
       </c>
       <c r="E211" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F211" t="s">
         <v>592</v>
@@ -9351,10 +9351,10 @@
         <v>917</v>
       </c>
       <c r="H211" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I211" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -9368,7 +9368,7 @@
         <v>213</v>
       </c>
       <c r="E212" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F212" t="s">
         <v>593</v>
@@ -9380,7 +9380,7 @@
         <v>991</v>
       </c>
       <c r="I212" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -9394,7 +9394,7 @@
         <v>214</v>
       </c>
       <c r="E213" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F213" t="s">
         <v>594</v>
@@ -9406,7 +9406,7 @@
         <v>991</v>
       </c>
       <c r="I213" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -9420,7 +9420,7 @@
         <v>215</v>
       </c>
       <c r="E214" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F214" t="s">
         <v>595</v>
@@ -9429,10 +9429,10 @@
         <v>918</v>
       </c>
       <c r="H214" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I214" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -9446,7 +9446,7 @@
         <v>216</v>
       </c>
       <c r="E215" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F215" t="s">
         <v>596</v>
@@ -9455,10 +9455,10 @@
         <v>919</v>
       </c>
       <c r="H215" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I215" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -9472,7 +9472,7 @@
         <v>217</v>
       </c>
       <c r="E216" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F216" t="s">
         <v>597</v>
@@ -9481,10 +9481,10 @@
         <v>835</v>
       </c>
       <c r="H216" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I216" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -9498,7 +9498,7 @@
         <v>218</v>
       </c>
       <c r="E217" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F217" t="s">
         <v>598</v>
@@ -9507,10 +9507,10 @@
         <v>920</v>
       </c>
       <c r="H217" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I217" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -9524,7 +9524,7 @@
         <v>219</v>
       </c>
       <c r="E218" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F218" t="s">
         <v>599</v>
@@ -9533,10 +9533,10 @@
         <v>774</v>
       </c>
       <c r="H218" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I218" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -9550,7 +9550,7 @@
         <v>220</v>
       </c>
       <c r="E219" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F219" t="s">
         <v>600</v>
@@ -9559,10 +9559,10 @@
         <v>774</v>
       </c>
       <c r="H219" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I219" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -9576,7 +9576,7 @@
         <v>221</v>
       </c>
       <c r="E220" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F220" t="s">
         <v>601</v>
@@ -9585,10 +9585,10 @@
         <v>774</v>
       </c>
       <c r="H220" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I220" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -9602,7 +9602,7 @@
         <v>222</v>
       </c>
       <c r="E221" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F221" t="s">
         <v>602</v>
@@ -9611,10 +9611,10 @@
         <v>921</v>
       </c>
       <c r="H221" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I221" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -9628,7 +9628,7 @@
         <v>223</v>
       </c>
       <c r="E222" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F222" t="s">
         <v>603</v>
@@ -9637,10 +9637,10 @@
         <v>922</v>
       </c>
       <c r="H222" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="I222" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -9654,7 +9654,7 @@
         <v>224</v>
       </c>
       <c r="E223" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F223" t="s">
         <v>604</v>
@@ -9666,7 +9666,7 @@
         <v>990</v>
       </c>
       <c r="I223" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
@@ -9680,7 +9680,7 @@
         <v>225</v>
       </c>
       <c r="E224" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F224" t="s">
         <v>605</v>
@@ -9692,7 +9692,7 @@
         <v>990</v>
       </c>
       <c r="I224" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
@@ -9706,7 +9706,7 @@
         <v>226</v>
       </c>
       <c r="E225" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F225" t="s">
         <v>606</v>
@@ -9715,10 +9715,10 @@
         <v>774</v>
       </c>
       <c r="H225" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I225" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
@@ -9732,7 +9732,7 @@
         <v>227</v>
       </c>
       <c r="E226" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F226" t="s">
         <v>607</v>
@@ -9741,10 +9741,10 @@
         <v>774</v>
       </c>
       <c r="H226" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I226" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
@@ -9758,7 +9758,7 @@
         <v>228</v>
       </c>
       <c r="E227" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F227" t="s">
         <v>608</v>
@@ -9767,10 +9767,10 @@
         <v>774</v>
       </c>
       <c r="H227" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="I227" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
@@ -9784,7 +9784,7 @@
         <v>229</v>
       </c>
       <c r="E228" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F228" t="s">
         <v>609</v>
@@ -9793,10 +9793,10 @@
         <v>774</v>
       </c>
       <c r="H228" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I228" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
@@ -9810,7 +9810,7 @@
         <v>230</v>
       </c>
       <c r="E229" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F229" t="s">
         <v>610</v>
@@ -9819,10 +9819,10 @@
         <v>774</v>
       </c>
       <c r="H229" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I229" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
@@ -9836,7 +9836,7 @@
         <v>231</v>
       </c>
       <c r="E230" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F230" t="s">
         <v>611</v>
@@ -9848,7 +9848,7 @@
         <v>1000</v>
       </c>
       <c r="I230" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
@@ -9862,7 +9862,7 @@
         <v>232</v>
       </c>
       <c r="E231" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F231" t="s">
         <v>612</v>
@@ -9871,10 +9871,10 @@
         <v>924</v>
       </c>
       <c r="H231" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="I231" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
@@ -9888,7 +9888,7 @@
         <v>233</v>
       </c>
       <c r="E232" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F232" t="s">
         <v>613</v>
@@ -9897,10 +9897,10 @@
         <v>779</v>
       </c>
       <c r="H232" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="I232" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
@@ -9914,7 +9914,7 @@
         <v>234</v>
       </c>
       <c r="E233" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F233" t="s">
         <v>614</v>
@@ -9923,10 +9923,10 @@
         <v>819</v>
       </c>
       <c r="H233" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="I233" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
@@ -9940,7 +9940,7 @@
         <v>235</v>
       </c>
       <c r="E234" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F234" t="s">
         <v>615</v>
@@ -9949,10 +9949,10 @@
         <v>789</v>
       </c>
       <c r="H234" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I234" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
@@ -9966,7 +9966,7 @@
         <v>236</v>
       </c>
       <c r="E235" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F235" t="s">
         <v>616</v>
@@ -9975,10 +9975,10 @@
         <v>803</v>
       </c>
       <c r="H235" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I235" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
@@ -9992,7 +9992,7 @@
         <v>237</v>
       </c>
       <c r="E236" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F236" t="s">
         <v>617</v>
@@ -10001,13 +10001,13 @@
         <v>903</v>
       </c>
       <c r="H236" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I236" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J236" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
@@ -10021,7 +10021,7 @@
         <v>238</v>
       </c>
       <c r="E237" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F237" t="s">
         <v>618</v>
@@ -10030,13 +10030,13 @@
         <v>925</v>
       </c>
       <c r="H237" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I237" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J237" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
@@ -10050,7 +10050,7 @@
         <v>239</v>
       </c>
       <c r="E238" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F238" t="s">
         <v>619</v>
@@ -10059,13 +10059,13 @@
         <v>807</v>
       </c>
       <c r="H238" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I238" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J238" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
@@ -10079,7 +10079,7 @@
         <v>240</v>
       </c>
       <c r="E239" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F239" t="s">
         <v>620</v>
@@ -10088,10 +10088,10 @@
         <v>774</v>
       </c>
       <c r="H239" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I239" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -10105,7 +10105,7 @@
         <v>241</v>
       </c>
       <c r="E240" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F240" t="s">
         <v>621</v>
@@ -10114,10 +10114,10 @@
         <v>926</v>
       </c>
       <c r="H240" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="I240" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
@@ -10131,7 +10131,7 @@
         <v>242</v>
       </c>
       <c r="E241" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F241" t="s">
         <v>622</v>
@@ -10140,10 +10140,10 @@
         <v>927</v>
       </c>
       <c r="H241" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="I241" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
@@ -10157,7 +10157,7 @@
         <v>243</v>
       </c>
       <c r="E242" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F242" t="s">
         <v>623</v>
@@ -10166,10 +10166,10 @@
         <v>928</v>
       </c>
       <c r="H242" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="I242" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
@@ -10183,7 +10183,7 @@
         <v>244</v>
       </c>
       <c r="E243" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F243" t="s">
         <v>624</v>
@@ -10192,10 +10192,10 @@
         <v>774</v>
       </c>
       <c r="H243" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="I243" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
@@ -10209,7 +10209,7 @@
         <v>245</v>
       </c>
       <c r="E244" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F244" t="s">
         <v>625</v>
@@ -10218,10 +10218,10 @@
         <v>777</v>
       </c>
       <c r="H244" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="I244" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
@@ -10235,7 +10235,7 @@
         <v>246</v>
       </c>
       <c r="E245" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F245" t="s">
         <v>626</v>
@@ -10244,13 +10244,13 @@
         <v>823</v>
       </c>
       <c r="H245" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I245" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J245" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
@@ -10264,7 +10264,7 @@
         <v>247</v>
       </c>
       <c r="E246" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F246" t="s">
         <v>627</v>
@@ -10273,13 +10273,13 @@
         <v>929</v>
       </c>
       <c r="H246" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I246" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J246" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
@@ -10293,7 +10293,7 @@
         <v>248</v>
       </c>
       <c r="E247" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F247" t="s">
         <v>628</v>
@@ -10302,10 +10302,10 @@
         <v>930</v>
       </c>
       <c r="H247" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="I247" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
@@ -10319,7 +10319,7 @@
         <v>249</v>
       </c>
       <c r="E248" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F248" t="s">
         <v>629</v>
@@ -10328,10 +10328,10 @@
         <v>931</v>
       </c>
       <c r="H248" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="I248" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
@@ -10345,7 +10345,7 @@
         <v>250</v>
       </c>
       <c r="E249" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F249" t="s">
         <v>630</v>
@@ -10354,10 +10354,10 @@
         <v>932</v>
       </c>
       <c r="H249" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="I249" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
@@ -10371,7 +10371,7 @@
         <v>251</v>
       </c>
       <c r="E250" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F250" t="s">
         <v>631</v>
@@ -10380,10 +10380,10 @@
         <v>933</v>
       </c>
       <c r="H250" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="I250" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
@@ -10400,7 +10400,7 @@
         <v>252</v>
       </c>
       <c r="E251" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F251" t="s">
         <v>632</v>
@@ -10409,10 +10409,10 @@
         <v>830</v>
       </c>
       <c r="H251" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="I251" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
@@ -10426,7 +10426,7 @@
         <v>253</v>
       </c>
       <c r="E252" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F252" t="s">
         <v>633</v>
@@ -10435,10 +10435,10 @@
         <v>934</v>
       </c>
       <c r="H252" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="I252" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
@@ -10452,7 +10452,7 @@
         <v>254</v>
       </c>
       <c r="E253" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F253" t="s">
         <v>634</v>
@@ -10461,10 +10461,10 @@
         <v>935</v>
       </c>
       <c r="H253" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="I253" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
@@ -10478,7 +10478,7 @@
         <v>255</v>
       </c>
       <c r="E254" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F254" t="s">
         <v>635</v>
@@ -10487,10 +10487,10 @@
         <v>936</v>
       </c>
       <c r="H254" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I254" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
@@ -10504,7 +10504,7 @@
         <v>256</v>
       </c>
       <c r="E255" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F255" t="s">
         <v>636</v>
@@ -10513,10 +10513,10 @@
         <v>799</v>
       </c>
       <c r="H255" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I255" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
@@ -10530,7 +10530,7 @@
         <v>257</v>
       </c>
       <c r="E256" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F256" t="s">
         <v>637</v>
@@ -10539,10 +10539,10 @@
         <v>937</v>
       </c>
       <c r="H256" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I256" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
@@ -10556,7 +10556,7 @@
         <v>258</v>
       </c>
       <c r="E257" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F257" t="s">
         <v>638</v>
@@ -10565,10 +10565,10 @@
         <v>917</v>
       </c>
       <c r="H257" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I257" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
@@ -10582,7 +10582,7 @@
         <v>259</v>
       </c>
       <c r="E258" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F258" t="s">
         <v>639</v>
@@ -10591,10 +10591,10 @@
         <v>938</v>
       </c>
       <c r="H258" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I258" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -10608,7 +10608,7 @@
         <v>260</v>
       </c>
       <c r="E259" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F259" t="s">
         <v>640</v>
@@ -10617,10 +10617,10 @@
         <v>939</v>
       </c>
       <c r="H259" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I259" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -10634,7 +10634,7 @@
         <v>261</v>
       </c>
       <c r="E260" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F260" t="s">
         <v>641</v>
@@ -10643,10 +10643,10 @@
         <v>940</v>
       </c>
       <c r="H260" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I260" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
@@ -10660,7 +10660,7 @@
         <v>262</v>
       </c>
       <c r="E261" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F261" t="s">
         <v>642</v>
@@ -10669,10 +10669,10 @@
         <v>774</v>
       </c>
       <c r="H261" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I261" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
@@ -10686,7 +10686,7 @@
         <v>263</v>
       </c>
       <c r="E262" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F262" t="s">
         <v>643</v>
@@ -10695,10 +10695,10 @@
         <v>779</v>
       </c>
       <c r="H262" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="I262" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -10712,7 +10712,7 @@
         <v>264</v>
       </c>
       <c r="E263" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F263" t="s">
         <v>644</v>
@@ -10721,10 +10721,10 @@
         <v>941</v>
       </c>
       <c r="H263" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I263" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -10738,7 +10738,7 @@
         <v>265</v>
       </c>
       <c r="E264" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F264" t="s">
         <v>645</v>
@@ -10747,10 +10747,10 @@
         <v>777</v>
       </c>
       <c r="H264" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="I264" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -10764,7 +10764,7 @@
         <v>266</v>
       </c>
       <c r="E265" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F265" t="s">
         <v>646</v>
@@ -10773,10 +10773,10 @@
         <v>774</v>
       </c>
       <c r="H265" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="I265" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -10790,7 +10790,7 @@
         <v>267</v>
       </c>
       <c r="E266" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F266" t="s">
         <v>647</v>
@@ -10799,10 +10799,10 @@
         <v>942</v>
       </c>
       <c r="H266" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I266" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
@@ -10816,7 +10816,7 @@
         <v>268</v>
       </c>
       <c r="E267" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F267" t="s">
         <v>648</v>
@@ -10825,10 +10825,10 @@
         <v>943</v>
       </c>
       <c r="H267" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I267" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
@@ -10842,7 +10842,7 @@
         <v>269</v>
       </c>
       <c r="E268" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F268" t="s">
         <v>649</v>
@@ -10851,10 +10851,10 @@
         <v>788</v>
       </c>
       <c r="H268" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I268" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
@@ -10868,7 +10868,7 @@
         <v>270</v>
       </c>
       <c r="E269" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F269" t="s">
         <v>650</v>
@@ -10877,10 +10877,10 @@
         <v>944</v>
       </c>
       <c r="H269" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I269" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
@@ -10894,7 +10894,7 @@
         <v>271</v>
       </c>
       <c r="E270" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F270" t="s">
         <v>651</v>
@@ -10903,10 +10903,10 @@
         <v>945</v>
       </c>
       <c r="H270" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I270" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
@@ -10920,7 +10920,7 @@
         <v>272</v>
       </c>
       <c r="E271" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F271" t="s">
         <v>652</v>
@@ -10929,10 +10929,10 @@
         <v>946</v>
       </c>
       <c r="H271" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I271" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -10946,7 +10946,7 @@
         <v>273</v>
       </c>
       <c r="E272" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F272" t="s">
         <v>653</v>
@@ -10955,10 +10955,10 @@
         <v>947</v>
       </c>
       <c r="H272" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I272" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -10972,7 +10972,7 @@
         <v>274</v>
       </c>
       <c r="E273" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F273" t="s">
         <v>654</v>
@@ -10981,10 +10981,10 @@
         <v>948</v>
       </c>
       <c r="H273" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I273" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
@@ -10998,7 +10998,7 @@
         <v>275</v>
       </c>
       <c r="E274" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F274" t="s">
         <v>655</v>
@@ -11007,10 +11007,10 @@
         <v>779</v>
       </c>
       <c r="H274" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I274" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
@@ -11024,7 +11024,7 @@
         <v>276</v>
       </c>
       <c r="E275" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F275" t="s">
         <v>656</v>
@@ -11033,10 +11033,10 @@
         <v>859</v>
       </c>
       <c r="H275" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I275" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
@@ -11050,7 +11050,7 @@
         <v>277</v>
       </c>
       <c r="E276" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F276" t="s">
         <v>657</v>
@@ -11059,10 +11059,10 @@
         <v>774</v>
       </c>
       <c r="H276" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I276" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
@@ -11076,7 +11076,7 @@
         <v>278</v>
       </c>
       <c r="E277" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F277" t="s">
         <v>658</v>
@@ -11088,7 +11088,7 @@
         <v>1032</v>
       </c>
       <c r="I277" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
@@ -11102,7 +11102,7 @@
         <v>279</v>
       </c>
       <c r="E278" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F278" t="s">
         <v>659</v>
@@ -11111,10 +11111,10 @@
         <v>883</v>
       </c>
       <c r="H278" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I278" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -11128,7 +11128,7 @@
         <v>280</v>
       </c>
       <c r="E279" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F279" t="s">
         <v>660</v>
@@ -11137,10 +11137,10 @@
         <v>777</v>
       </c>
       <c r="H279" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I279" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
@@ -11154,7 +11154,7 @@
         <v>281</v>
       </c>
       <c r="E280" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F280" t="s">
         <v>661</v>
@@ -11163,10 +11163,10 @@
         <v>774</v>
       </c>
       <c r="H280" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I280" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
@@ -11180,7 +11180,7 @@
         <v>282</v>
       </c>
       <c r="E281" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F281" t="s">
         <v>662</v>
@@ -11189,10 +11189,10 @@
         <v>770</v>
       </c>
       <c r="H281" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I281" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
@@ -11206,7 +11206,7 @@
         <v>283</v>
       </c>
       <c r="E282" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F282" t="s">
         <v>663</v>
@@ -11215,10 +11215,10 @@
         <v>949</v>
       </c>
       <c r="H282" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I282" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
@@ -11232,7 +11232,7 @@
         <v>284</v>
       </c>
       <c r="E283" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F283" t="s">
         <v>664</v>
@@ -11241,10 +11241,10 @@
         <v>950</v>
       </c>
       <c r="H283" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="I283" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
@@ -11258,7 +11258,7 @@
         <v>285</v>
       </c>
       <c r="E284" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F284" t="s">
         <v>665</v>
@@ -11267,10 +11267,10 @@
         <v>951</v>
       </c>
       <c r="H284" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="I284" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
@@ -11284,7 +11284,7 @@
         <v>286</v>
       </c>
       <c r="E285" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F285" t="s">
         <v>666</v>
@@ -11293,10 +11293,10 @@
         <v>779</v>
       </c>
       <c r="H285" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I285" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
@@ -11310,7 +11310,7 @@
         <v>287</v>
       </c>
       <c r="E286" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F286" t="s">
         <v>667</v>
@@ -11319,10 +11319,10 @@
         <v>916</v>
       </c>
       <c r="H286" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="I286" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
@@ -11336,7 +11336,7 @@
         <v>288</v>
       </c>
       <c r="E287" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F287" t="s">
         <v>668</v>
@@ -11345,10 +11345,10 @@
         <v>952</v>
       </c>
       <c r="H287" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I287" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
@@ -11362,7 +11362,7 @@
         <v>289</v>
       </c>
       <c r="E288" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F288" t="s">
         <v>669</v>
@@ -11371,10 +11371,10 @@
         <v>777</v>
       </c>
       <c r="H288" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="I288" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
@@ -11388,7 +11388,7 @@
         <v>290</v>
       </c>
       <c r="E289" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F289" t="s">
         <v>670</v>
@@ -11397,10 +11397,10 @@
         <v>953</v>
       </c>
       <c r="H289" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I289" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
@@ -11414,7 +11414,7 @@
         <v>291</v>
       </c>
       <c r="E290" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F290" t="s">
         <v>671</v>
@@ -11423,10 +11423,10 @@
         <v>803</v>
       </c>
       <c r="H290" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I290" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
@@ -11440,7 +11440,7 @@
         <v>292</v>
       </c>
       <c r="E291" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F291" t="s">
         <v>672</v>
@@ -11449,10 +11449,10 @@
         <v>954</v>
       </c>
       <c r="H291" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I291" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
@@ -11466,7 +11466,7 @@
         <v>293</v>
       </c>
       <c r="E292" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F292" t="s">
         <v>673</v>
@@ -11475,10 +11475,10 @@
         <v>914</v>
       </c>
       <c r="H292" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="I292" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
@@ -11492,7 +11492,7 @@
         <v>294</v>
       </c>
       <c r="E293" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F293" t="s">
         <v>674</v>
@@ -11501,10 +11501,10 @@
         <v>790</v>
       </c>
       <c r="H293" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="I293" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
@@ -11518,7 +11518,7 @@
         <v>295</v>
       </c>
       <c r="E294" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F294" t="s">
         <v>675</v>
@@ -11527,10 +11527,10 @@
         <v>777</v>
       </c>
       <c r="H294" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="I294" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
@@ -11544,7 +11544,7 @@
         <v>296</v>
       </c>
       <c r="E295" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F295" t="s">
         <v>676</v>
@@ -11553,10 +11553,10 @@
         <v>774</v>
       </c>
       <c r="H295" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I295" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
@@ -11570,7 +11570,7 @@
         <v>297</v>
       </c>
       <c r="E296" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F296" t="s">
         <v>677</v>
@@ -11579,10 +11579,10 @@
         <v>777</v>
       </c>
       <c r="H296" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="I296" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
@@ -11596,7 +11596,7 @@
         <v>298</v>
       </c>
       <c r="E297" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F297" t="s">
         <v>678</v>
@@ -11605,10 +11605,10 @@
         <v>777</v>
       </c>
       <c r="H297" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="I297" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
@@ -11622,7 +11622,7 @@
         <v>299</v>
       </c>
       <c r="E298" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F298" t="s">
         <v>679</v>
@@ -11631,10 +11631,10 @@
         <v>949</v>
       </c>
       <c r="H298" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I298" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
@@ -11648,7 +11648,7 @@
         <v>300</v>
       </c>
       <c r="E299" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F299" t="s">
         <v>680</v>
@@ -11657,10 +11657,10 @@
         <v>955</v>
       </c>
       <c r="H299" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I299" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
@@ -11674,7 +11674,7 @@
         <v>301</v>
       </c>
       <c r="E300" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F300" t="s">
         <v>681</v>
@@ -11683,10 +11683,10 @@
         <v>940</v>
       </c>
       <c r="H300" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I300" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
@@ -11700,7 +11700,7 @@
         <v>302</v>
       </c>
       <c r="E301" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F301" t="s">
         <v>682</v>
@@ -11709,10 +11709,10 @@
         <v>956</v>
       </c>
       <c r="H301" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I301" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
@@ -11726,7 +11726,7 @@
         <v>303</v>
       </c>
       <c r="E302" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F302" t="s">
         <v>683</v>
@@ -11735,10 +11735,10 @@
         <v>768</v>
       </c>
       <c r="H302" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="I302" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
@@ -11752,7 +11752,7 @@
         <v>304</v>
       </c>
       <c r="E303" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F303" t="s">
         <v>684</v>
@@ -11761,10 +11761,10 @@
         <v>838</v>
       </c>
       <c r="H303" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="I303" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
@@ -11778,7 +11778,7 @@
         <v>305</v>
       </c>
       <c r="E304" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F304" t="s">
         <v>685</v>
@@ -11787,10 +11787,10 @@
         <v>957</v>
       </c>
       <c r="H304" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I304" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
@@ -11804,7 +11804,7 @@
         <v>306</v>
       </c>
       <c r="E305" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F305" t="s">
         <v>686</v>
@@ -11813,10 +11813,10 @@
         <v>852</v>
       </c>
       <c r="H305" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I305" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
@@ -11830,7 +11830,7 @@
         <v>307</v>
       </c>
       <c r="E306" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F306" t="s">
         <v>687</v>
@@ -11839,10 +11839,10 @@
         <v>852</v>
       </c>
       <c r="H306" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I306" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
@@ -11856,7 +11856,7 @@
         <v>308</v>
       </c>
       <c r="E307" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F307" t="s">
         <v>688</v>
@@ -11865,10 +11865,10 @@
         <v>958</v>
       </c>
       <c r="H307" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I307" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
@@ -11882,7 +11882,7 @@
         <v>309</v>
       </c>
       <c r="E308" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F308" t="s">
         <v>689</v>
@@ -11891,10 +11891,10 @@
         <v>959</v>
       </c>
       <c r="H308" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I308" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
@@ -11908,7 +11908,7 @@
         <v>310</v>
       </c>
       <c r="E309" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F309" t="s">
         <v>690</v>
@@ -11917,10 +11917,10 @@
         <v>774</v>
       </c>
       <c r="H309" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I309" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
@@ -11934,7 +11934,7 @@
         <v>311</v>
       </c>
       <c r="E310" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F310" t="s">
         <v>691</v>
@@ -11943,10 +11943,10 @@
         <v>777</v>
       </c>
       <c r="H310" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I310" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
@@ -11960,7 +11960,7 @@
         <v>312</v>
       </c>
       <c r="E311" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F311" t="s">
         <v>692</v>
@@ -11969,10 +11969,10 @@
         <v>777</v>
       </c>
       <c r="H311" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I311" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
@@ -11989,7 +11989,7 @@
         <v>313</v>
       </c>
       <c r="E312" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F312" t="s">
         <v>693</v>
@@ -11998,10 +11998,10 @@
         <v>960</v>
       </c>
       <c r="H312" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I312" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
@@ -12018,7 +12018,7 @@
         <v>314</v>
       </c>
       <c r="E313" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F313" t="s">
         <v>694</v>
@@ -12027,10 +12027,10 @@
         <v>943</v>
       </c>
       <c r="H313" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I313" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
@@ -12047,7 +12047,7 @@
         <v>315</v>
       </c>
       <c r="E314" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F314" t="s">
         <v>695</v>
@@ -12056,10 +12056,10 @@
         <v>961</v>
       </c>
       <c r="H314" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I314" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
@@ -12073,7 +12073,7 @@
         <v>316</v>
       </c>
       <c r="E315" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F315" t="s">
         <v>696</v>
@@ -12082,10 +12082,10 @@
         <v>962</v>
       </c>
       <c r="H315" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="I315" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
@@ -12099,7 +12099,7 @@
         <v>317</v>
       </c>
       <c r="E316" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F316" t="s">
         <v>697</v>
@@ -12108,10 +12108,10 @@
         <v>774</v>
       </c>
       <c r="H316" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="I316" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
@@ -12125,7 +12125,7 @@
         <v>318</v>
       </c>
       <c r="E317" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F317" t="s">
         <v>698</v>
@@ -12134,10 +12134,10 @@
         <v>952</v>
       </c>
       <c r="H317" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="I317" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
@@ -12151,7 +12151,7 @@
         <v>319</v>
       </c>
       <c r="E318" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F318" t="s">
         <v>699</v>
@@ -12160,10 +12160,10 @@
         <v>963</v>
       </c>
       <c r="H318" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="I318" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
@@ -12177,7 +12177,7 @@
         <v>320</v>
       </c>
       <c r="E319" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F319" t="s">
         <v>700</v>
@@ -12186,10 +12186,10 @@
         <v>827</v>
       </c>
       <c r="H319" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="I319" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
@@ -12203,7 +12203,7 @@
         <v>321</v>
       </c>
       <c r="E320" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F320" t="s">
         <v>701</v>
@@ -12212,10 +12212,10 @@
         <v>777</v>
       </c>
       <c r="H320" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I320" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
@@ -12229,7 +12229,7 @@
         <v>322</v>
       </c>
       <c r="E321" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F321" t="s">
         <v>702</v>
@@ -12238,10 +12238,10 @@
         <v>827</v>
       </c>
       <c r="H321" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I321" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
@@ -12255,7 +12255,7 @@
         <v>323</v>
       </c>
       <c r="E322" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F322" t="s">
         <v>703</v>
@@ -12264,10 +12264,10 @@
         <v>774</v>
       </c>
       <c r="H322" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I322" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
@@ -12281,7 +12281,7 @@
         <v>324</v>
       </c>
       <c r="E323" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F323" t="s">
         <v>704</v>
@@ -12290,13 +12290,13 @@
         <v>964</v>
       </c>
       <c r="H323" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I323" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J323" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
@@ -12310,7 +12310,7 @@
         <v>325</v>
       </c>
       <c r="E324" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F324" t="s">
         <v>705</v>
@@ -12319,13 +12319,13 @@
         <v>777</v>
       </c>
       <c r="H324" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I324" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J324" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
@@ -12339,7 +12339,7 @@
         <v>326</v>
       </c>
       <c r="E325" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F325" t="s">
         <v>706</v>
@@ -12348,13 +12348,13 @@
         <v>791</v>
       </c>
       <c r="H325" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I325" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J325" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
@@ -12368,7 +12368,7 @@
         <v>327</v>
       </c>
       <c r="E326" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F326" t="s">
         <v>707</v>
@@ -12377,13 +12377,13 @@
         <v>827</v>
       </c>
       <c r="H326" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I326" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J326" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
@@ -12397,7 +12397,7 @@
         <v>328</v>
       </c>
       <c r="E327" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F327" t="s">
         <v>708</v>
@@ -12406,13 +12406,13 @@
         <v>827</v>
       </c>
       <c r="H327" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I327" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J327" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
@@ -12426,7 +12426,7 @@
         <v>329</v>
       </c>
       <c r="E328" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F328" t="s">
         <v>709</v>
@@ -12435,13 +12435,13 @@
         <v>965</v>
       </c>
       <c r="H328" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I328" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J328" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
@@ -12455,7 +12455,7 @@
         <v>330</v>
       </c>
       <c r="E329" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F329" t="s">
         <v>710</v>
@@ -12464,13 +12464,13 @@
         <v>966</v>
       </c>
       <c r="H329" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I329" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J329" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
@@ -12484,7 +12484,7 @@
         <v>331</v>
       </c>
       <c r="E330" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F330" t="s">
         <v>711</v>
@@ -12493,13 +12493,13 @@
         <v>967</v>
       </c>
       <c r="H330" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I330" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J330" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
@@ -12513,7 +12513,7 @@
         <v>332</v>
       </c>
       <c r="E331" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F331" t="s">
         <v>712</v>
@@ -12522,10 +12522,10 @@
         <v>968</v>
       </c>
       <c r="H331" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I331" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
@@ -12539,7 +12539,7 @@
         <v>333</v>
       </c>
       <c r="E332" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F332" t="s">
         <v>713</v>
@@ -12548,10 +12548,10 @@
         <v>779</v>
       </c>
       <c r="H332" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I332" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
@@ -12565,7 +12565,7 @@
         <v>334</v>
       </c>
       <c r="E333" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F333" t="s">
         <v>714</v>
@@ -12574,10 +12574,10 @@
         <v>969</v>
       </c>
       <c r="H333" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I333" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
@@ -12591,7 +12591,7 @@
         <v>335</v>
       </c>
       <c r="E334" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F334" t="s">
         <v>715</v>
@@ -12600,10 +12600,10 @@
         <v>777</v>
       </c>
       <c r="H334" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I334" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
@@ -12617,7 +12617,7 @@
         <v>336</v>
       </c>
       <c r="E335" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F335" t="s">
         <v>716</v>
@@ -12626,10 +12626,10 @@
         <v>970</v>
       </c>
       <c r="H335" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I335" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.25">
@@ -12643,7 +12643,7 @@
         <v>337</v>
       </c>
       <c r="E336" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F336" t="s">
         <v>717</v>
@@ -12652,10 +12652,10 @@
         <v>827</v>
       </c>
       <c r="H336" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I336" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
@@ -12669,7 +12669,7 @@
         <v>338</v>
       </c>
       <c r="E337" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F337" t="s">
         <v>718</v>
@@ -12678,10 +12678,10 @@
         <v>971</v>
       </c>
       <c r="H337" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I337" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
@@ -12695,7 +12695,7 @@
         <v>339</v>
       </c>
       <c r="E338" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F338" t="s">
         <v>719</v>
@@ -12704,10 +12704,10 @@
         <v>952</v>
       </c>
       <c r="H338" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I338" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
@@ -12721,7 +12721,7 @@
         <v>340</v>
       </c>
       <c r="E339" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F339" t="s">
         <v>720</v>
@@ -12730,10 +12730,10 @@
         <v>774</v>
       </c>
       <c r="H339" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="I339" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
@@ -12747,7 +12747,7 @@
         <v>341</v>
       </c>
       <c r="E340" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F340" t="s">
         <v>721</v>
@@ -12756,10 +12756,10 @@
         <v>972</v>
       </c>
       <c r="H340" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="I340" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
@@ -12773,7 +12773,7 @@
         <v>342</v>
       </c>
       <c r="E341" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F341" t="s">
         <v>722</v>
@@ -12782,10 +12782,10 @@
         <v>777</v>
       </c>
       <c r="H341" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I341" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
@@ -12799,7 +12799,7 @@
         <v>343</v>
       </c>
       <c r="E342" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F342" t="s">
         <v>723</v>
@@ -12808,10 +12808,10 @@
         <v>777</v>
       </c>
       <c r="H342" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I342" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
@@ -12828,7 +12828,7 @@
         <v>344</v>
       </c>
       <c r="E343" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F343" t="s">
         <v>724</v>
@@ -12837,10 +12837,10 @@
         <v>973</v>
       </c>
       <c r="H343" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="I343" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
@@ -12857,7 +12857,7 @@
         <v>345</v>
       </c>
       <c r="E344" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F344" t="s">
         <v>725</v>
@@ -12866,10 +12866,10 @@
         <v>974</v>
       </c>
       <c r="H344" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="I344" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
@@ -12886,7 +12886,7 @@
         <v>346</v>
       </c>
       <c r="E345" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F345" t="s">
         <v>726</v>
@@ -12895,10 +12895,10 @@
         <v>975</v>
       </c>
       <c r="H345" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="I345" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
@@ -12915,7 +12915,7 @@
         <v>347</v>
       </c>
       <c r="E346" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F346" t="s">
         <v>727</v>
@@ -12924,10 +12924,10 @@
         <v>827</v>
       </c>
       <c r="H346" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="I346" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
@@ -12944,7 +12944,7 @@
         <v>348</v>
       </c>
       <c r="E347" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F347" t="s">
         <v>728</v>
@@ -12953,10 +12953,10 @@
         <v>814</v>
       </c>
       <c r="H347" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="I347" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
@@ -12973,7 +12973,7 @@
         <v>349</v>
       </c>
       <c r="E348" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F348" t="s">
         <v>729</v>
@@ -12982,10 +12982,10 @@
         <v>976</v>
       </c>
       <c r="H348" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="I348" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
@@ -12999,7 +12999,7 @@
         <v>350</v>
       </c>
       <c r="E349" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F349" t="s">
         <v>730</v>
@@ -13008,10 +13008,10 @@
         <v>774</v>
       </c>
       <c r="H349" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="I349" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
@@ -13025,7 +13025,7 @@
         <v>351</v>
       </c>
       <c r="E350" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F350" t="s">
         <v>731</v>
@@ -13034,10 +13034,10 @@
         <v>774</v>
       </c>
       <c r="H350" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="I350" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
@@ -13051,7 +13051,7 @@
         <v>352</v>
       </c>
       <c r="E351" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F351" t="s">
         <v>732</v>
@@ -13060,10 +13060,10 @@
         <v>774</v>
       </c>
       <c r="H351" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="I351" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
@@ -13077,7 +13077,7 @@
         <v>353</v>
       </c>
       <c r="E352" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F352" t="s">
         <v>733</v>
@@ -13086,10 +13086,10 @@
         <v>977</v>
       </c>
       <c r="H352" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="I352" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.25">
@@ -13103,7 +13103,7 @@
         <v>354</v>
       </c>
       <c r="E353" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F353" t="s">
         <v>734</v>
@@ -13112,10 +13112,10 @@
         <v>978</v>
       </c>
       <c r="H353" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I353" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.25">
@@ -13129,7 +13129,7 @@
         <v>355</v>
       </c>
       <c r="E354" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F354" t="s">
         <v>735</v>
@@ -13138,16 +13138,16 @@
         <v>914</v>
       </c>
       <c r="H354" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I354" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="K354" t="s">
         <v>1017</v>
       </c>
       <c r="L354" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.25">
@@ -13161,7 +13161,7 @@
         <v>356</v>
       </c>
       <c r="E355" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F355" t="s">
         <v>736</v>
@@ -13170,16 +13170,16 @@
         <v>979</v>
       </c>
       <c r="H355" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I355" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="K355" t="s">
         <v>1017</v>
       </c>
       <c r="L355" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.25">
@@ -13193,7 +13193,7 @@
         <v>357</v>
       </c>
       <c r="E356" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F356" t="s">
         <v>737</v>
@@ -13202,16 +13202,16 @@
         <v>980</v>
       </c>
       <c r="H356" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I356" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="K356" t="s">
         <v>1017</v>
       </c>
       <c r="L356" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.25">
@@ -13225,7 +13225,7 @@
         <v>358</v>
       </c>
       <c r="E357" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F357" t="s">
         <v>738</v>
@@ -13234,10 +13234,10 @@
         <v>981</v>
       </c>
       <c r="H357" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I357" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.25">
@@ -13251,7 +13251,7 @@
         <v>359</v>
       </c>
       <c r="E358" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F358" t="s">
         <v>739</v>
@@ -13260,10 +13260,10 @@
         <v>972</v>
       </c>
       <c r="H358" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I358" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.25">
@@ -13277,7 +13277,7 @@
         <v>360</v>
       </c>
       <c r="E359" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F359" t="s">
         <v>740</v>
@@ -13286,10 +13286,10 @@
         <v>883</v>
       </c>
       <c r="H359" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I359" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.25">
@@ -13303,7 +13303,7 @@
         <v>361</v>
       </c>
       <c r="E360" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F360" t="s">
         <v>741</v>
@@ -13312,10 +13312,10 @@
         <v>982</v>
       </c>
       <c r="H360" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I360" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.25">
@@ -13329,7 +13329,7 @@
         <v>362</v>
       </c>
       <c r="E361" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F361" t="s">
         <v>742</v>
@@ -13338,10 +13338,10 @@
         <v>777</v>
       </c>
       <c r="H361" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I361" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.25">
@@ -13355,7 +13355,7 @@
         <v>363</v>
       </c>
       <c r="E362" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F362" t="s">
         <v>743</v>
@@ -13364,10 +13364,10 @@
         <v>983</v>
       </c>
       <c r="H362" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I362" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.25">
@@ -13381,7 +13381,7 @@
         <v>364</v>
       </c>
       <c r="E363" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F363" t="s">
         <v>744</v>
@@ -13390,10 +13390,10 @@
         <v>984</v>
       </c>
       <c r="H363" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I363" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.25">
@@ -13407,7 +13407,7 @@
         <v>365</v>
       </c>
       <c r="E364" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F364" t="s">
         <v>745</v>
@@ -13416,10 +13416,10 @@
         <v>812</v>
       </c>
       <c r="H364" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I364" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.25">
@@ -13433,7 +13433,7 @@
         <v>366</v>
       </c>
       <c r="E365" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F365" t="s">
         <v>746</v>
@@ -13442,10 +13442,10 @@
         <v>770</v>
       </c>
       <c r="H365" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="I365" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.25">
@@ -13459,7 +13459,7 @@
         <v>367</v>
       </c>
       <c r="E366" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F366" t="s">
         <v>747</v>
@@ -13468,10 +13468,10 @@
         <v>777</v>
       </c>
       <c r="H366" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="I366" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.25">
@@ -13485,7 +13485,7 @@
         <v>368</v>
       </c>
       <c r="E367" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F367" t="s">
         <v>748</v>
@@ -13497,7 +13497,7 @@
         <v>1017</v>
       </c>
       <c r="I367" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.25">
@@ -13511,7 +13511,7 @@
         <v>369</v>
       </c>
       <c r="E368" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F368" t="s">
         <v>749</v>
@@ -13523,7 +13523,7 @@
         <v>1017</v>
       </c>
       <c r="I368" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.25">
@@ -13537,7 +13537,7 @@
         <v>370</v>
       </c>
       <c r="E369" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F369" t="s">
         <v>750</v>
@@ -13549,7 +13549,7 @@
         <v>1017</v>
       </c>
       <c r="I369" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.25">
@@ -13563,7 +13563,7 @@
         <v>371</v>
       </c>
       <c r="E370" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F370" t="s">
         <v>751</v>
@@ -13572,10 +13572,10 @@
         <v>986</v>
       </c>
       <c r="H370" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="I370" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.25">
@@ -13589,7 +13589,7 @@
         <v>372</v>
       </c>
       <c r="E371" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F371" t="s">
         <v>752</v>
@@ -13598,10 +13598,10 @@
         <v>779</v>
       </c>
       <c r="H371" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="I371" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.25">
@@ -13615,7 +13615,7 @@
         <v>373</v>
       </c>
       <c r="E372" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F372" t="s">
         <v>753</v>
@@ -13624,16 +13624,16 @@
         <v>987</v>
       </c>
       <c r="H372" t="s">
+        <v>1086</v>
+      </c>
+      <c r="I372" t="s">
+        <v>1108</v>
+      </c>
+      <c r="K372" t="s">
         <v>1087</v>
       </c>
-      <c r="I372" t="s">
-        <v>1109</v>
-      </c>
-      <c r="K372" t="s">
-        <v>1088</v>
-      </c>
       <c r="L372" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.25">
@@ -13647,7 +13647,7 @@
         <v>374</v>
       </c>
       <c r="E373" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F373" t="s">
         <v>754</v>
@@ -13656,16 +13656,16 @@
         <v>988</v>
       </c>
       <c r="H373" t="s">
+        <v>1086</v>
+      </c>
+      <c r="I373" t="s">
+        <v>1108</v>
+      </c>
+      <c r="K373" t="s">
         <v>1087</v>
       </c>
-      <c r="I373" t="s">
-        <v>1109</v>
-      </c>
-      <c r="K373" t="s">
-        <v>1088</v>
-      </c>
       <c r="L373" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.25">
@@ -13679,7 +13679,7 @@
         <v>375</v>
       </c>
       <c r="E374" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F374" t="s">
         <v>755</v>
@@ -13688,10 +13688,10 @@
         <v>808</v>
       </c>
       <c r="H374" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="I374" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.25">
@@ -13705,7 +13705,7 @@
         <v>376</v>
       </c>
       <c r="E375" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F375" t="s">
         <v>756</v>
@@ -13714,10 +13714,10 @@
         <v>770</v>
       </c>
       <c r="H375" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I375" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.25">
@@ -13731,7 +13731,7 @@
         <v>377</v>
       </c>
       <c r="E376" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F376" t="s">
         <v>757</v>
@@ -13740,10 +13740,10 @@
         <v>977</v>
       </c>
       <c r="H376" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I376" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.25">
@@ -13757,7 +13757,7 @@
         <v>378</v>
       </c>
       <c r="E377" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F377" t="s">
         <v>758</v>
@@ -13766,10 +13766,10 @@
         <v>989</v>
       </c>
       <c r="H377" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="I377" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.25">
@@ -13783,7 +13783,7 @@
         <v>379</v>
       </c>
       <c r="E378" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F378" t="s">
         <v>759</v>
@@ -13792,10 +13792,10 @@
         <v>774</v>
       </c>
       <c r="H378" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="I378" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.25">
@@ -13809,7 +13809,7 @@
         <v>380</v>
       </c>
       <c r="E379" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F379" t="s">
         <v>760</v>
@@ -13818,10 +13818,10 @@
         <v>774</v>
       </c>
       <c r="H379" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="I379" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.25">
@@ -13835,7 +13835,7 @@
         <v>381</v>
       </c>
       <c r="E380" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F380" t="s">
         <v>761</v>
@@ -13844,10 +13844,10 @@
         <v>779</v>
       </c>
       <c r="H380" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="I380" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.25">
@@ -13861,7 +13861,7 @@
         <v>382</v>
       </c>
       <c r="E381" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F381" t="s">
         <v>762</v>
@@ -13870,10 +13870,10 @@
         <v>774</v>
       </c>
       <c r="H381" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="I381" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.25">
@@ -13887,7 +13887,7 @@
         <v>383</v>
       </c>
       <c r="E382" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F382" t="s">
         <v>763</v>
@@ -13896,10 +13896,10 @@
         <v>852</v>
       </c>
       <c r="H382" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="I382" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.25">
@@ -13913,7 +13913,7 @@
         <v>384</v>
       </c>
       <c r="E383" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F383" t="s">
         <v>764</v>
@@ -13922,10 +13922,10 @@
         <v>774</v>
       </c>
       <c r="H383" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="I383" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.25">
@@ -13939,7 +13939,7 @@
         <v>385</v>
       </c>
       <c r="E384" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F384" t="s">
         <v>765</v>
@@ -13948,10 +13948,10 @@
         <v>827</v>
       </c>
       <c r="H384" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="I384" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
   </sheetData>

--- a/data-migration/xlsx_1900-/1902_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1902_Winter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7F2B24-85AB-4BFB-9DD5-220FA038F083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E57BC6-AA35-44D3-BC66-E3A7D2E44A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3760,19 +3760,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B147" workbookViewId="0">
-      <selection activeCell="K163" sqref="K163"/>
+    <sheetView tabSelected="1" topLeftCell="B57" workbookViewId="0">
+      <selection activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="37.5703125" customWidth="1"/>
-    <col min="6" max="6" width="52.85546875" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="37.5546875" customWidth="1"/>
+    <col min="6" max="6" width="52.88671875" customWidth="1"/>
+    <col min="7" max="7" width="36.44140625" customWidth="1"/>
+    <col min="8" max="8" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1902</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1902</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1902</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1902</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1902</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1902</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1902</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1902</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1902</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1902</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1902</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1902</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1902</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1902</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1902</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1902</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1902</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1902</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1902</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1902</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1902</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1902</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1902</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1902</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1902</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1902</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1902</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1902</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1902</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1902</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1902</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1902</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1902</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1902</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1902</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1902</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1902</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1902</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1902</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1902</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1902</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1902</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1902</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1902</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1902</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1902</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1902</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1902</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1902</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1902</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1902</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1902</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1902</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1902</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1902</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1902</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1902</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1902</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1902</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1902</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1902</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1902</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1902</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1902</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1902</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1902</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1902</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1902</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1902</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1902</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1902</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1902</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1902</v>
       </c>
@@ -5703,10 +5703,10 @@
         <v>1011</v>
       </c>
       <c r="I73" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1902</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1902</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1902</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1902</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1902</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1902</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1902</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1902</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1902</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1902</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1902</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1902</v>
       </c>
@@ -6036,7 +6036,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1902</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1902</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1902</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1902</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1902</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1902</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1902</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1902</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1902</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1902</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1902</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1902</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1902</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1902</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1902</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1902</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1902</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1902</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1902</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1902</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1902</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1902</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1902</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1902</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1902</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1902</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1902</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1902</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1902</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1902</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1902</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1902</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1902</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1902</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1902</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1902</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1902</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1902</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1902</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1902</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1902</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1902</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1902</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1902</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1902</v>
       </c>
@@ -7206,7 +7206,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1902</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1902</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1902</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1902</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1902</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1902</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1902</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1902</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1902</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1902</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1902</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1902</v>
       </c>
@@ -7518,7 +7518,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1902</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1902</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1902</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1902</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1902</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1902</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1902</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1902</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1902</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1902</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1902</v>
       </c>
@@ -7810,7 +7810,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1902</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1902</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1902</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1902</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1902</v>
       </c>
@@ -7940,7 +7940,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1902</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1902</v>
       </c>
@@ -8010,7 +8010,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1902</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1902</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1902</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1902</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1902</v>
       </c>
@@ -8146,7 +8146,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1902</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1902</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1902</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1902</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1902</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1902</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1902</v>
       </c>
@@ -8328,7 +8328,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1902</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1902</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1902</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1902</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1902</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1902</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1902</v>
       </c>
@@ -8516,7 +8516,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1902</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1902</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1902</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1902</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1902</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1902</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1902</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1902</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1902</v>
       </c>
@@ -8759,7 +8759,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1902</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1902</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1902</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1902</v>
       </c>
@@ -8863,7 +8863,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1902</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1902</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1902</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1902</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1902</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1902</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1902</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1902</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1902</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1902</v>
       </c>
@@ -9123,7 +9123,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1902</v>
       </c>
@@ -9149,7 +9149,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1902</v>
       </c>
@@ -9175,7 +9175,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1902</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1902</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1902</v>
       </c>
@@ -9253,7 +9253,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1902</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1902</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1902</v>
       </c>
@@ -9331,7 +9331,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1902</v>
       </c>
@@ -9357,7 +9357,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1902</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1902</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1902</v>
       </c>
@@ -9435,7 +9435,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1902</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1902</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1902</v>
       </c>
@@ -9513,7 +9513,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1902</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1902</v>
       </c>
@@ -9565,7 +9565,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1902</v>
       </c>
@@ -9591,7 +9591,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1902</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1902</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1902</v>
       </c>
@@ -9669,7 +9669,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1902</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1902</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1902</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1902</v>
       </c>
@@ -9773,7 +9773,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1902</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1902</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1902</v>
       </c>
@@ -9851,7 +9851,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1902</v>
       </c>
@@ -9877,7 +9877,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1902</v>
       </c>
@@ -9903,7 +9903,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1902</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1902</v>
       </c>
@@ -9955,7 +9955,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1902</v>
       </c>
@@ -9981,7 +9981,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1902</v>
       </c>
@@ -10010,7 +10010,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1902</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1902</v>
       </c>
@@ -10068,7 +10068,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1902</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1902</v>
       </c>
@@ -10120,7 +10120,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1902</v>
       </c>
@@ -10146,7 +10146,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1902</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1902</v>
       </c>
@@ -10198,7 +10198,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1902</v>
       </c>
@@ -10224,7 +10224,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1902</v>
       </c>
@@ -10253,7 +10253,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1902</v>
       </c>
@@ -10282,7 +10282,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1902</v>
       </c>
@@ -10308,7 +10308,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1902</v>
       </c>
@@ -10334,7 +10334,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1902</v>
       </c>
@@ -10360,7 +10360,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1902</v>
       </c>
@@ -10386,7 +10386,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1902</v>
       </c>
@@ -10415,7 +10415,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1902</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1902</v>
       </c>
@@ -10467,7 +10467,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1902</v>
       </c>
@@ -10493,7 +10493,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1902</v>
       </c>
@@ -10519,7 +10519,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1902</v>
       </c>
@@ -10545,7 +10545,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1902</v>
       </c>
@@ -10571,7 +10571,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1902</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1902</v>
       </c>
@@ -10623,7 +10623,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1902</v>
       </c>
@@ -10649,7 +10649,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1902</v>
       </c>
@@ -10675,7 +10675,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1902</v>
       </c>
@@ -10701,7 +10701,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1902</v>
       </c>
@@ -10727,7 +10727,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1902</v>
       </c>
@@ -10753,7 +10753,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1902</v>
       </c>
@@ -10779,7 +10779,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1902</v>
       </c>
@@ -10805,7 +10805,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1902</v>
       </c>
@@ -10831,7 +10831,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1902</v>
       </c>
@@ -10857,7 +10857,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1902</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1902</v>
       </c>
@@ -10909,7 +10909,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1902</v>
       </c>
@@ -10935,7 +10935,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1902</v>
       </c>
@@ -10961,7 +10961,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1902</v>
       </c>
@@ -10987,7 +10987,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1902</v>
       </c>
@@ -11013,7 +11013,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1902</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1902</v>
       </c>
@@ -11065,7 +11065,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1902</v>
       </c>
@@ -11091,7 +11091,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1902</v>
       </c>
@@ -11117,7 +11117,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1902</v>
       </c>
@@ -11143,7 +11143,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1902</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1902</v>
       </c>
@@ -11195,7 +11195,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1902</v>
       </c>
@@ -11221,7 +11221,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1902</v>
       </c>
@@ -11247,7 +11247,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1902</v>
       </c>
@@ -11273,7 +11273,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1902</v>
       </c>
@@ -11299,7 +11299,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1902</v>
       </c>
@@ -11325,7 +11325,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1902</v>
       </c>
@@ -11351,7 +11351,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1902</v>
       </c>
@@ -11377,7 +11377,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1902</v>
       </c>
@@ -11403,7 +11403,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1902</v>
       </c>
@@ -11429,7 +11429,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1902</v>
       </c>
@@ -11455,7 +11455,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1902</v>
       </c>
@@ -11481,7 +11481,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1902</v>
       </c>
@@ -11507,7 +11507,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1902</v>
       </c>
@@ -11533,7 +11533,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1902</v>
       </c>
@@ -11559,7 +11559,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1902</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1902</v>
       </c>
@@ -11611,7 +11611,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1902</v>
       </c>
@@ -11637,7 +11637,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1902</v>
       </c>
@@ -11663,7 +11663,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1902</v>
       </c>
@@ -11689,7 +11689,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1902</v>
       </c>
@@ -11715,7 +11715,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1902</v>
       </c>
@@ -11741,7 +11741,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1902</v>
       </c>
@@ -11767,7 +11767,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1902</v>
       </c>
@@ -11793,7 +11793,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1902</v>
       </c>
@@ -11819,7 +11819,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1902</v>
       </c>
@@ -11845,7 +11845,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1902</v>
       </c>
@@ -11871,7 +11871,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1902</v>
       </c>
@@ -11897,7 +11897,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>1902</v>
       </c>
@@ -11923,7 +11923,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1902</v>
       </c>
@@ -11949,7 +11949,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1902</v>
       </c>
@@ -11975,7 +11975,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1902</v>
       </c>
@@ -12004,7 +12004,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1902</v>
       </c>
@@ -12033,7 +12033,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1902</v>
       </c>
@@ -12062,7 +12062,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1902</v>
       </c>
@@ -12088,7 +12088,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1902</v>
       </c>
@@ -12114,7 +12114,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1902</v>
       </c>
@@ -12140,7 +12140,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1902</v>
       </c>
@@ -12166,7 +12166,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1902</v>
       </c>
@@ -12192,7 +12192,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1902</v>
       </c>
@@ -12218,7 +12218,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1902</v>
       </c>
@@ -12244,7 +12244,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>1902</v>
       </c>
@@ -12270,7 +12270,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1902</v>
       </c>
@@ -12299,7 +12299,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1902</v>
       </c>
@@ -12328,7 +12328,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1902</v>
       </c>
@@ -12357,7 +12357,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>1902</v>
       </c>
@@ -12386,7 +12386,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1902</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>1902</v>
       </c>
@@ -12444,7 +12444,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1902</v>
       </c>
@@ -12473,7 +12473,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>1902</v>
       </c>
@@ -12502,7 +12502,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>1902</v>
       </c>
@@ -12528,7 +12528,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>1902</v>
       </c>
@@ -12554,7 +12554,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1902</v>
       </c>
@@ -12580,7 +12580,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1902</v>
       </c>
@@ -12606,7 +12606,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1902</v>
       </c>
@@ -12632,7 +12632,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1902</v>
       </c>
@@ -12658,7 +12658,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>1902</v>
       </c>
@@ -12684,7 +12684,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>1902</v>
       </c>
@@ -12710,7 +12710,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1902</v>
       </c>
@@ -12736,7 +12736,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>1902</v>
       </c>
@@ -12762,7 +12762,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1902</v>
       </c>
@@ -12788,7 +12788,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>1902</v>
       </c>
@@ -12814,7 +12814,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>1902</v>
       </c>
@@ -12843,7 +12843,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>1902</v>
       </c>
@@ -12872,7 +12872,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>1902</v>
       </c>
@@ -12901,7 +12901,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>1902</v>
       </c>
@@ -12930,7 +12930,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>1902</v>
       </c>
@@ -12959,7 +12959,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>1902</v>
       </c>
@@ -12988,7 +12988,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>1902</v>
       </c>
@@ -13014,7 +13014,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>1902</v>
       </c>
@@ -13040,7 +13040,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>1902</v>
       </c>
@@ -13066,7 +13066,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>1902</v>
       </c>
@@ -13092,7 +13092,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>1902</v>
       </c>
@@ -13118,7 +13118,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>1902</v>
       </c>
@@ -13150,7 +13150,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>1902</v>
       </c>
@@ -13182,7 +13182,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>1902</v>
       </c>
@@ -13214,7 +13214,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>1902</v>
       </c>
@@ -13240,7 +13240,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>1902</v>
       </c>
@@ -13266,7 +13266,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>1902</v>
       </c>
@@ -13292,7 +13292,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>1902</v>
       </c>
@@ -13318,7 +13318,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>1902</v>
       </c>
@@ -13344,7 +13344,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>1902</v>
       </c>
@@ -13370,7 +13370,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>1902</v>
       </c>
@@ -13396,7 +13396,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>1902</v>
       </c>
@@ -13422,7 +13422,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>1902</v>
       </c>
@@ -13448,7 +13448,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>1902</v>
       </c>
@@ -13474,7 +13474,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>1902</v>
       </c>
@@ -13500,7 +13500,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>1902</v>
       </c>
@@ -13526,7 +13526,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>1902</v>
       </c>
@@ -13552,7 +13552,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>1902</v>
       </c>
@@ -13578,7 +13578,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>1902</v>
       </c>
@@ -13604,7 +13604,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>1902</v>
       </c>
@@ -13636,7 +13636,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>1902</v>
       </c>
@@ -13668,7 +13668,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>1902</v>
       </c>
@@ -13694,7 +13694,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>1902</v>
       </c>
@@ -13720,7 +13720,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>1902</v>
       </c>
@@ -13746,7 +13746,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>1902</v>
       </c>
@@ -13772,7 +13772,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>1902</v>
       </c>
@@ -13798,7 +13798,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>1902</v>
       </c>
@@ -13824,7 +13824,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>1902</v>
       </c>
@@ -13850,7 +13850,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>1902</v>
       </c>
@@ -13876,7 +13876,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>1902</v>
       </c>
@@ -13902,7 +13902,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>1902</v>
       </c>
@@ -13928,7 +13928,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>1902</v>
       </c>

--- a/data-migration/xlsx_1900-/1902_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1902_Winter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP_REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E57BC6-AA35-44D3-BC66-E3A7D2E44A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E8F3E2-65CF-4A2E-8C9E-2D54ABE9DBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2754" uniqueCount="1128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2754" uniqueCount="1129">
   <si>
     <t>Winter</t>
   </si>
@@ -3023,9 +3023,6 @@
     <t>kesselring_h</t>
   </si>
   <si>
-    <t>kappeler_a</t>
-  </si>
-  <si>
     <t>christ_p</t>
   </si>
   <si>
@@ -3035,9 +3032,6 @@
     <t>meili_f1</t>
   </si>
   <si>
-    <t>hitzig_t</t>
-  </si>
-  <si>
     <t>schneider_a</t>
   </si>
   <si>
@@ -3053,9 +3047,6 @@
     <t>zuercher_e</t>
   </si>
   <si>
-    <t>huber_r</t>
-  </si>
-  <si>
     <t>schollenberger_j</t>
   </si>
   <si>
@@ -3110,9 +3101,6 @@
     <t>oswald_a</t>
   </si>
   <si>
-    <t>kroenlein_u</t>
-  </si>
-  <si>
     <t>schlatter_k</t>
   </si>
   <si>
@@ -3221,9 +3209,6 @@
     <t>donati_l</t>
   </si>
   <si>
-    <t>betz_lp</t>
-  </si>
-  <si>
     <t>schweizer_p</t>
   </si>
   <si>
@@ -3302,9 +3287,6 @@
     <t>martin_r</t>
   </si>
   <si>
-    <t>vonmonakow_c</t>
-  </si>
-  <si>
     <t>cloetta_m</t>
   </si>
   <si>
@@ -3320,15 +3302,9 @@
     <t>ehrhardt_j</t>
   </si>
   <si>
-    <t>vonschulthessrechberg_g</t>
-  </si>
-  <si>
     <t>ruge_g</t>
   </si>
   <si>
-    <t>silberschmidt _w</t>
-  </si>
-  <si>
     <t>bernheim_j</t>
   </si>
   <si>
@@ -3374,9 +3350,6 @@
     <t>Dekan</t>
   </si>
   <si>
-    <t>wyss_o</t>
-  </si>
-  <si>
     <t>billeter_j</t>
   </si>
   <si>
@@ -3398,9 +3371,6 @@
     <t>meili_f2</t>
   </si>
   <si>
-    <t>meyerrueegg_h</t>
-  </si>
-  <si>
     <t>fick_age</t>
   </si>
   <si>
@@ -3417,6 +3387,39 @@
   </si>
   <si>
     <t>gysi_a</t>
+  </si>
+  <si>
+    <t>betz_l</t>
+  </si>
+  <si>
+    <t>kappeler_ga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meyer-rueegg_h </t>
+  </si>
+  <si>
+    <t>hitzig_hf</t>
+  </si>
+  <si>
+    <t>huber_m</t>
+  </si>
+  <si>
+    <t>kroenlein_ru</t>
+  </si>
+  <si>
+    <t>monakow_c</t>
+  </si>
+  <si>
+    <t>schulthess_rg</t>
+  </si>
+  <si>
+    <t>wyss-kienast_o</t>
+  </si>
+  <si>
+    <t>standfuss_mr</t>
+  </si>
+  <si>
+    <t>silberschmidt_w</t>
   </si>
 </sst>
 </file>
@@ -3456,7 +3459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3760,11 +3763,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B57" workbookViewId="0">
-      <selection activeCell="J73" sqref="J73"/>
+    <sheetView tabSelected="1" topLeftCell="F75" workbookViewId="0">
+      <selection activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="37.5546875" customWidth="1"/>
     <col min="6" max="6" width="52.88671875" customWidth="1"/>
@@ -3783,7 +3786,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F1" t="s">
         <v>386</v>
@@ -3792,10 +3795,10 @@
         <v>766</v>
       </c>
       <c r="H1" t="s">
-        <v>1095</v>
+        <v>1125</v>
       </c>
       <c r="I1" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -3809,7 +3812,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F2" t="s">
         <v>387</v>
@@ -3821,7 +3824,7 @@
         <v>991</v>
       </c>
       <c r="I2" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3835,7 +3838,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F3" t="s">
         <v>388</v>
@@ -3847,7 +3850,7 @@
         <v>992</v>
       </c>
       <c r="I3" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3861,7 +3864,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F4" t="s">
         <v>389</v>
@@ -3873,7 +3876,7 @@
         <v>991</v>
       </c>
       <c r="I4" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3887,7 +3890,7 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F5" t="s">
         <v>390</v>
@@ -3899,7 +3902,7 @@
         <v>993</v>
       </c>
       <c r="I5" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3913,7 +3916,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F6" t="s">
         <v>391</v>
@@ -3925,7 +3928,7 @@
         <v>994</v>
       </c>
       <c r="I6" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -3939,7 +3942,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F7" t="s">
         <v>392</v>
@@ -3951,10 +3954,10 @@
         <v>995</v>
       </c>
       <c r="I7" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="J7" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3968,7 +3971,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F8" t="s">
         <v>393</v>
@@ -3977,10 +3980,10 @@
         <v>773</v>
       </c>
       <c r="H8" t="s">
-        <v>996</v>
+        <v>1119</v>
       </c>
       <c r="I8" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3994,7 +3997,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F9" t="s">
         <v>394</v>
@@ -4006,7 +4009,7 @@
         <v>993</v>
       </c>
       <c r="I9" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4020,7 +4023,7 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F10" t="s">
         <v>395</v>
@@ -4032,7 +4035,7 @@
         <v>994</v>
       </c>
       <c r="I10" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4046,7 +4049,7 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F11" t="s">
         <v>396</v>
@@ -4058,10 +4061,10 @@
         <v>995</v>
       </c>
       <c r="I11" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="J11" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4075,7 +4078,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F12" t="s">
         <v>397</v>
@@ -4084,10 +4087,10 @@
         <v>777</v>
       </c>
       <c r="H12" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="I12" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -4101,7 +4104,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F13" t="s">
         <v>398</v>
@@ -4113,7 +4116,7 @@
         <v>994</v>
       </c>
       <c r="I13" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -4127,7 +4130,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F14" t="s">
         <v>399</v>
@@ -4136,10 +4139,10 @@
         <v>779</v>
       </c>
       <c r="H14" t="s">
-        <v>996</v>
+        <v>1119</v>
       </c>
       <c r="I14" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -4153,7 +4156,7 @@
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F15" t="s">
         <v>400</v>
@@ -4162,10 +4165,10 @@
         <v>780</v>
       </c>
       <c r="H15" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I15" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -4179,7 +4182,7 @@
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F16" t="s">
         <v>401</v>
@@ -4188,10 +4191,10 @@
         <v>774</v>
       </c>
       <c r="H16" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I16" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -4205,7 +4208,7 @@
         <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F17" t="s">
         <v>402</v>
@@ -4214,10 +4217,10 @@
         <v>781</v>
       </c>
       <c r="H17" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I17" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -4231,7 +4234,7 @@
         <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F18" t="s">
         <v>403</v>
@@ -4240,10 +4243,10 @@
         <v>774</v>
       </c>
       <c r="H18" t="s">
-        <v>1095</v>
+        <v>1125</v>
       </c>
       <c r="I18" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -4257,7 +4260,7 @@
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F19" t="s">
         <v>404</v>
@@ -4266,10 +4269,10 @@
         <v>782</v>
       </c>
       <c r="H19" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="I19" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -4283,7 +4286,7 @@
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F20" t="s">
         <v>405</v>
@@ -4292,10 +4295,10 @@
         <v>783</v>
       </c>
       <c r="H20" t="s">
-        <v>1095</v>
+        <v>1125</v>
       </c>
       <c r="I20" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -4309,7 +4312,7 @@
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F21" t="s">
         <v>406</v>
@@ -4318,10 +4321,10 @@
         <v>784</v>
       </c>
       <c r="H21" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="I21" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -4335,7 +4338,7 @@
         <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F22" t="s">
         <v>407</v>
@@ -4344,10 +4347,10 @@
         <v>777</v>
       </c>
       <c r="H22" t="s">
-        <v>1095</v>
+        <v>1125</v>
       </c>
       <c r="I22" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -4361,7 +4364,7 @@
         <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F23" t="s">
         <v>408</v>
@@ -4370,10 +4373,10 @@
         <v>785</v>
       </c>
       <c r="H23" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="I23" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -4387,7 +4390,7 @@
         <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F24" t="s">
         <v>409</v>
@@ -4396,10 +4399,10 @@
         <v>779</v>
       </c>
       <c r="H24" t="s">
-        <v>1120</v>
+        <v>1111</v>
       </c>
       <c r="I24" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -4413,7 +4416,7 @@
         <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F25" t="s">
         <v>410</v>
@@ -4422,10 +4425,10 @@
         <v>777</v>
       </c>
       <c r="H25" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="I25" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -4439,7 +4442,7 @@
         <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F26" t="s">
         <v>411</v>
@@ -4448,10 +4451,10 @@
         <v>786</v>
       </c>
       <c r="H26" t="s">
-        <v>1120</v>
+        <v>1111</v>
       </c>
       <c r="I26" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -4465,7 +4468,7 @@
         <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F27" t="s">
         <v>412</v>
@@ -4474,10 +4477,10 @@
         <v>777</v>
       </c>
       <c r="H27" t="s">
-        <v>1120</v>
+        <v>1111</v>
       </c>
       <c r="I27" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -4491,7 +4494,7 @@
         <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F28" t="s">
         <v>413</v>
@@ -4500,10 +4503,10 @@
         <v>774</v>
       </c>
       <c r="H28" t="s">
-        <v>1120</v>
+        <v>1111</v>
       </c>
       <c r="I28" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -4517,7 +4520,7 @@
         <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F29" t="s">
         <v>414</v>
@@ -4529,10 +4532,10 @@
         <v>995</v>
       </c>
       <c r="I29" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="J29" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -4546,7 +4549,7 @@
         <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F30" t="s">
         <v>415</v>
@@ -4558,7 +4561,7 @@
         <v>991</v>
       </c>
       <c r="I30" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -4572,7 +4575,7 @@
         <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F31" t="s">
         <v>416</v>
@@ -4584,7 +4587,7 @@
         <v>994</v>
       </c>
       <c r="I31" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -4598,7 +4601,7 @@
         <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F32" t="s">
         <v>417</v>
@@ -4610,7 +4613,7 @@
         <v>994</v>
       </c>
       <c r="I32" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -4624,7 +4627,7 @@
         <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F33" t="s">
         <v>418</v>
@@ -4633,10 +4636,10 @@
         <v>774</v>
       </c>
       <c r="H33" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I33" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -4650,7 +4653,7 @@
         <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F34" t="s">
         <v>419</v>
@@ -4659,10 +4662,10 @@
         <v>790</v>
       </c>
       <c r="H34" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="I34" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -4676,7 +4679,7 @@
         <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F35" t="s">
         <v>420</v>
@@ -4685,10 +4688,10 @@
         <v>777</v>
       </c>
       <c r="H35" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="I35" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -4702,7 +4705,7 @@
         <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F36" t="s">
         <v>421</v>
@@ -4714,10 +4717,10 @@
         <v>995</v>
       </c>
       <c r="I36" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="J36" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -4731,7 +4734,7 @@
         <v>38</v>
       </c>
       <c r="E37" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F37" t="s">
         <v>422</v>
@@ -4740,10 +4743,10 @@
         <v>792</v>
       </c>
       <c r="H37" t="s">
-        <v>1000</v>
+        <v>1121</v>
       </c>
       <c r="I37" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -4757,7 +4760,7 @@
         <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F38" t="s">
         <v>423</v>
@@ -4766,10 +4769,10 @@
         <v>793</v>
       </c>
       <c r="H38" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="I38" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -4783,7 +4786,7 @@
         <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F39" t="s">
         <v>424</v>
@@ -4792,10 +4795,10 @@
         <v>794</v>
       </c>
       <c r="H39" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="I39" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -4809,7 +4812,7 @@
         <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F40" t="s">
         <v>425</v>
@@ -4818,10 +4821,10 @@
         <v>795</v>
       </c>
       <c r="H40" t="s">
-        <v>1000</v>
+        <v>1121</v>
       </c>
       <c r="I40" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -4835,7 +4838,7 @@
         <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F41" t="s">
         <v>426</v>
@@ -4844,10 +4847,10 @@
         <v>796</v>
       </c>
       <c r="H41" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="I41" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -4861,7 +4864,7 @@
         <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F42" t="s">
         <v>427</v>
@@ -4870,13 +4873,13 @@
         <v>797</v>
       </c>
       <c r="H42" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="I42" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="J42" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -4890,7 +4893,7 @@
         <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F43" t="s">
         <v>428</v>
@@ -4899,13 +4902,13 @@
         <v>798</v>
       </c>
       <c r="H43" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="I43" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="J43" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -4919,7 +4922,7 @@
         <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F44" t="s">
         <v>429</v>
@@ -4928,13 +4931,13 @@
         <v>799</v>
       </c>
       <c r="H44" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="I44" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="J44" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -4948,7 +4951,7 @@
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F45" t="s">
         <v>430</v>
@@ -4957,10 +4960,10 @@
         <v>800</v>
       </c>
       <c r="H45" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I45" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -4974,7 +4977,7 @@
         <v>47</v>
       </c>
       <c r="E46" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F46" t="s">
         <v>431</v>
@@ -4983,10 +4986,10 @@
         <v>801</v>
       </c>
       <c r="H46" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I46" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -5000,7 +5003,7 @@
         <v>48</v>
       </c>
       <c r="E47" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F47" t="s">
         <v>432</v>
@@ -5009,10 +5012,10 @@
         <v>802</v>
       </c>
       <c r="H47" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="I47" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -5026,7 +5029,7 @@
         <v>49</v>
       </c>
       <c r="E48" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F48" t="s">
         <v>433</v>
@@ -5035,10 +5038,10 @@
         <v>803</v>
       </c>
       <c r="H48" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="I48" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -5052,7 +5055,7 @@
         <v>50</v>
       </c>
       <c r="E49" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F49" t="s">
         <v>434</v>
@@ -5061,10 +5064,10 @@
         <v>804</v>
       </c>
       <c r="H49" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="I49" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -5078,7 +5081,7 @@
         <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F50" t="s">
         <v>435</v>
@@ -5087,10 +5090,10 @@
         <v>805</v>
       </c>
       <c r="H50" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="I50" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -5104,7 +5107,7 @@
         <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F51" t="s">
         <v>436</v>
@@ -5113,10 +5116,10 @@
         <v>806</v>
       </c>
       <c r="H51" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="I51" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -5130,7 +5133,7 @@
         <v>53</v>
       </c>
       <c r="E52" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F52" t="s">
         <v>437</v>
@@ -5139,10 +5142,10 @@
         <v>807</v>
       </c>
       <c r="H52" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="I52" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -5156,7 +5159,7 @@
         <v>54</v>
       </c>
       <c r="E53" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F53" t="s">
         <v>438</v>
@@ -5165,10 +5168,10 @@
         <v>808</v>
       </c>
       <c r="H53" t="s">
-        <v>1006</v>
+        <v>1122</v>
       </c>
       <c r="I53" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -5182,7 +5185,7 @@
         <v>55</v>
       </c>
       <c r="E54" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F54" t="s">
         <v>439</v>
@@ -5191,10 +5194,10 @@
         <v>809</v>
       </c>
       <c r="H54" t="s">
-        <v>1006</v>
+        <v>1122</v>
       </c>
       <c r="I54" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -5208,7 +5211,7 @@
         <v>56</v>
       </c>
       <c r="E55" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F55" t="s">
         <v>440</v>
@@ -5217,10 +5220,10 @@
         <v>810</v>
       </c>
       <c r="H55" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="I55" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -5234,7 +5237,7 @@
         <v>57</v>
       </c>
       <c r="E56" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F56" t="s">
         <v>441</v>
@@ -5243,10 +5246,10 @@
         <v>811</v>
       </c>
       <c r="H56" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="I56" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -5260,7 +5263,7 @@
         <v>58</v>
       </c>
       <c r="E57" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F57" t="s">
         <v>442</v>
@@ -5269,10 +5272,10 @@
         <v>812</v>
       </c>
       <c r="H57" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="I57" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -5286,7 +5289,7 @@
         <v>59</v>
       </c>
       <c r="E58" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F58" t="s">
         <v>443</v>
@@ -5295,13 +5298,13 @@
         <v>813</v>
       </c>
       <c r="H58" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="I58" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="J58" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -5315,7 +5318,7 @@
         <v>60</v>
       </c>
       <c r="E59" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F59" t="s">
         <v>444</v>
@@ -5324,13 +5327,13 @@
         <v>801</v>
       </c>
       <c r="H59" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="I59" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="J59" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -5344,7 +5347,7 @@
         <v>61</v>
       </c>
       <c r="E60" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F60" t="s">
         <v>445</v>
@@ -5353,10 +5356,10 @@
         <v>814</v>
       </c>
       <c r="H60" t="s">
-        <v>1006</v>
+        <v>1122</v>
       </c>
       <c r="I60" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -5370,7 +5373,7 @@
         <v>62</v>
       </c>
       <c r="E61" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F61" t="s">
         <v>446</v>
@@ -5379,10 +5382,10 @@
         <v>815</v>
       </c>
       <c r="H61" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="I61" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -5396,7 +5399,7 @@
         <v>63</v>
       </c>
       <c r="E62" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F62" t="s">
         <v>447</v>
@@ -5405,10 +5408,10 @@
         <v>816</v>
       </c>
       <c r="H62" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="I62" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -5422,7 +5425,7 @@
         <v>64</v>
       </c>
       <c r="E63" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F63" t="s">
         <v>448</v>
@@ -5431,10 +5434,10 @@
         <v>817</v>
       </c>
       <c r="H63" t="s">
-        <v>1000</v>
+        <v>1121</v>
       </c>
       <c r="I63" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -5448,7 +5451,7 @@
         <v>65</v>
       </c>
       <c r="E64" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F64" t="s">
         <v>449</v>
@@ -5457,10 +5460,10 @@
         <v>818</v>
       </c>
       <c r="H64" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="I64" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -5474,7 +5477,7 @@
         <v>66</v>
       </c>
       <c r="E65" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F65" t="s">
         <v>450</v>
@@ -5483,10 +5486,10 @@
         <v>790</v>
       </c>
       <c r="H65" t="s">
-        <v>1000</v>
+        <v>1121</v>
       </c>
       <c r="I65" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -5500,7 +5503,7 @@
         <v>67</v>
       </c>
       <c r="E66" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F66" t="s">
         <v>451</v>
@@ -5509,13 +5512,13 @@
         <v>777</v>
       </c>
       <c r="H66" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="I66" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="J66" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -5529,7 +5532,7 @@
         <v>68</v>
       </c>
       <c r="E67" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F67" t="s">
         <v>452</v>
@@ -5538,13 +5541,13 @@
         <v>777</v>
       </c>
       <c r="H67" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="I67" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="J67" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -5558,7 +5561,7 @@
         <v>69</v>
       </c>
       <c r="E68" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F68" t="s">
         <v>453</v>
@@ -5567,10 +5570,10 @@
         <v>819</v>
       </c>
       <c r="H68" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="I68" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -5584,7 +5587,7 @@
         <v>70</v>
       </c>
       <c r="E69" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F69" t="s">
         <v>454</v>
@@ -5593,10 +5596,10 @@
         <v>820</v>
       </c>
       <c r="H69" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="I69" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -5610,7 +5613,7 @@
         <v>71</v>
       </c>
       <c r="E70" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F70" t="s">
         <v>455</v>
@@ -5619,10 +5622,10 @@
         <v>821</v>
       </c>
       <c r="H70" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="I70" t="s">
-        <v>1126</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -5636,7 +5639,7 @@
         <v>72</v>
       </c>
       <c r="E71" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F71" t="s">
         <v>456</v>
@@ -5645,13 +5648,13 @@
         <v>822</v>
       </c>
       <c r="H71" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="I71" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="J71" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -5665,7 +5668,7 @@
         <v>73</v>
       </c>
       <c r="E72" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F72" t="s">
         <v>457</v>
@@ -5674,10 +5677,10 @@
         <v>823</v>
       </c>
       <c r="H72" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="I72" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -5691,7 +5694,7 @@
         <v>74</v>
       </c>
       <c r="E73" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F73" t="s">
         <v>458</v>
@@ -5700,10 +5703,10 @@
         <v>824</v>
       </c>
       <c r="H73" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="I73" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -5717,7 +5720,7 @@
         <v>75</v>
       </c>
       <c r="E74" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F74" t="s">
         <v>459</v>
@@ -5726,16 +5729,16 @@
         <v>825</v>
       </c>
       <c r="H74" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
       <c r="I74" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="K74" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="L74" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -5749,7 +5752,7 @@
         <v>76</v>
       </c>
       <c r="E75" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F75" t="s">
         <v>460</v>
@@ -5758,16 +5761,16 @@
         <v>826</v>
       </c>
       <c r="H75" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
       <c r="I75" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="K75" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="L75" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -5781,7 +5784,7 @@
         <v>77</v>
       </c>
       <c r="E76" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F76" t="s">
         <v>461</v>
@@ -5790,16 +5793,16 @@
         <v>827</v>
       </c>
       <c r="H76" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
       <c r="I76" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="K76" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="L76" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -5813,7 +5816,7 @@
         <v>78</v>
       </c>
       <c r="E77" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F77" t="s">
         <v>462</v>
@@ -5822,10 +5825,10 @@
         <v>795</v>
       </c>
       <c r="H77" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I77" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -5839,7 +5842,7 @@
         <v>79</v>
       </c>
       <c r="E78" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F78" t="s">
         <v>463</v>
@@ -5848,10 +5851,10 @@
         <v>828</v>
       </c>
       <c r="H78" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I78" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -5865,7 +5868,7 @@
         <v>80</v>
       </c>
       <c r="E79" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F79" t="s">
         <v>464</v>
@@ -5874,10 +5877,10 @@
         <v>829</v>
       </c>
       <c r="H79" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I79" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -5891,7 +5894,7 @@
         <v>81</v>
       </c>
       <c r="E80" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F80" t="s">
         <v>465</v>
@@ -5900,10 +5903,10 @@
         <v>830</v>
       </c>
       <c r="H80" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="I80" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -5917,7 +5920,7 @@
         <v>82</v>
       </c>
       <c r="E81" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F81" t="s">
         <v>466</v>
@@ -5926,10 +5929,10 @@
         <v>831</v>
       </c>
       <c r="H81" t="s">
-        <v>1089</v>
+        <v>1124</v>
       </c>
       <c r="I81" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -5943,7 +5946,7 @@
         <v>83</v>
       </c>
       <c r="E82" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F82" t="s">
         <v>467</v>
@@ -5952,10 +5955,10 @@
         <v>827</v>
       </c>
       <c r="H82" t="s">
-        <v>1089</v>
+        <v>1124</v>
       </c>
       <c r="I82" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -5969,7 +5972,7 @@
         <v>84</v>
       </c>
       <c r="E83" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F83" t="s">
         <v>468</v>
@@ -5978,10 +5981,10 @@
         <v>795</v>
       </c>
       <c r="H83" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="I83" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -5995,7 +5998,7 @@
         <v>85</v>
       </c>
       <c r="E84" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F84" t="s">
         <v>469</v>
@@ -6004,10 +6007,10 @@
         <v>832</v>
       </c>
       <c r="H84" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="I84" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -6021,7 +6024,7 @@
         <v>86</v>
       </c>
       <c r="E85" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F85" t="s">
         <v>470</v>
@@ -6030,10 +6033,10 @@
         <v>827</v>
       </c>
       <c r="H85" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="I85" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -6047,7 +6050,7 @@
         <v>87</v>
       </c>
       <c r="E86" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F86" t="s">
         <v>471</v>
@@ -6056,10 +6059,10 @@
         <v>774</v>
       </c>
       <c r="H86" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="I86" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
@@ -6073,7 +6076,7 @@
         <v>88</v>
       </c>
       <c r="E87" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F87" t="s">
         <v>472</v>
@@ -6082,10 +6085,10 @@
         <v>791</v>
       </c>
       <c r="H87" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="I87" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -6099,7 +6102,7 @@
         <v>89</v>
       </c>
       <c r="E88" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F88" t="s">
         <v>473</v>
@@ -6108,10 +6111,10 @@
         <v>833</v>
       </c>
       <c r="H88" t="s">
-        <v>1113</v>
+        <v>1126</v>
       </c>
       <c r="I88" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -6125,7 +6128,7 @@
         <v>90</v>
       </c>
       <c r="E89" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F89" t="s">
         <v>474</v>
@@ -6134,10 +6137,10 @@
         <v>834</v>
       </c>
       <c r="H89" t="s">
-        <v>1113</v>
+        <v>1126</v>
       </c>
       <c r="I89" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
@@ -6151,7 +6154,7 @@
         <v>91</v>
       </c>
       <c r="E90" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F90" t="s">
         <v>475</v>
@@ -6160,10 +6163,10 @@
         <v>779</v>
       </c>
       <c r="H90" t="s">
-        <v>1113</v>
+        <v>1126</v>
       </c>
       <c r="I90" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -6177,7 +6180,7 @@
         <v>92</v>
       </c>
       <c r="E91" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F91" t="s">
         <v>476</v>
@@ -6186,10 +6189,10 @@
         <v>835</v>
       </c>
       <c r="H91" t="s">
-        <v>1097</v>
+        <v>1128</v>
       </c>
       <c r="I91" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -6203,7 +6206,7 @@
         <v>93</v>
       </c>
       <c r="E92" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F92" t="s">
         <v>477</v>
@@ -6212,10 +6215,10 @@
         <v>836</v>
       </c>
       <c r="H92" t="s">
-        <v>1097</v>
+        <v>1128</v>
       </c>
       <c r="I92" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -6229,7 +6232,7 @@
         <v>94</v>
       </c>
       <c r="E93" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F93" t="s">
         <v>478</v>
@@ -6238,10 +6241,10 @@
         <v>779</v>
       </c>
       <c r="H93" t="s">
-        <v>1097</v>
+        <v>1128</v>
       </c>
       <c r="I93" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
@@ -6255,7 +6258,7 @@
         <v>95</v>
       </c>
       <c r="E94" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F94" t="s">
         <v>479</v>
@@ -6264,10 +6267,10 @@
         <v>837</v>
       </c>
       <c r="H94" t="s">
-        <v>1097</v>
+        <v>1128</v>
       </c>
       <c r="I94" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -6281,7 +6284,7 @@
         <v>96</v>
       </c>
       <c r="E95" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F95" t="s">
         <v>480</v>
@@ -6290,10 +6293,10 @@
         <v>838</v>
       </c>
       <c r="H95" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="I95" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -6307,7 +6310,7 @@
         <v>97</v>
       </c>
       <c r="E96" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F96" t="s">
         <v>481</v>
@@ -6316,10 +6319,10 @@
         <v>839</v>
       </c>
       <c r="H96" t="s">
-        <v>1115</v>
+        <v>1106</v>
       </c>
       <c r="I96" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -6333,7 +6336,7 @@
         <v>98</v>
       </c>
       <c r="E97" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F97" t="s">
         <v>482</v>
@@ -6342,10 +6345,10 @@
         <v>840</v>
       </c>
       <c r="H97" t="s">
-        <v>1115</v>
+        <v>1106</v>
       </c>
       <c r="I97" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -6359,7 +6362,7 @@
         <v>99</v>
       </c>
       <c r="E98" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F98" t="s">
         <v>483</v>
@@ -6368,10 +6371,10 @@
         <v>841</v>
       </c>
       <c r="H98" t="s">
-        <v>1115</v>
+        <v>1106</v>
       </c>
       <c r="I98" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -6385,7 +6388,7 @@
         <v>100</v>
       </c>
       <c r="E99" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F99" t="s">
         <v>484</v>
@@ -6394,10 +6397,10 @@
         <v>842</v>
       </c>
       <c r="H99" t="s">
-        <v>1115</v>
+        <v>1106</v>
       </c>
       <c r="I99" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -6411,7 +6414,7 @@
         <v>101</v>
       </c>
       <c r="E100" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F100" t="s">
         <v>461</v>
@@ -6420,10 +6423,10 @@
         <v>827</v>
       </c>
       <c r="H100" t="s">
-        <v>1115</v>
+        <v>1106</v>
       </c>
       <c r="I100" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -6437,7 +6440,7 @@
         <v>102</v>
       </c>
       <c r="E101" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F101" t="s">
         <v>485</v>
@@ -6446,10 +6449,10 @@
         <v>843</v>
       </c>
       <c r="H101" t="s">
-        <v>1089</v>
+        <v>1124</v>
       </c>
       <c r="I101" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -6463,7 +6466,7 @@
         <v>103</v>
       </c>
       <c r="E102" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F102" t="s">
         <v>486</v>
@@ -6472,10 +6475,10 @@
         <v>844</v>
       </c>
       <c r="H102" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="I102" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -6489,7 +6492,7 @@
         <v>104</v>
       </c>
       <c r="E103" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F103" t="s">
         <v>487</v>
@@ -6498,10 +6501,10 @@
         <v>845</v>
       </c>
       <c r="H103" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="I103" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -6515,7 +6518,7 @@
         <v>105</v>
       </c>
       <c r="E104" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F104" t="s">
         <v>488</v>
@@ -6524,10 +6527,10 @@
         <v>846</v>
       </c>
       <c r="H104" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="I104" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
@@ -6541,7 +6544,7 @@
         <v>106</v>
       </c>
       <c r="E105" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F105" t="s">
         <v>489</v>
@@ -6550,10 +6553,10 @@
         <v>847</v>
       </c>
       <c r="H105" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="I105" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
@@ -6567,7 +6570,7 @@
         <v>107</v>
       </c>
       <c r="E106" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F106" t="s">
         <v>490</v>
@@ -6576,10 +6579,10 @@
         <v>848</v>
       </c>
       <c r="H106" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="I106" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
@@ -6593,7 +6596,7 @@
         <v>108</v>
       </c>
       <c r="E107" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F107" t="s">
         <v>491</v>
@@ -6602,10 +6605,10 @@
         <v>778</v>
       </c>
       <c r="H107" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="I107" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
@@ -6619,7 +6622,7 @@
         <v>109</v>
       </c>
       <c r="E108" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F108" t="s">
         <v>492</v>
@@ -6628,10 +6631,10 @@
         <v>777</v>
       </c>
       <c r="H108" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="I108" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
@@ -6645,7 +6648,7 @@
         <v>110</v>
       </c>
       <c r="E109" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F109" t="s">
         <v>493</v>
@@ -6654,10 +6657,10 @@
         <v>777</v>
       </c>
       <c r="H109" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="I109" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
@@ -6671,7 +6674,7 @@
         <v>111</v>
       </c>
       <c r="E110" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F110" t="s">
         <v>494</v>
@@ -6680,10 +6683,10 @@
         <v>849</v>
       </c>
       <c r="H110" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="I110" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
@@ -6697,7 +6700,7 @@
         <v>112</v>
       </c>
       <c r="E111" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F111" t="s">
         <v>495</v>
@@ -6706,10 +6709,10 @@
         <v>850</v>
       </c>
       <c r="H111" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="I111" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
@@ -6723,7 +6726,7 @@
         <v>113</v>
       </c>
       <c r="E112" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F112" t="s">
         <v>496</v>
@@ -6732,10 +6735,10 @@
         <v>851</v>
       </c>
       <c r="H112" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="I112" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -6749,7 +6752,7 @@
         <v>114</v>
       </c>
       <c r="E113" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F113" t="s">
         <v>497</v>
@@ -6758,10 +6761,10 @@
         <v>777</v>
       </c>
       <c r="H113" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="I113" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
@@ -6775,7 +6778,7 @@
         <v>115</v>
       </c>
       <c r="E114" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F114" t="s">
         <v>498</v>
@@ -6784,10 +6787,10 @@
         <v>777</v>
       </c>
       <c r="H114" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="I114" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
@@ -6801,7 +6804,7 @@
         <v>116</v>
       </c>
       <c r="E115" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F115" t="s">
         <v>499</v>
@@ -6810,10 +6813,10 @@
         <v>852</v>
       </c>
       <c r="H115" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="I115" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -6827,7 +6830,7 @@
         <v>117</v>
       </c>
       <c r="E116" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F116" t="s">
         <v>500</v>
@@ -6836,10 +6839,10 @@
         <v>774</v>
       </c>
       <c r="H116" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="I116" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -6853,7 +6856,7 @@
         <v>118</v>
       </c>
       <c r="E117" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F117" t="s">
         <v>501</v>
@@ -6862,10 +6865,10 @@
         <v>853</v>
       </c>
       <c r="H117" t="s">
-        <v>1113</v>
+        <v>1126</v>
       </c>
       <c r="I117" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
@@ -6879,7 +6882,7 @@
         <v>119</v>
       </c>
       <c r="E118" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F118" t="s">
         <v>502</v>
@@ -6888,10 +6891,10 @@
         <v>777</v>
       </c>
       <c r="H118" t="s">
-        <v>1098</v>
+        <v>1090</v>
       </c>
       <c r="I118" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -6905,7 +6908,7 @@
         <v>120</v>
       </c>
       <c r="E119" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F119" t="s">
         <v>503</v>
@@ -6914,10 +6917,10 @@
         <v>854</v>
       </c>
       <c r="H119" t="s">
-        <v>1089</v>
+        <v>1124</v>
       </c>
       <c r="I119" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -6931,7 +6934,7 @@
         <v>121</v>
       </c>
       <c r="E120" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F120" t="s">
         <v>504</v>
@@ -6940,10 +6943,10 @@
         <v>777</v>
       </c>
       <c r="H120" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="I120" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
@@ -6957,7 +6960,7 @@
         <v>122</v>
       </c>
       <c r="E121" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F121" t="s">
         <v>505</v>
@@ -6966,10 +6969,10 @@
         <v>774</v>
       </c>
       <c r="H121" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="I121" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -6983,7 +6986,7 @@
         <v>123</v>
       </c>
       <c r="E122" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F122" t="s">
         <v>506</v>
@@ -6992,10 +6995,10 @@
         <v>774</v>
       </c>
       <c r="H122" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="I122" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -7009,7 +7012,7 @@
         <v>124</v>
       </c>
       <c r="E123" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F123" t="s">
         <v>507</v>
@@ -7018,10 +7021,10 @@
         <v>777</v>
       </c>
       <c r="H123" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="I123" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -7035,7 +7038,7 @@
         <v>125</v>
       </c>
       <c r="E124" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F124" t="s">
         <v>508</v>
@@ -7044,10 +7047,10 @@
         <v>855</v>
       </c>
       <c r="H124" t="s">
-        <v>1116</v>
+        <v>1107</v>
       </c>
       <c r="I124" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -7061,7 +7064,7 @@
         <v>126</v>
       </c>
       <c r="E125" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F125" t="s">
         <v>509</v>
@@ -7070,10 +7073,10 @@
         <v>777</v>
       </c>
       <c r="H125" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="I125" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
@@ -7087,7 +7090,7 @@
         <v>127</v>
       </c>
       <c r="E126" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F126" t="s">
         <v>510</v>
@@ -7096,10 +7099,10 @@
         <v>856</v>
       </c>
       <c r="H126" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="I126" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -7113,7 +7116,7 @@
         <v>128</v>
       </c>
       <c r="E127" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F127" t="s">
         <v>511</v>
@@ -7122,10 +7125,10 @@
         <v>857</v>
       </c>
       <c r="H127" t="s">
-        <v>1025</v>
+        <v>1123</v>
       </c>
       <c r="I127" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -7139,7 +7142,7 @@
         <v>129</v>
       </c>
       <c r="E128" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F128" t="s">
         <v>512</v>
@@ -7148,10 +7151,10 @@
         <v>858</v>
       </c>
       <c r="H128" t="s">
-        <v>1025</v>
+        <v>1123</v>
       </c>
       <c r="I128" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -7165,7 +7168,7 @@
         <v>130</v>
       </c>
       <c r="E129" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F129" t="s">
         <v>513</v>
@@ -7174,10 +7177,10 @@
         <v>859</v>
       </c>
       <c r="H129" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="I129" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -7191,7 +7194,7 @@
         <v>131</v>
       </c>
       <c r="E130" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F130" t="s">
         <v>514</v>
@@ -7200,10 +7203,10 @@
         <v>860</v>
       </c>
       <c r="H130" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="I130" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -7217,7 +7220,7 @@
         <v>132</v>
       </c>
       <c r="E131" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F131" t="s">
         <v>515</v>
@@ -7226,10 +7229,10 @@
         <v>861</v>
       </c>
       <c r="H131" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="I131" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -7243,7 +7246,7 @@
         <v>133</v>
       </c>
       <c r="E132" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F132" t="s">
         <v>516</v>
@@ -7252,10 +7255,10 @@
         <v>779</v>
       </c>
       <c r="H132" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="I132" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -7269,7 +7272,7 @@
         <v>134</v>
       </c>
       <c r="E133" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F133" t="s">
         <v>517</v>
@@ -7278,10 +7281,10 @@
         <v>862</v>
       </c>
       <c r="H133" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="I133" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -7295,7 +7298,7 @@
         <v>135</v>
       </c>
       <c r="E134" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F134" t="s">
         <v>518</v>
@@ -7304,10 +7307,10 @@
         <v>774</v>
       </c>
       <c r="H134" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="I134" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -7321,7 +7324,7 @@
         <v>136</v>
       </c>
       <c r="E135" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F135" t="s">
         <v>519</v>
@@ -7333,7 +7336,7 @@
         <v>990</v>
       </c>
       <c r="I135" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -7347,7 +7350,7 @@
         <v>137</v>
       </c>
       <c r="E136" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F136" t="s">
         <v>520</v>
@@ -7356,10 +7359,10 @@
         <v>863</v>
       </c>
       <c r="H136" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="I136" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -7373,7 +7376,7 @@
         <v>138</v>
       </c>
       <c r="E137" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F137" t="s">
         <v>521</v>
@@ -7382,10 +7385,10 @@
         <v>864</v>
       </c>
       <c r="H137" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="I137" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -7399,7 +7402,7 @@
         <v>139</v>
       </c>
       <c r="E138" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F138" t="s">
         <v>522</v>
@@ -7408,10 +7411,10 @@
         <v>865</v>
       </c>
       <c r="H138" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="I138" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -7425,7 +7428,7 @@
         <v>140</v>
       </c>
       <c r="E139" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F139" t="s">
         <v>523</v>
@@ -7434,10 +7437,10 @@
         <v>866</v>
       </c>
       <c r="H139" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I139" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -7451,7 +7454,7 @@
         <v>141</v>
       </c>
       <c r="E140" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F140" t="s">
         <v>524</v>
@@ -7460,10 +7463,10 @@
         <v>852</v>
       </c>
       <c r="H140" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I140" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -7477,7 +7480,7 @@
         <v>142</v>
       </c>
       <c r="E141" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F141" t="s">
         <v>525</v>
@@ -7486,10 +7489,10 @@
         <v>774</v>
       </c>
       <c r="H141" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I141" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -7503,7 +7506,7 @@
         <v>143</v>
       </c>
       <c r="E142" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F142" t="s">
         <v>526</v>
@@ -7512,10 +7515,10 @@
         <v>867</v>
       </c>
       <c r="H142" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="I142" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -7529,7 +7532,7 @@
         <v>144</v>
       </c>
       <c r="E143" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F143" t="s">
         <v>527</v>
@@ -7538,10 +7541,10 @@
         <v>868</v>
       </c>
       <c r="H143" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="I143" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -7555,7 +7558,7 @@
         <v>145</v>
       </c>
       <c r="E144" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F144" t="s">
         <v>528</v>
@@ -7564,10 +7567,10 @@
         <v>869</v>
       </c>
       <c r="H144" t="s">
-        <v>1122</v>
+        <v>1112</v>
       </c>
       <c r="I144" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.3">
@@ -7581,7 +7584,7 @@
         <v>146</v>
       </c>
       <c r="E145" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F145" t="s">
         <v>529</v>
@@ -7590,10 +7593,10 @@
         <v>870</v>
       </c>
       <c r="H145" t="s">
-        <v>1122</v>
+        <v>1112</v>
       </c>
       <c r="I145" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.3">
@@ -7607,7 +7610,7 @@
         <v>147</v>
       </c>
       <c r="E146" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F146" t="s">
         <v>530</v>
@@ -7616,10 +7619,10 @@
         <v>774</v>
       </c>
       <c r="H146" t="s">
-        <v>1118</v>
+        <v>1109</v>
       </c>
       <c r="I146" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.3">
@@ -7633,7 +7636,7 @@
         <v>148</v>
       </c>
       <c r="E147" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F147" t="s">
         <v>531</v>
@@ -7642,10 +7645,10 @@
         <v>777</v>
       </c>
       <c r="H147" t="s">
-        <v>1118</v>
+        <v>1109</v>
       </c>
       <c r="I147" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.3">
@@ -7659,7 +7662,7 @@
         <v>149</v>
       </c>
       <c r="E148" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F148" t="s">
         <v>532</v>
@@ -7668,13 +7671,13 @@
         <v>871</v>
       </c>
       <c r="H148" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="I148" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="J148" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.3">
@@ -7688,7 +7691,7 @@
         <v>150</v>
       </c>
       <c r="E149" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F149" t="s">
         <v>533</v>
@@ -7697,13 +7700,13 @@
         <v>872</v>
       </c>
       <c r="H149" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="I149" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="J149" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.3">
@@ -7717,7 +7720,7 @@
         <v>151</v>
       </c>
       <c r="E150" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F150" t="s">
         <v>534</v>
@@ -7726,10 +7729,10 @@
         <v>774</v>
       </c>
       <c r="H150" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="I150" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.3">
@@ -7743,7 +7746,7 @@
         <v>152</v>
       </c>
       <c r="E151" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F151" t="s">
         <v>535</v>
@@ -7752,10 +7755,10 @@
         <v>777</v>
       </c>
       <c r="H151" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="I151" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.3">
@@ -7769,7 +7772,7 @@
         <v>153</v>
       </c>
       <c r="E152" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F152" t="s">
         <v>536</v>
@@ -7778,10 +7781,10 @@
         <v>830</v>
       </c>
       <c r="H152" t="s">
-        <v>1114</v>
+        <v>1105</v>
       </c>
       <c r="I152" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.3">
@@ -7795,7 +7798,7 @@
         <v>154</v>
       </c>
       <c r="E153" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F153" t="s">
         <v>537</v>
@@ -7804,10 +7807,10 @@
         <v>873</v>
       </c>
       <c r="H153" t="s">
-        <v>1114</v>
+        <v>1105</v>
       </c>
       <c r="I153" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.3">
@@ -7821,7 +7824,7 @@
         <v>155</v>
       </c>
       <c r="E154" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F154" t="s">
         <v>538</v>
@@ -7830,10 +7833,10 @@
         <v>874</v>
       </c>
       <c r="H154" t="s">
-        <v>1099</v>
+        <v>1091</v>
       </c>
       <c r="I154" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.3">
@@ -7847,7 +7850,7 @@
         <v>156</v>
       </c>
       <c r="E155" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F155" t="s">
         <v>539</v>
@@ -7856,10 +7859,10 @@
         <v>840</v>
       </c>
       <c r="H155" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="I155" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.3">
@@ -7873,7 +7876,7 @@
         <v>157</v>
       </c>
       <c r="E156" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F156" t="s">
         <v>540</v>
@@ -7882,10 +7885,10 @@
         <v>777</v>
       </c>
       <c r="H156" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="I156" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.3">
@@ -7899,7 +7902,7 @@
         <v>158</v>
       </c>
       <c r="E157" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F157" t="s">
         <v>536</v>
@@ -7908,10 +7911,10 @@
         <v>875</v>
       </c>
       <c r="H157" t="s">
-        <v>1114</v>
+        <v>1105</v>
       </c>
       <c r="I157" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.3">
@@ -7925,7 +7928,7 @@
         <v>159</v>
       </c>
       <c r="E158" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F158" t="s">
         <v>541</v>
@@ -7934,10 +7937,10 @@
         <v>801</v>
       </c>
       <c r="H158" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="I158" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.3">
@@ -7951,7 +7954,7 @@
         <v>160</v>
       </c>
       <c r="E159" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F159" t="s">
         <v>542</v>
@@ -7960,10 +7963,10 @@
         <v>816</v>
       </c>
       <c r="H159" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="I159" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.3">
@@ -7977,7 +7980,7 @@
         <v>161</v>
       </c>
       <c r="E160" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F160" t="s">
         <v>537</v>
@@ -7986,28 +7989,28 @@
         <v>876</v>
       </c>
       <c r="H160" t="s">
-        <v>1114</v>
+        <v>1105</v>
       </c>
       <c r="I160" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
       <c r="K160" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="L160" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
       <c r="M160" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="N160" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
       <c r="O160" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="P160" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
@@ -8021,7 +8024,7 @@
         <v>162</v>
       </c>
       <c r="E161" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F161" t="s">
         <v>543</v>
@@ -8030,10 +8033,10 @@
         <v>877</v>
       </c>
       <c r="H161" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="I161" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
@@ -8047,7 +8050,7 @@
         <v>163</v>
       </c>
       <c r="E162" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F162" t="s">
         <v>544</v>
@@ -8056,16 +8059,16 @@
         <v>878</v>
       </c>
       <c r="H162" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="I162" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
       <c r="K162" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="L162" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
@@ -8079,7 +8082,7 @@
         <v>164</v>
       </c>
       <c r="E163" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F163" t="s">
         <v>545</v>
@@ -8088,10 +8091,10 @@
         <v>879</v>
       </c>
       <c r="H163" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="I163" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
@@ -8105,7 +8108,7 @@
         <v>165</v>
       </c>
       <c r="E164" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F164" t="s">
         <v>546</v>
@@ -8114,10 +8117,10 @@
         <v>880</v>
       </c>
       <c r="H164" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="I164" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
@@ -8131,7 +8134,7 @@
         <v>166</v>
       </c>
       <c r="E165" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F165" t="s">
         <v>547</v>
@@ -8140,10 +8143,10 @@
         <v>808</v>
       </c>
       <c r="H165" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="I165" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
@@ -8157,7 +8160,7 @@
         <v>167</v>
       </c>
       <c r="E166" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F166" t="s">
         <v>548</v>
@@ -8166,10 +8169,10 @@
         <v>881</v>
       </c>
       <c r="H166" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="I166" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
@@ -8183,7 +8186,7 @@
         <v>168</v>
       </c>
       <c r="E167" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F167" t="s">
         <v>549</v>
@@ -8192,10 +8195,10 @@
         <v>882</v>
       </c>
       <c r="H167" t="s">
-        <v>1127</v>
+        <v>1117</v>
       </c>
       <c r="I167" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
@@ -8209,7 +8212,7 @@
         <v>169</v>
       </c>
       <c r="E168" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F168" t="s">
         <v>550</v>
@@ -8218,10 +8221,10 @@
         <v>883</v>
       </c>
       <c r="H168" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="I168" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
@@ -8235,7 +8238,7 @@
         <v>170</v>
       </c>
       <c r="E169" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F169" t="s">
         <v>551</v>
@@ -8244,10 +8247,10 @@
         <v>884</v>
       </c>
       <c r="H169" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="I169" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
@@ -8261,7 +8264,7 @@
         <v>171</v>
       </c>
       <c r="E170" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="F170" t="s">
         <v>552</v>
@@ -8270,10 +8273,10 @@
         <v>885</v>
       </c>
       <c r="H170" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="I170" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
@@ -8287,7 +8290,7 @@
         <v>172</v>
       </c>
       <c r="E171" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="F171" t="s">
         <v>553</v>
@@ -8296,10 +8299,10 @@
         <v>886</v>
       </c>
       <c r="H171" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="I171" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
@@ -8313,7 +8316,7 @@
         <v>173</v>
       </c>
       <c r="E172" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="F172" t="s">
         <v>554</v>
@@ -8322,10 +8325,10 @@
         <v>887</v>
       </c>
       <c r="H172" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="I172" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
@@ -8339,7 +8342,7 @@
         <v>174</v>
       </c>
       <c r="E173" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="F173" t="s">
         <v>555</v>
@@ -8348,10 +8351,10 @@
         <v>888</v>
       </c>
       <c r="H173" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="I173" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
@@ -8365,7 +8368,7 @@
         <v>175</v>
       </c>
       <c r="E174" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="F174" t="s">
         <v>556</v>
@@ -8374,10 +8377,10 @@
         <v>889</v>
       </c>
       <c r="H174" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="I174" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
@@ -8391,7 +8394,7 @@
         <v>176</v>
       </c>
       <c r="E175" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="F175" t="s">
         <v>557</v>
@@ -8400,10 +8403,10 @@
         <v>890</v>
       </c>
       <c r="H175" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="I175" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
@@ -8417,7 +8420,7 @@
         <v>177</v>
       </c>
       <c r="E176" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="F176" t="s">
         <v>558</v>
@@ -8426,10 +8429,10 @@
         <v>891</v>
       </c>
       <c r="H176" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="I176" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
@@ -8443,7 +8446,7 @@
         <v>178</v>
       </c>
       <c r="E177" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="F177" t="s">
         <v>559</v>
@@ -8452,10 +8455,10 @@
         <v>892</v>
       </c>
       <c r="H177" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="I177" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
@@ -8469,7 +8472,7 @@
         <v>179</v>
       </c>
       <c r="E178" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="F178" t="s">
         <v>560</v>
@@ -8478,13 +8481,13 @@
         <v>805</v>
       </c>
       <c r="H178" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="I178" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="J178" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
@@ -8498,7 +8501,7 @@
         <v>180</v>
       </c>
       <c r="E179" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="F179" t="s">
         <v>561</v>
@@ -8507,13 +8510,13 @@
         <v>893</v>
       </c>
       <c r="H179" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="I179" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="J179" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
@@ -8527,7 +8530,7 @@
         <v>181</v>
       </c>
       <c r="E180" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="F180" t="s">
         <v>562</v>
@@ -8536,13 +8539,13 @@
         <v>894</v>
       </c>
       <c r="H180" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="I180" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="J180" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
@@ -8556,7 +8559,7 @@
         <v>182</v>
       </c>
       <c r="E181" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="F181" t="s">
         <v>563</v>
@@ -8565,13 +8568,13 @@
         <v>777</v>
       </c>
       <c r="H181" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="I181" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="J181" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
@@ -8585,7 +8588,7 @@
         <v>183</v>
       </c>
       <c r="E182" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="F182" t="s">
         <v>564</v>
@@ -8594,13 +8597,13 @@
         <v>895</v>
       </c>
       <c r="H182" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="I182" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="J182" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
@@ -8614,7 +8617,7 @@
         <v>184</v>
       </c>
       <c r="E183" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="F183" t="s">
         <v>565</v>
@@ -8623,10 +8626,10 @@
         <v>896</v>
       </c>
       <c r="H183" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="I183" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
@@ -8640,7 +8643,7 @@
         <v>185</v>
       </c>
       <c r="E184" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="F184" t="s">
         <v>566</v>
@@ -8649,10 +8652,10 @@
         <v>897</v>
       </c>
       <c r="H184" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="I184" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
@@ -8666,7 +8669,7 @@
         <v>186</v>
       </c>
       <c r="E185" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="F185" t="s">
         <v>511</v>
@@ -8675,10 +8678,10 @@
         <v>898</v>
       </c>
       <c r="H185" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="I185" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
@@ -8692,7 +8695,7 @@
         <v>187</v>
       </c>
       <c r="E186" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="F186" t="s">
         <v>567</v>
@@ -8701,10 +8704,10 @@
         <v>899</v>
       </c>
       <c r="H186" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="I186" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
@@ -8718,7 +8721,7 @@
         <v>188</v>
       </c>
       <c r="E187" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="F187" t="s">
         <v>568</v>
@@ -8727,10 +8730,10 @@
         <v>900</v>
       </c>
       <c r="H187" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="I187" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
@@ -8744,7 +8747,7 @@
         <v>189</v>
       </c>
       <c r="E188" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="F188" t="s">
         <v>569</v>
@@ -8753,10 +8756,10 @@
         <v>901</v>
       </c>
       <c r="H188" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="I188" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
@@ -8770,7 +8773,7 @@
         <v>190</v>
       </c>
       <c r="E189" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="F189" t="s">
         <v>570</v>
@@ -8779,10 +8782,10 @@
         <v>902</v>
       </c>
       <c r="H189" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="I189" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
@@ -8796,7 +8799,7 @@
         <v>191</v>
       </c>
       <c r="E190" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="F190" t="s">
         <v>571</v>
@@ -8805,10 +8808,10 @@
         <v>903</v>
       </c>
       <c r="H190" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="I190" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
@@ -8822,7 +8825,7 @@
         <v>192</v>
       </c>
       <c r="E191" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="F191" t="s">
         <v>572</v>
@@ -8831,10 +8834,10 @@
         <v>777</v>
       </c>
       <c r="H191" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="I191" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
@@ -8848,7 +8851,7 @@
         <v>193</v>
       </c>
       <c r="E192" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="F192" t="s">
         <v>573</v>
@@ -8857,10 +8860,10 @@
         <v>774</v>
       </c>
       <c r="H192" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="I192" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
@@ -8874,7 +8877,7 @@
         <v>194</v>
       </c>
       <c r="E193" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F193" t="s">
         <v>574</v>
@@ -8883,10 +8886,10 @@
         <v>904</v>
       </c>
       <c r="H193" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="I193" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
@@ -8900,7 +8903,7 @@
         <v>195</v>
       </c>
       <c r="E194" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F194" t="s">
         <v>575</v>
@@ -8909,10 +8912,10 @@
         <v>905</v>
       </c>
       <c r="H194" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="I194" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
@@ -8926,7 +8929,7 @@
         <v>196</v>
       </c>
       <c r="E195" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F195" t="s">
         <v>576</v>
@@ -8935,10 +8938,10 @@
         <v>906</v>
       </c>
       <c r="H195" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="I195" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
@@ -8952,7 +8955,7 @@
         <v>197</v>
       </c>
       <c r="E196" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F196" t="s">
         <v>577</v>
@@ -8961,10 +8964,10 @@
         <v>907</v>
       </c>
       <c r="H196" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="I196" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
@@ -8978,7 +8981,7 @@
         <v>198</v>
       </c>
       <c r="E197" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F197" t="s">
         <v>578</v>
@@ -8987,10 +8990,10 @@
         <v>908</v>
       </c>
       <c r="H197" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="I197" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
@@ -9004,7 +9007,7 @@
         <v>199</v>
       </c>
       <c r="E198" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F198" t="s">
         <v>579</v>
@@ -9013,10 +9016,10 @@
         <v>909</v>
       </c>
       <c r="H198" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="I198" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
@@ -9030,7 +9033,7 @@
         <v>200</v>
       </c>
       <c r="E199" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F199" t="s">
         <v>580</v>
@@ -9039,10 +9042,10 @@
         <v>774</v>
       </c>
       <c r="H199" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="I199" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
@@ -9056,7 +9059,7 @@
         <v>201</v>
       </c>
       <c r="E200" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F200" t="s">
         <v>581</v>
@@ -9065,10 +9068,10 @@
         <v>818</v>
       </c>
       <c r="H200" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="I200" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
@@ -9082,7 +9085,7 @@
         <v>202</v>
       </c>
       <c r="E201" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F201" t="s">
         <v>582</v>
@@ -9091,10 +9094,10 @@
         <v>910</v>
       </c>
       <c r="H201" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="I201" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
@@ -9108,7 +9111,7 @@
         <v>203</v>
       </c>
       <c r="E202" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F202" t="s">
         <v>583</v>
@@ -9117,10 +9120,10 @@
         <v>911</v>
       </c>
       <c r="H202" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="I202" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
@@ -9134,7 +9137,7 @@
         <v>204</v>
       </c>
       <c r="E203" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F203" t="s">
         <v>584</v>
@@ -9143,10 +9146,10 @@
         <v>777</v>
       </c>
       <c r="H203" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="I203" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
@@ -9160,7 +9163,7 @@
         <v>205</v>
       </c>
       <c r="E204" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F204" t="s">
         <v>585</v>
@@ -9169,10 +9172,10 @@
         <v>912</v>
       </c>
       <c r="H204" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="I204" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
@@ -9186,7 +9189,7 @@
         <v>206</v>
       </c>
       <c r="E205" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F205" t="s">
         <v>586</v>
@@ -9195,10 +9198,10 @@
         <v>865</v>
       </c>
       <c r="H205" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="I205" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
@@ -9212,7 +9215,7 @@
         <v>207</v>
       </c>
       <c r="E206" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F206" t="s">
         <v>587</v>
@@ -9221,10 +9224,10 @@
         <v>913</v>
       </c>
       <c r="H206" t="s">
-        <v>1095</v>
+        <v>1125</v>
       </c>
       <c r="I206" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
@@ -9238,7 +9241,7 @@
         <v>208</v>
       </c>
       <c r="E207" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F207" t="s">
         <v>588</v>
@@ -9247,10 +9250,10 @@
         <v>914</v>
       </c>
       <c r="H207" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="I207" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
@@ -9264,7 +9267,7 @@
         <v>209</v>
       </c>
       <c r="E208" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F208" t="s">
         <v>589</v>
@@ -9273,10 +9276,10 @@
         <v>915</v>
       </c>
       <c r="H208" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="I208" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
@@ -9290,7 +9293,7 @@
         <v>210</v>
       </c>
       <c r="E209" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F209" t="s">
         <v>590</v>
@@ -9299,10 +9302,10 @@
         <v>916</v>
       </c>
       <c r="H209" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="I209" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
@@ -9316,7 +9319,7 @@
         <v>211</v>
       </c>
       <c r="E210" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F210" t="s">
         <v>591</v>
@@ -9325,10 +9328,10 @@
         <v>912</v>
       </c>
       <c r="H210" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="I210" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
@@ -9342,7 +9345,7 @@
         <v>212</v>
       </c>
       <c r="E211" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F211" t="s">
         <v>592</v>
@@ -9351,10 +9354,10 @@
         <v>917</v>
       </c>
       <c r="H211" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="I211" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
@@ -9368,7 +9371,7 @@
         <v>213</v>
       </c>
       <c r="E212" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F212" t="s">
         <v>593</v>
@@ -9380,7 +9383,7 @@
         <v>991</v>
       </c>
       <c r="I212" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
@@ -9394,7 +9397,7 @@
         <v>214</v>
       </c>
       <c r="E213" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F213" t="s">
         <v>594</v>
@@ -9406,7 +9409,7 @@
         <v>991</v>
       </c>
       <c r="I213" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
@@ -9420,7 +9423,7 @@
         <v>215</v>
       </c>
       <c r="E214" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F214" t="s">
         <v>595</v>
@@ -9429,10 +9432,10 @@
         <v>918</v>
       </c>
       <c r="H214" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="I214" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
@@ -9446,7 +9449,7 @@
         <v>216</v>
       </c>
       <c r="E215" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F215" t="s">
         <v>596</v>
@@ -9455,10 +9458,10 @@
         <v>919</v>
       </c>
       <c r="H215" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="I215" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
@@ -9472,7 +9475,7 @@
         <v>217</v>
       </c>
       <c r="E216" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F216" t="s">
         <v>597</v>
@@ -9481,10 +9484,10 @@
         <v>835</v>
       </c>
       <c r="H216" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="I216" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
@@ -9498,7 +9501,7 @@
         <v>218</v>
       </c>
       <c r="E217" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F217" t="s">
         <v>598</v>
@@ -9507,10 +9510,10 @@
         <v>920</v>
       </c>
       <c r="H217" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="I217" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
@@ -9524,7 +9527,7 @@
         <v>219</v>
       </c>
       <c r="E218" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F218" t="s">
         <v>599</v>
@@ -9533,10 +9536,10 @@
         <v>774</v>
       </c>
       <c r="H218" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="I218" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
@@ -9550,7 +9553,7 @@
         <v>220</v>
       </c>
       <c r="E219" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F219" t="s">
         <v>600</v>
@@ -9559,10 +9562,10 @@
         <v>774</v>
       </c>
       <c r="H219" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="I219" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
@@ -9576,7 +9579,7 @@
         <v>221</v>
       </c>
       <c r="E220" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F220" t="s">
         <v>601</v>
@@ -9585,10 +9588,10 @@
         <v>774</v>
       </c>
       <c r="H220" t="s">
-        <v>1100</v>
+        <v>1092</v>
       </c>
       <c r="I220" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
@@ -9602,7 +9605,7 @@
         <v>222</v>
       </c>
       <c r="E221" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F221" t="s">
         <v>602</v>
@@ -9611,10 +9614,10 @@
         <v>921</v>
       </c>
       <c r="H221" t="s">
-        <v>1100</v>
+        <v>1092</v>
       </c>
       <c r="I221" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
@@ -9628,7 +9631,7 @@
         <v>223</v>
       </c>
       <c r="E222" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F222" t="s">
         <v>603</v>
@@ -9637,10 +9640,10 @@
         <v>922</v>
       </c>
       <c r="H222" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="I222" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
@@ -9654,7 +9657,7 @@
         <v>224</v>
       </c>
       <c r="E223" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F223" t="s">
         <v>604</v>
@@ -9666,7 +9669,7 @@
         <v>990</v>
       </c>
       <c r="I223" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
@@ -9680,7 +9683,7 @@
         <v>225</v>
       </c>
       <c r="E224" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F224" t="s">
         <v>605</v>
@@ -9692,7 +9695,7 @@
         <v>990</v>
       </c>
       <c r="I224" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
@@ -9706,7 +9709,7 @@
         <v>226</v>
       </c>
       <c r="E225" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F225" t="s">
         <v>606</v>
@@ -9715,10 +9718,10 @@
         <v>774</v>
       </c>
       <c r="H225" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="I225" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
@@ -9732,7 +9735,7 @@
         <v>227</v>
       </c>
       <c r="E226" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F226" t="s">
         <v>607</v>
@@ -9741,10 +9744,10 @@
         <v>774</v>
       </c>
       <c r="H226" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="I226" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
@@ -9758,7 +9761,7 @@
         <v>228</v>
       </c>
       <c r="E227" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F227" t="s">
         <v>608</v>
@@ -9767,10 +9770,10 @@
         <v>774</v>
       </c>
       <c r="H227" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="I227" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
@@ -9784,7 +9787,7 @@
         <v>229</v>
       </c>
       <c r="E228" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F228" t="s">
         <v>609</v>
@@ -9793,10 +9796,10 @@
         <v>774</v>
       </c>
       <c r="H228" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="I228" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
@@ -9810,7 +9813,7 @@
         <v>230</v>
       </c>
       <c r="E229" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F229" t="s">
         <v>610</v>
@@ -9819,10 +9822,10 @@
         <v>774</v>
       </c>
       <c r="H229" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="I229" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -9836,7 +9839,7 @@
         <v>231</v>
       </c>
       <c r="E230" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F230" t="s">
         <v>611</v>
@@ -9845,10 +9848,10 @@
         <v>923</v>
       </c>
       <c r="H230" t="s">
-        <v>1000</v>
+        <v>1092</v>
       </c>
       <c r="I230" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -9862,7 +9865,7 @@
         <v>232</v>
       </c>
       <c r="E231" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F231" t="s">
         <v>612</v>
@@ -9871,10 +9874,10 @@
         <v>924</v>
       </c>
       <c r="H231" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="I231" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
@@ -9888,7 +9891,7 @@
         <v>233</v>
       </c>
       <c r="E232" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F232" t="s">
         <v>613</v>
@@ -9897,10 +9900,10 @@
         <v>779</v>
       </c>
       <c r="H232" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="I232" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
@@ -9914,7 +9917,7 @@
         <v>234</v>
       </c>
       <c r="E233" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F233" t="s">
         <v>614</v>
@@ -9923,10 +9926,10 @@
         <v>819</v>
       </c>
       <c r="H233" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="I233" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
@@ -9940,7 +9943,7 @@
         <v>235</v>
       </c>
       <c r="E234" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F234" t="s">
         <v>615</v>
@@ -9949,10 +9952,10 @@
         <v>789</v>
       </c>
       <c r="H234" t="s">
-        <v>1100</v>
+        <v>1092</v>
       </c>
       <c r="I234" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
@@ -9966,7 +9969,7 @@
         <v>236</v>
       </c>
       <c r="E235" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F235" t="s">
         <v>616</v>
@@ -9975,10 +9978,10 @@
         <v>803</v>
       </c>
       <c r="H235" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="I235" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
@@ -9992,7 +9995,7 @@
         <v>237</v>
       </c>
       <c r="E236" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F236" t="s">
         <v>617</v>
@@ -10001,13 +10004,13 @@
         <v>903</v>
       </c>
       <c r="H236" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="I236" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="J236" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
@@ -10021,7 +10024,7 @@
         <v>238</v>
       </c>
       <c r="E237" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F237" t="s">
         <v>618</v>
@@ -10030,13 +10033,13 @@
         <v>925</v>
       </c>
       <c r="H237" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="I237" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="J237" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
@@ -10050,7 +10053,7 @@
         <v>239</v>
       </c>
       <c r="E238" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F238" t="s">
         <v>619</v>
@@ -10059,13 +10062,13 @@
         <v>807</v>
       </c>
       <c r="H238" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="I238" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="J238" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
@@ -10079,7 +10082,7 @@
         <v>240</v>
       </c>
       <c r="E239" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F239" t="s">
         <v>620</v>
@@ -10088,10 +10091,10 @@
         <v>774</v>
       </c>
       <c r="H239" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="I239" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
@@ -10105,7 +10108,7 @@
         <v>241</v>
       </c>
       <c r="E240" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F240" t="s">
         <v>621</v>
@@ -10114,10 +10117,10 @@
         <v>926</v>
       </c>
       <c r="H240" t="s">
-        <v>1117</v>
+        <v>1108</v>
       </c>
       <c r="I240" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
@@ -10131,7 +10134,7 @@
         <v>242</v>
       </c>
       <c r="E241" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F241" t="s">
         <v>622</v>
@@ -10140,10 +10143,10 @@
         <v>927</v>
       </c>
       <c r="H241" t="s">
-        <v>1117</v>
+        <v>1108</v>
       </c>
       <c r="I241" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.3">
@@ -10157,7 +10160,7 @@
         <v>243</v>
       </c>
       <c r="E242" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F242" t="s">
         <v>623</v>
@@ -10166,10 +10169,10 @@
         <v>928</v>
       </c>
       <c r="H242" t="s">
-        <v>1117</v>
+        <v>1108</v>
       </c>
       <c r="I242" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
@@ -10183,7 +10186,7 @@
         <v>244</v>
       </c>
       <c r="E243" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F243" t="s">
         <v>624</v>
@@ -10192,10 +10195,10 @@
         <v>774</v>
       </c>
       <c r="H243" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="I243" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
@@ -10209,7 +10212,7 @@
         <v>245</v>
       </c>
       <c r="E244" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F244" t="s">
         <v>625</v>
@@ -10218,10 +10221,10 @@
         <v>777</v>
       </c>
       <c r="H244" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="I244" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
@@ -10235,7 +10238,7 @@
         <v>246</v>
       </c>
       <c r="E245" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F245" t="s">
         <v>626</v>
@@ -10244,13 +10247,13 @@
         <v>823</v>
       </c>
       <c r="H245" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="I245" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="J245" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
@@ -10264,7 +10267,7 @@
         <v>247</v>
       </c>
       <c r="E246" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F246" t="s">
         <v>627</v>
@@ -10273,13 +10276,13 @@
         <v>929</v>
       </c>
       <c r="H246" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="I246" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="J246" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
@@ -10293,7 +10296,7 @@
         <v>248</v>
       </c>
       <c r="E247" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F247" t="s">
         <v>628</v>
@@ -10302,10 +10305,10 @@
         <v>930</v>
       </c>
       <c r="H247" t="s">
-        <v>1117</v>
+        <v>1108</v>
       </c>
       <c r="I247" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
@@ -10319,7 +10322,7 @@
         <v>249</v>
       </c>
       <c r="E248" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F248" t="s">
         <v>629</v>
@@ -10328,10 +10331,10 @@
         <v>931</v>
       </c>
       <c r="H248" t="s">
-        <v>1117</v>
+        <v>1108</v>
       </c>
       <c r="I248" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
@@ -10345,7 +10348,7 @@
         <v>250</v>
       </c>
       <c r="E249" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F249" t="s">
         <v>630</v>
@@ -10354,10 +10357,10 @@
         <v>932</v>
       </c>
       <c r="H249" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="I249" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
@@ -10371,7 +10374,7 @@
         <v>251</v>
       </c>
       <c r="E250" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F250" t="s">
         <v>631</v>
@@ -10380,10 +10383,10 @@
         <v>933</v>
       </c>
       <c r="H250" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="I250" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.3">
@@ -10400,7 +10403,7 @@
         <v>252</v>
       </c>
       <c r="E251" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F251" t="s">
         <v>632</v>
@@ -10409,10 +10412,10 @@
         <v>830</v>
       </c>
       <c r="H251" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="I251" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
@@ -10426,7 +10429,7 @@
         <v>253</v>
       </c>
       <c r="E252" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F252" t="s">
         <v>633</v>
@@ -10435,10 +10438,10 @@
         <v>934</v>
       </c>
       <c r="H252" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="I252" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
@@ -10452,7 +10455,7 @@
         <v>254</v>
       </c>
       <c r="E253" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F253" t="s">
         <v>634</v>
@@ -10461,10 +10464,10 @@
         <v>935</v>
       </c>
       <c r="H253" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="I253" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
@@ -10478,7 +10481,7 @@
         <v>255</v>
       </c>
       <c r="E254" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F254" t="s">
         <v>635</v>
@@ -10487,10 +10490,10 @@
         <v>936</v>
       </c>
       <c r="H254" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="I254" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
@@ -10504,7 +10507,7 @@
         <v>256</v>
       </c>
       <c r="E255" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F255" t="s">
         <v>636</v>
@@ -10513,10 +10516,10 @@
         <v>799</v>
       </c>
       <c r="H255" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="I255" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
@@ -10530,7 +10533,7 @@
         <v>257</v>
       </c>
       <c r="E256" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F256" t="s">
         <v>637</v>
@@ -10539,10 +10542,10 @@
         <v>937</v>
       </c>
       <c r="H256" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="I256" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -10556,7 +10559,7 @@
         <v>258</v>
       </c>
       <c r="E257" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F257" t="s">
         <v>638</v>
@@ -10565,10 +10568,10 @@
         <v>917</v>
       </c>
       <c r="H257" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="I257" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -10582,7 +10585,7 @@
         <v>259</v>
       </c>
       <c r="E258" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F258" t="s">
         <v>639</v>
@@ -10591,10 +10594,10 @@
         <v>938</v>
       </c>
       <c r="H258" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="I258" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -10608,7 +10611,7 @@
         <v>260</v>
       </c>
       <c r="E259" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F259" t="s">
         <v>640</v>
@@ -10617,10 +10620,10 @@
         <v>939</v>
       </c>
       <c r="H259" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="I259" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -10634,7 +10637,7 @@
         <v>261</v>
       </c>
       <c r="E260" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F260" t="s">
         <v>641</v>
@@ -10643,10 +10646,10 @@
         <v>940</v>
       </c>
       <c r="H260" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="I260" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -10660,7 +10663,7 @@
         <v>262</v>
       </c>
       <c r="E261" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F261" t="s">
         <v>642</v>
@@ -10669,10 +10672,10 @@
         <v>774</v>
       </c>
       <c r="H261" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="I261" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -10686,7 +10689,7 @@
         <v>263</v>
       </c>
       <c r="E262" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F262" t="s">
         <v>643</v>
@@ -10695,10 +10698,10 @@
         <v>779</v>
       </c>
       <c r="H262" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="I262" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -10712,7 +10715,7 @@
         <v>264</v>
       </c>
       <c r="E263" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F263" t="s">
         <v>644</v>
@@ -10721,10 +10724,10 @@
         <v>941</v>
       </c>
       <c r="H263" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="I263" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -10738,7 +10741,7 @@
         <v>265</v>
       </c>
       <c r="E264" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F264" t="s">
         <v>645</v>
@@ -10747,10 +10750,10 @@
         <v>777</v>
       </c>
       <c r="H264" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="I264" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -10764,7 +10767,7 @@
         <v>266</v>
       </c>
       <c r="E265" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F265" t="s">
         <v>646</v>
@@ -10773,10 +10776,10 @@
         <v>774</v>
       </c>
       <c r="H265" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="I265" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -10790,7 +10793,7 @@
         <v>267</v>
       </c>
       <c r="E266" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F266" t="s">
         <v>647</v>
@@ -10799,10 +10802,10 @@
         <v>942</v>
       </c>
       <c r="H266" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="I266" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -10816,7 +10819,7 @@
         <v>268</v>
       </c>
       <c r="E267" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F267" t="s">
         <v>648</v>
@@ -10825,10 +10828,10 @@
         <v>943</v>
       </c>
       <c r="H267" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="I267" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -10842,7 +10845,7 @@
         <v>269</v>
       </c>
       <c r="E268" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F268" t="s">
         <v>649</v>
@@ -10851,10 +10854,10 @@
         <v>788</v>
       </c>
       <c r="H268" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="I268" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -10868,7 +10871,7 @@
         <v>270</v>
       </c>
       <c r="E269" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F269" t="s">
         <v>650</v>
@@ -10877,10 +10880,10 @@
         <v>944</v>
       </c>
       <c r="H269" t="s">
-        <v>1062</v>
+        <v>1118</v>
       </c>
       <c r="I269" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -10894,7 +10897,7 @@
         <v>271</v>
       </c>
       <c r="E270" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F270" t="s">
         <v>651</v>
@@ -10903,10 +10906,10 @@
         <v>945</v>
       </c>
       <c r="H270" t="s">
-        <v>1062</v>
+        <v>1118</v>
       </c>
       <c r="I270" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -10920,7 +10923,7 @@
         <v>272</v>
       </c>
       <c r="E271" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F271" t="s">
         <v>652</v>
@@ -10929,10 +10932,10 @@
         <v>946</v>
       </c>
       <c r="H271" t="s">
-        <v>1062</v>
+        <v>1118</v>
       </c>
       <c r="I271" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -10946,7 +10949,7 @@
         <v>273</v>
       </c>
       <c r="E272" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F272" t="s">
         <v>653</v>
@@ -10955,10 +10958,10 @@
         <v>947</v>
       </c>
       <c r="H272" t="s">
-        <v>1062</v>
+        <v>1118</v>
       </c>
       <c r="I272" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -10972,7 +10975,7 @@
         <v>274</v>
       </c>
       <c r="E273" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F273" t="s">
         <v>654</v>
@@ -10981,10 +10984,10 @@
         <v>948</v>
       </c>
       <c r="H273" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="I273" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -10998,7 +11001,7 @@
         <v>275</v>
       </c>
       <c r="E274" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F274" t="s">
         <v>655</v>
@@ -11007,10 +11010,10 @@
         <v>779</v>
       </c>
       <c r="H274" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="I274" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -11024,7 +11027,7 @@
         <v>276</v>
       </c>
       <c r="E275" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F275" t="s">
         <v>656</v>
@@ -11033,10 +11036,10 @@
         <v>859</v>
       </c>
       <c r="H275" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
       <c r="I275" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
@@ -11050,7 +11053,7 @@
         <v>277</v>
       </c>
       <c r="E276" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F276" t="s">
         <v>657</v>
@@ -11059,10 +11062,10 @@
         <v>774</v>
       </c>
       <c r="H276" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="I276" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
@@ -11076,7 +11079,7 @@
         <v>278</v>
       </c>
       <c r="E277" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F277" t="s">
         <v>658</v>
@@ -11085,10 +11088,10 @@
         <v>777</v>
       </c>
       <c r="H277" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="I277" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -11102,7 +11105,7 @@
         <v>279</v>
       </c>
       <c r="E278" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F278" t="s">
         <v>659</v>
@@ -11111,10 +11114,10 @@
         <v>883</v>
       </c>
       <c r="H278" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="I278" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -11128,7 +11131,7 @@
         <v>280</v>
       </c>
       <c r="E279" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F279" t="s">
         <v>660</v>
@@ -11137,10 +11140,10 @@
         <v>777</v>
       </c>
       <c r="H279" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="I279" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
@@ -11154,7 +11157,7 @@
         <v>281</v>
       </c>
       <c r="E280" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F280" t="s">
         <v>661</v>
@@ -11163,10 +11166,10 @@
         <v>774</v>
       </c>
       <c r="H280" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="I280" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
@@ -11180,7 +11183,7 @@
         <v>282</v>
       </c>
       <c r="E281" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F281" t="s">
         <v>662</v>
@@ -11189,10 +11192,10 @@
         <v>770</v>
       </c>
       <c r="H281" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="I281" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
@@ -11206,7 +11209,7 @@
         <v>283</v>
       </c>
       <c r="E282" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F282" t="s">
         <v>663</v>
@@ -11215,10 +11218,10 @@
         <v>949</v>
       </c>
       <c r="H282" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
       <c r="I282" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -11232,7 +11235,7 @@
         <v>284</v>
       </c>
       <c r="E283" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F283" t="s">
         <v>664</v>
@@ -11241,10 +11244,10 @@
         <v>950</v>
       </c>
       <c r="H283" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="I283" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -11258,7 +11261,7 @@
         <v>285</v>
       </c>
       <c r="E284" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F284" t="s">
         <v>665</v>
@@ -11267,10 +11270,10 @@
         <v>951</v>
       </c>
       <c r="H284" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="I284" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -11284,7 +11287,7 @@
         <v>286</v>
       </c>
       <c r="E285" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F285" t="s">
         <v>666</v>
@@ -11293,10 +11296,10 @@
         <v>779</v>
       </c>
       <c r="H285" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="I285" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -11310,7 +11313,7 @@
         <v>287</v>
       </c>
       <c r="E286" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F286" t="s">
         <v>667</v>
@@ -11319,10 +11322,10 @@
         <v>916</v>
       </c>
       <c r="H286" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="I286" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
@@ -11336,7 +11339,7 @@
         <v>288</v>
       </c>
       <c r="E287" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F287" t="s">
         <v>668</v>
@@ -11345,10 +11348,10 @@
         <v>952</v>
       </c>
       <c r="H287" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="I287" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -11362,7 +11365,7 @@
         <v>289</v>
       </c>
       <c r="E288" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F288" t="s">
         <v>669</v>
@@ -11371,10 +11374,10 @@
         <v>777</v>
       </c>
       <c r="H288" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="I288" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
@@ -11388,7 +11391,7 @@
         <v>290</v>
       </c>
       <c r="E289" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F289" t="s">
         <v>670</v>
@@ -11397,10 +11400,10 @@
         <v>953</v>
       </c>
       <c r="H289" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
       <c r="I289" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
@@ -11414,7 +11417,7 @@
         <v>291</v>
       </c>
       <c r="E290" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F290" t="s">
         <v>671</v>
@@ -11423,10 +11426,10 @@
         <v>803</v>
       </c>
       <c r="H290" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
       <c r="I290" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
@@ -11440,7 +11443,7 @@
         <v>292</v>
       </c>
       <c r="E291" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F291" t="s">
         <v>672</v>
@@ -11449,10 +11452,10 @@
         <v>954</v>
       </c>
       <c r="H291" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="I291" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
@@ -11466,7 +11469,7 @@
         <v>293</v>
       </c>
       <c r="E292" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F292" t="s">
         <v>673</v>
@@ -11475,10 +11478,10 @@
         <v>914</v>
       </c>
       <c r="H292" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="I292" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
@@ -11492,7 +11495,7 @@
         <v>294</v>
       </c>
       <c r="E293" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F293" t="s">
         <v>674</v>
@@ -11501,10 +11504,10 @@
         <v>790</v>
       </c>
       <c r="H293" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="I293" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
@@ -11518,7 +11521,7 @@
         <v>295</v>
       </c>
       <c r="E294" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F294" t="s">
         <v>675</v>
@@ -11527,10 +11530,10 @@
         <v>777</v>
       </c>
       <c r="H294" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="I294" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
@@ -11544,7 +11547,7 @@
         <v>296</v>
       </c>
       <c r="E295" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F295" t="s">
         <v>676</v>
@@ -11553,10 +11556,10 @@
         <v>774</v>
       </c>
       <c r="H295" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="I295" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
@@ -11570,7 +11573,7 @@
         <v>297</v>
       </c>
       <c r="E296" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F296" t="s">
         <v>677</v>
@@ -11579,10 +11582,10 @@
         <v>777</v>
       </c>
       <c r="H296" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="I296" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
@@ -11596,7 +11599,7 @@
         <v>298</v>
       </c>
       <c r="E297" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F297" t="s">
         <v>678</v>
@@ -11605,10 +11608,10 @@
         <v>777</v>
       </c>
       <c r="H297" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="I297" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
@@ -11622,7 +11625,7 @@
         <v>299</v>
       </c>
       <c r="E298" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F298" t="s">
         <v>679</v>
@@ -11631,10 +11634,10 @@
         <v>949</v>
       </c>
       <c r="H298" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="I298" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
@@ -11648,7 +11651,7 @@
         <v>300</v>
       </c>
       <c r="E299" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F299" t="s">
         <v>680</v>
@@ -11657,10 +11660,10 @@
         <v>955</v>
       </c>
       <c r="H299" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="I299" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
@@ -11674,7 +11677,7 @@
         <v>301</v>
       </c>
       <c r="E300" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F300" t="s">
         <v>681</v>
@@ -11683,10 +11686,10 @@
         <v>940</v>
       </c>
       <c r="H300" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="I300" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
@@ -11700,7 +11703,7 @@
         <v>302</v>
       </c>
       <c r="E301" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F301" t="s">
         <v>682</v>
@@ -11709,10 +11712,10 @@
         <v>956</v>
       </c>
       <c r="H301" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="I301" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
@@ -11726,7 +11729,7 @@
         <v>303</v>
       </c>
       <c r="E302" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F302" t="s">
         <v>683</v>
@@ -11735,10 +11738,10 @@
         <v>768</v>
       </c>
       <c r="H302" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="I302" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
@@ -11752,7 +11755,7 @@
         <v>304</v>
       </c>
       <c r="E303" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F303" t="s">
         <v>684</v>
@@ -11761,10 +11764,10 @@
         <v>838</v>
       </c>
       <c r="H303" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="I303" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
@@ -11778,7 +11781,7 @@
         <v>305</v>
       </c>
       <c r="E304" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F304" t="s">
         <v>685</v>
@@ -11787,10 +11790,10 @@
         <v>957</v>
       </c>
       <c r="H304" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="I304" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -11804,7 +11807,7 @@
         <v>306</v>
       </c>
       <c r="E305" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F305" t="s">
         <v>686</v>
@@ -11813,10 +11816,10 @@
         <v>852</v>
       </c>
       <c r="H305" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="I305" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -11830,7 +11833,7 @@
         <v>307</v>
       </c>
       <c r="E306" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F306" t="s">
         <v>687</v>
@@ -11839,10 +11842,10 @@
         <v>852</v>
       </c>
       <c r="H306" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="I306" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -11856,7 +11859,7 @@
         <v>308</v>
       </c>
       <c r="E307" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F307" t="s">
         <v>688</v>
@@ -11865,10 +11868,10 @@
         <v>958</v>
       </c>
       <c r="H307" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="I307" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -11882,7 +11885,7 @@
         <v>309</v>
       </c>
       <c r="E308" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F308" t="s">
         <v>689</v>
@@ -11891,10 +11894,10 @@
         <v>959</v>
       </c>
       <c r="H308" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="I308" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
@@ -11908,7 +11911,7 @@
         <v>310</v>
       </c>
       <c r="E309" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F309" t="s">
         <v>690</v>
@@ -11917,10 +11920,10 @@
         <v>774</v>
       </c>
       <c r="H309" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="I309" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -11934,7 +11937,7 @@
         <v>311</v>
       </c>
       <c r="E310" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F310" t="s">
         <v>691</v>
@@ -11943,10 +11946,10 @@
         <v>777</v>
       </c>
       <c r="H310" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="I310" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
@@ -11960,7 +11963,7 @@
         <v>312</v>
       </c>
       <c r="E311" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F311" t="s">
         <v>692</v>
@@ -11969,10 +11972,10 @@
         <v>777</v>
       </c>
       <c r="H311" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="I311" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -11989,7 +11992,7 @@
         <v>313</v>
       </c>
       <c r="E312" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F312" t="s">
         <v>693</v>
@@ -11998,10 +12001,10 @@
         <v>960</v>
       </c>
       <c r="H312" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="I312" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
@@ -12018,7 +12021,7 @@
         <v>314</v>
       </c>
       <c r="E313" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F313" t="s">
         <v>694</v>
@@ -12027,10 +12030,10 @@
         <v>943</v>
       </c>
       <c r="H313" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="I313" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -12047,7 +12050,7 @@
         <v>315</v>
       </c>
       <c r="E314" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F314" t="s">
         <v>695</v>
@@ -12056,10 +12059,10 @@
         <v>961</v>
       </c>
       <c r="H314" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="I314" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -12073,7 +12076,7 @@
         <v>316</v>
       </c>
       <c r="E315" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F315" t="s">
         <v>696</v>
@@ -12082,10 +12085,10 @@
         <v>962</v>
       </c>
       <c r="H315" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="I315" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -12099,7 +12102,7 @@
         <v>317</v>
       </c>
       <c r="E316" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F316" t="s">
         <v>697</v>
@@ -12108,10 +12111,10 @@
         <v>774</v>
       </c>
       <c r="H316" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="I316" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
@@ -12125,7 +12128,7 @@
         <v>318</v>
       </c>
       <c r="E317" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F317" t="s">
         <v>698</v>
@@ -12134,10 +12137,10 @@
         <v>952</v>
       </c>
       <c r="H317" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="I317" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -12151,7 +12154,7 @@
         <v>319</v>
       </c>
       <c r="E318" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F318" t="s">
         <v>699</v>
@@ -12160,10 +12163,10 @@
         <v>963</v>
       </c>
       <c r="H318" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="I318" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -12177,7 +12180,7 @@
         <v>320</v>
       </c>
       <c r="E319" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F319" t="s">
         <v>700</v>
@@ -12186,10 +12189,10 @@
         <v>827</v>
       </c>
       <c r="H319" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="I319" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -12203,7 +12206,7 @@
         <v>321</v>
       </c>
       <c r="E320" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F320" t="s">
         <v>701</v>
@@ -12212,10 +12215,10 @@
         <v>777</v>
       </c>
       <c r="H320" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="I320" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.3">
@@ -12229,7 +12232,7 @@
         <v>322</v>
       </c>
       <c r="E321" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F321" t="s">
         <v>702</v>
@@ -12238,10 +12241,10 @@
         <v>827</v>
       </c>
       <c r="H321" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="I321" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.3">
@@ -12255,7 +12258,7 @@
         <v>323</v>
       </c>
       <c r="E322" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F322" t="s">
         <v>703</v>
@@ -12264,10 +12267,10 @@
         <v>774</v>
       </c>
       <c r="H322" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="I322" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.3">
@@ -12281,7 +12284,7 @@
         <v>324</v>
       </c>
       <c r="E323" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F323" t="s">
         <v>704</v>
@@ -12290,13 +12293,13 @@
         <v>964</v>
       </c>
       <c r="H323" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="I323" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="J323" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.3">
@@ -12310,7 +12313,7 @@
         <v>325</v>
       </c>
       <c r="E324" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F324" t="s">
         <v>705</v>
@@ -12319,13 +12322,13 @@
         <v>777</v>
       </c>
       <c r="H324" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="I324" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="J324" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.3">
@@ -12339,7 +12342,7 @@
         <v>326</v>
       </c>
       <c r="E325" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F325" t="s">
         <v>706</v>
@@ -12348,13 +12351,13 @@
         <v>791</v>
       </c>
       <c r="H325" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="I325" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="J325" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.3">
@@ -12368,7 +12371,7 @@
         <v>327</v>
       </c>
       <c r="E326" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F326" t="s">
         <v>707</v>
@@ -12377,13 +12380,13 @@
         <v>827</v>
       </c>
       <c r="H326" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="I326" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="J326" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.3">
@@ -12397,7 +12400,7 @@
         <v>328</v>
       </c>
       <c r="E327" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F327" t="s">
         <v>708</v>
@@ -12406,13 +12409,13 @@
         <v>827</v>
       </c>
       <c r="H327" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="I327" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="J327" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.3">
@@ -12426,7 +12429,7 @@
         <v>329</v>
       </c>
       <c r="E328" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F328" t="s">
         <v>709</v>
@@ -12435,13 +12438,13 @@
         <v>965</v>
       </c>
       <c r="H328" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="I328" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="J328" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.3">
@@ -12455,7 +12458,7 @@
         <v>330</v>
       </c>
       <c r="E329" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F329" t="s">
         <v>710</v>
@@ -12464,13 +12467,13 @@
         <v>966</v>
       </c>
       <c r="H329" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="I329" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="J329" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.3">
@@ -12484,7 +12487,7 @@
         <v>331</v>
       </c>
       <c r="E330" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F330" t="s">
         <v>711</v>
@@ -12493,13 +12496,13 @@
         <v>967</v>
       </c>
       <c r="H330" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="I330" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="J330" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.3">
@@ -12513,7 +12516,7 @@
         <v>332</v>
       </c>
       <c r="E331" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F331" t="s">
         <v>712</v>
@@ -12522,10 +12525,10 @@
         <v>968</v>
       </c>
       <c r="H331" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="I331" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.3">
@@ -12539,7 +12542,7 @@
         <v>333</v>
       </c>
       <c r="E332" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F332" t="s">
         <v>713</v>
@@ -12548,10 +12551,10 @@
         <v>779</v>
       </c>
       <c r="H332" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="I332" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.3">
@@ -12565,7 +12568,7 @@
         <v>334</v>
       </c>
       <c r="E333" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F333" t="s">
         <v>714</v>
@@ -12574,10 +12577,10 @@
         <v>969</v>
       </c>
       <c r="H333" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="I333" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.3">
@@ -12591,7 +12594,7 @@
         <v>335</v>
       </c>
       <c r="E334" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F334" t="s">
         <v>715</v>
@@ -12600,10 +12603,10 @@
         <v>777</v>
       </c>
       <c r="H334" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="I334" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.3">
@@ -12617,7 +12620,7 @@
         <v>336</v>
       </c>
       <c r="E335" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F335" t="s">
         <v>716</v>
@@ -12626,10 +12629,10 @@
         <v>970</v>
       </c>
       <c r="H335" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="I335" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.3">
@@ -12643,7 +12646,7 @@
         <v>337</v>
       </c>
       <c r="E336" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F336" t="s">
         <v>717</v>
@@ -12652,10 +12655,10 @@
         <v>827</v>
       </c>
       <c r="H336" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="I336" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
@@ -12669,7 +12672,7 @@
         <v>338</v>
       </c>
       <c r="E337" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F337" t="s">
         <v>718</v>
@@ -12678,10 +12681,10 @@
         <v>971</v>
       </c>
       <c r="H337" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="I337" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
@@ -12695,7 +12698,7 @@
         <v>339</v>
       </c>
       <c r="E338" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F338" t="s">
         <v>719</v>
@@ -12704,10 +12707,10 @@
         <v>952</v>
       </c>
       <c r="H338" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="I338" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
@@ -12721,7 +12724,7 @@
         <v>340</v>
       </c>
       <c r="E339" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F339" t="s">
         <v>720</v>
@@ -12730,10 +12733,10 @@
         <v>774</v>
       </c>
       <c r="H339" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="I339" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
@@ -12747,7 +12750,7 @@
         <v>341</v>
       </c>
       <c r="E340" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F340" t="s">
         <v>721</v>
@@ -12756,10 +12759,10 @@
         <v>972</v>
       </c>
       <c r="H340" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="I340" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
@@ -12773,7 +12776,7 @@
         <v>342</v>
       </c>
       <c r="E341" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F341" t="s">
         <v>722</v>
@@ -12782,10 +12785,10 @@
         <v>777</v>
       </c>
       <c r="H341" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="I341" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
@@ -12799,7 +12802,7 @@
         <v>343</v>
       </c>
       <c r="E342" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F342" t="s">
         <v>723</v>
@@ -12808,10 +12811,10 @@
         <v>777</v>
       </c>
       <c r="H342" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="I342" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
@@ -12828,7 +12831,7 @@
         <v>344</v>
       </c>
       <c r="E343" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F343" t="s">
         <v>724</v>
@@ -12837,10 +12840,10 @@
         <v>973</v>
       </c>
       <c r="H343" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="I343" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
@@ -12857,7 +12860,7 @@
         <v>345</v>
       </c>
       <c r="E344" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F344" t="s">
         <v>725</v>
@@ -12866,10 +12869,10 @@
         <v>974</v>
       </c>
       <c r="H344" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="I344" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
@@ -12886,7 +12889,7 @@
         <v>346</v>
       </c>
       <c r="E345" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F345" t="s">
         <v>726</v>
@@ -12895,10 +12898,10 @@
         <v>975</v>
       </c>
       <c r="H345" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="I345" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
@@ -12915,7 +12918,7 @@
         <v>347</v>
       </c>
       <c r="E346" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F346" t="s">
         <v>727</v>
@@ -12924,10 +12927,10 @@
         <v>827</v>
       </c>
       <c r="H346" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="I346" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
@@ -12944,7 +12947,7 @@
         <v>348</v>
       </c>
       <c r="E347" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F347" t="s">
         <v>728</v>
@@ -12953,10 +12956,10 @@
         <v>814</v>
       </c>
       <c r="H347" t="s">
-        <v>1125</v>
+        <v>1115</v>
       </c>
       <c r="I347" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
@@ -12973,7 +12976,7 @@
         <v>349</v>
       </c>
       <c r="E348" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F348" t="s">
         <v>729</v>
@@ -12982,10 +12985,10 @@
         <v>976</v>
       </c>
       <c r="H348" t="s">
-        <v>1125</v>
+        <v>1115</v>
       </c>
       <c r="I348" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
@@ -12999,7 +13002,7 @@
         <v>350</v>
       </c>
       <c r="E349" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F349" t="s">
         <v>730</v>
@@ -13008,10 +13011,10 @@
         <v>774</v>
       </c>
       <c r="H349" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="I349" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
@@ -13025,7 +13028,7 @@
         <v>351</v>
       </c>
       <c r="E350" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F350" t="s">
         <v>731</v>
@@ -13034,10 +13037,10 @@
         <v>774</v>
       </c>
       <c r="H350" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="I350" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
@@ -13051,7 +13054,7 @@
         <v>352</v>
       </c>
       <c r="E351" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F351" t="s">
         <v>732</v>
@@ -13060,10 +13063,10 @@
         <v>774</v>
       </c>
       <c r="H351" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="I351" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
@@ -13077,7 +13080,7 @@
         <v>353</v>
       </c>
       <c r="E352" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F352" t="s">
         <v>733</v>
@@ -13086,10 +13089,10 @@
         <v>977</v>
       </c>
       <c r="H352" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="I352" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.3">
@@ -13103,7 +13106,7 @@
         <v>354</v>
       </c>
       <c r="E353" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F353" t="s">
         <v>734</v>
@@ -13112,10 +13115,10 @@
         <v>978</v>
       </c>
       <c r="H353" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="I353" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.3">
@@ -13129,7 +13132,7 @@
         <v>355</v>
       </c>
       <c r="E354" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F354" t="s">
         <v>735</v>
@@ -13138,16 +13141,16 @@
         <v>914</v>
       </c>
       <c r="H354" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="I354" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="K354" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="L354" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.3">
@@ -13161,7 +13164,7 @@
         <v>356</v>
       </c>
       <c r="E355" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F355" t="s">
         <v>736</v>
@@ -13170,16 +13173,16 @@
         <v>979</v>
       </c>
       <c r="H355" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="I355" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="K355" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="L355" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.3">
@@ -13193,7 +13196,7 @@
         <v>357</v>
       </c>
       <c r="E356" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F356" t="s">
         <v>737</v>
@@ -13202,16 +13205,16 @@
         <v>980</v>
       </c>
       <c r="H356" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="I356" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="K356" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="L356" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.3">
@@ -13225,7 +13228,7 @@
         <v>358</v>
       </c>
       <c r="E357" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F357" t="s">
         <v>738</v>
@@ -13234,10 +13237,10 @@
         <v>981</v>
       </c>
       <c r="H357" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
       <c r="I357" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.3">
@@ -13251,7 +13254,7 @@
         <v>359</v>
       </c>
       <c r="E358" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F358" t="s">
         <v>739</v>
@@ -13260,10 +13263,10 @@
         <v>972</v>
       </c>
       <c r="H358" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
       <c r="I358" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.3">
@@ -13277,7 +13280,7 @@
         <v>360</v>
       </c>
       <c r="E359" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F359" t="s">
         <v>740</v>
@@ -13286,10 +13289,10 @@
         <v>883</v>
       </c>
       <c r="H359" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
       <c r="I359" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.3">
@@ -13303,7 +13306,7 @@
         <v>361</v>
       </c>
       <c r="E360" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F360" t="s">
         <v>741</v>
@@ -13312,10 +13315,10 @@
         <v>982</v>
       </c>
       <c r="H360" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
       <c r="I360" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.3">
@@ -13329,7 +13332,7 @@
         <v>362</v>
       </c>
       <c r="E361" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F361" t="s">
         <v>742</v>
@@ -13338,10 +13341,10 @@
         <v>777</v>
       </c>
       <c r="H361" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
       <c r="I361" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.3">
@@ -13355,7 +13358,7 @@
         <v>363</v>
       </c>
       <c r="E362" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F362" t="s">
         <v>743</v>
@@ -13364,10 +13367,10 @@
         <v>983</v>
       </c>
       <c r="H362" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
       <c r="I362" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.3">
@@ -13381,7 +13384,7 @@
         <v>364</v>
       </c>
       <c r="E363" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F363" t="s">
         <v>744</v>
@@ -13390,10 +13393,10 @@
         <v>984</v>
       </c>
       <c r="H363" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
       <c r="I363" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.3">
@@ -13407,7 +13410,7 @@
         <v>365</v>
       </c>
       <c r="E364" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F364" t="s">
         <v>745</v>
@@ -13416,10 +13419,10 @@
         <v>812</v>
       </c>
       <c r="H364" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
       <c r="I364" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.3">
@@ -13433,7 +13436,7 @@
         <v>366</v>
       </c>
       <c r="E365" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F365" t="s">
         <v>746</v>
@@ -13442,10 +13445,10 @@
         <v>770</v>
       </c>
       <c r="H365" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="I365" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.3">
@@ -13459,7 +13462,7 @@
         <v>367</v>
       </c>
       <c r="E366" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F366" t="s">
         <v>747</v>
@@ -13468,10 +13471,10 @@
         <v>777</v>
       </c>
       <c r="H366" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="I366" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.3">
@@ -13485,7 +13488,7 @@
         <v>368</v>
       </c>
       <c r="E367" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F367" t="s">
         <v>748</v>
@@ -13494,10 +13497,10 @@
         <v>777</v>
       </c>
       <c r="H367" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="I367" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.3">
@@ -13511,7 +13514,7 @@
         <v>369</v>
       </c>
       <c r="E368" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F368" t="s">
         <v>749</v>
@@ -13520,10 +13523,10 @@
         <v>774</v>
       </c>
       <c r="H368" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="I368" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.3">
@@ -13537,7 +13540,7 @@
         <v>370</v>
       </c>
       <c r="E369" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F369" t="s">
         <v>750</v>
@@ -13546,10 +13549,10 @@
         <v>985</v>
       </c>
       <c r="H369" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="I369" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.3">
@@ -13563,7 +13566,7 @@
         <v>371</v>
       </c>
       <c r="E370" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F370" t="s">
         <v>751</v>
@@ -13572,10 +13575,10 @@
         <v>986</v>
       </c>
       <c r="H370" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="I370" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.3">
@@ -13589,7 +13592,7 @@
         <v>372</v>
       </c>
       <c r="E371" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F371" t="s">
         <v>752</v>
@@ -13598,10 +13601,10 @@
         <v>779</v>
       </c>
       <c r="H371" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="I371" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.3">
@@ -13615,7 +13618,7 @@
         <v>373</v>
       </c>
       <c r="E372" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F372" t="s">
         <v>753</v>
@@ -13624,16 +13627,16 @@
         <v>987</v>
       </c>
       <c r="H372" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="I372" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="K372" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="L372" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.3">
@@ -13647,7 +13650,7 @@
         <v>374</v>
       </c>
       <c r="E373" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F373" t="s">
         <v>754</v>
@@ -13656,16 +13659,16 @@
         <v>988</v>
       </c>
       <c r="H373" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="I373" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="K373" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="L373" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.3">
@@ -13679,7 +13682,7 @@
         <v>375</v>
       </c>
       <c r="E374" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F374" t="s">
         <v>755</v>
@@ -13688,10 +13691,10 @@
         <v>808</v>
       </c>
       <c r="H374" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="I374" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.3">
@@ -13705,7 +13708,7 @@
         <v>376</v>
       </c>
       <c r="E375" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F375" t="s">
         <v>756</v>
@@ -13714,10 +13717,10 @@
         <v>770</v>
       </c>
       <c r="H375" t="s">
-        <v>1101</v>
+        <v>1127</v>
       </c>
       <c r="I375" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.3">
@@ -13731,7 +13734,7 @@
         <v>377</v>
       </c>
       <c r="E376" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F376" t="s">
         <v>757</v>
@@ -13740,10 +13743,10 @@
         <v>977</v>
       </c>
       <c r="H376" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
       <c r="I376" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.3">
@@ -13757,7 +13760,7 @@
         <v>378</v>
       </c>
       <c r="E377" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F377" t="s">
         <v>758</v>
@@ -13766,10 +13769,10 @@
         <v>989</v>
       </c>
       <c r="H377" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="I377" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.3">
@@ -13783,7 +13786,7 @@
         <v>379</v>
       </c>
       <c r="E378" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F378" t="s">
         <v>759</v>
@@ -13792,10 +13795,10 @@
         <v>774</v>
       </c>
       <c r="H378" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="I378" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.3">
@@ -13809,7 +13812,7 @@
         <v>380</v>
       </c>
       <c r="E379" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F379" t="s">
         <v>760</v>
@@ -13818,10 +13821,10 @@
         <v>774</v>
       </c>
       <c r="H379" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="I379" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.3">
@@ -13835,7 +13838,7 @@
         <v>381</v>
       </c>
       <c r="E380" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F380" t="s">
         <v>761</v>
@@ -13844,10 +13847,10 @@
         <v>779</v>
       </c>
       <c r="H380" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="I380" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.3">
@@ -13861,7 +13864,7 @@
         <v>382</v>
       </c>
       <c r="E381" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F381" t="s">
         <v>762</v>
@@ -13870,10 +13873,10 @@
         <v>774</v>
       </c>
       <c r="H381" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="I381" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.3">
@@ -13887,7 +13890,7 @@
         <v>383</v>
       </c>
       <c r="E382" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F382" t="s">
         <v>763</v>
@@ -13896,10 +13899,10 @@
         <v>852</v>
       </c>
       <c r="H382" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="I382" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.3">
@@ -13913,7 +13916,7 @@
         <v>384</v>
       </c>
       <c r="E383" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F383" t="s">
         <v>764</v>
@@ -13922,10 +13925,10 @@
         <v>774</v>
       </c>
       <c r="H383" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="I383" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.3">
@@ -13939,7 +13942,7 @@
         <v>385</v>
       </c>
       <c r="E384" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F384" t="s">
         <v>765</v>
@@ -13948,13 +13951,14 @@
         <v>827</v>
       </c>
       <c r="H384" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="I384" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>